--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,17 +13,17 @@
     <sheet name="Postes" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compétitions" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="158">
   <si>
     <t>Club</t>
   </si>
@@ -34,9 +34,6 @@
     <t>A.S DRAGUIGNAN NATATION</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>AMSL FRÉJUS</t>
   </si>
   <si>
@@ -109,6 +106,138 @@
     <t>B depuis</t>
   </si>
   <si>
+    <t>AIRAUD Cedric</t>
+  </si>
+  <si>
+    <t>AIRAUD Sophie</t>
+  </si>
+  <si>
+    <t>BEAUMONT Frédéric</t>
+  </si>
+  <si>
+    <t>BOTTERO Annie</t>
+  </si>
+  <si>
+    <t>CALATAYUD Lionel</t>
+  </si>
+  <si>
+    <t>CALATAYUD-SIJMONS Trudy</t>
+  </si>
+  <si>
+    <t>CANTET Laetitia</t>
+  </si>
+  <si>
+    <t>CANTET Laurent</t>
+  </si>
+  <si>
+    <t>CARLES Corinne</t>
+  </si>
+  <si>
+    <t>CHERRIERE Martine</t>
+  </si>
+  <si>
+    <t>CHILINI Philippe</t>
+  </si>
+  <si>
+    <t>CLAMENS Sophie</t>
+  </si>
+  <si>
+    <t>COUTANT Isabelle</t>
+  </si>
+  <si>
+    <t>DAL MASO Christine</t>
+  </si>
+  <si>
+    <t>DIONISI Sébastien</t>
+  </si>
+  <si>
+    <t>DUGARDIN Hugues</t>
+  </si>
+  <si>
+    <t>FELIX Ariane</t>
+  </si>
+  <si>
+    <t>GARRO Francoise</t>
+  </si>
+  <si>
+    <t>GIBSON Herbert</t>
+  </si>
+  <si>
+    <t>GIORDANENGO Jean-Louis</t>
+  </si>
+  <si>
+    <t>HEMERY Emmanuelle</t>
+  </si>
+  <si>
+    <t>LE LAY Nathalie</t>
+  </si>
+  <si>
+    <t>LEBON Christophe</t>
+  </si>
+  <si>
+    <t>LEONARDI Ingrid</t>
+  </si>
+  <si>
+    <t>LHERMITTE Morgan</t>
+  </si>
+  <si>
+    <t>MARTIN Patrice</t>
+  </si>
+  <si>
+    <t>MASSENA Elisabeth</t>
+  </si>
+  <si>
+    <t>MEYER Stephanie</t>
+  </si>
+  <si>
+    <t>MILLE Nathalie</t>
+  </si>
+  <si>
+    <t>MORVAN Laure</t>
+  </si>
+  <si>
+    <t>NECTOUX Ivan</t>
+  </si>
+  <si>
+    <t>PEROTTINO BARBIER Fabienne</t>
+  </si>
+  <si>
+    <t>PERRIER Christine</t>
+  </si>
+  <si>
+    <t>PIERRE Nathalie</t>
+  </si>
+  <si>
+    <t>PRAILLET Gerard</t>
+  </si>
+  <si>
+    <t>REBERT Albert</t>
+  </si>
+  <si>
+    <t>RENAUD Brigitte</t>
+  </si>
+  <si>
+    <t>RENAUD Serge</t>
+  </si>
+  <si>
+    <t>ROSSO Jean-Jacques</t>
+  </si>
+  <si>
+    <t>SELLET Peggy</t>
+  </si>
+  <si>
+    <t>VAROQUIER Stephane</t>
+  </si>
+  <si>
+    <t>VARTANIAN Stephane</t>
+  </si>
+  <si>
+    <t>XALLE Christelle</t>
+  </si>
+  <si>
+    <t>ZORDAN Damien</t>
+  </si>
+  <si>
     <t>Poste</t>
   </si>
   <si>
@@ -158,20 +287,233 @@
   </si>
   <si>
     <t>Starter</t>
+  </si>
+  <si>
+    <t>Numéro</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Compétition</t>
+  </si>
+  <si>
+    <t>Régional</t>
+  </si>
+  <si>
+    <t>Équipe</t>
+  </si>
+  <si>
+    <t>dimanche, 11 octobre 2015</t>
+  </si>
+  <si>
+    <t>Rencontre benjamins N° 1</t>
+  </si>
+  <si>
+    <t>Rencontre poussins N° 1</t>
+  </si>
+  <si>
+    <t>dimanche, 18 octobre 2015</t>
+  </si>
+  <si>
+    <t>Meeting régional N°1 minimes et plus</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>samedi, 7 novembre 2015</t>
+  </si>
+  <si>
+    <t>Interclubs poule B (Equipes)</t>
+  </si>
+  <si>
+    <t>dimanche, 22 novembre 2015</t>
+  </si>
+  <si>
+    <t>Championnats départementaux 06 et 83 25m</t>
+  </si>
+  <si>
+    <t>dimanche, 29 novembre 2015</t>
+  </si>
+  <si>
+    <t>Championnat régional ½ fond</t>
+  </si>
+  <si>
+    <t>dimanche, 6 décembre 2015</t>
+  </si>
+  <si>
+    <t>Championnats régionaux minimes et plus</t>
+  </si>
+  <si>
+    <t>dimanche, 13 décembre 2015</t>
+  </si>
+  <si>
+    <t>Coupe Interclubs 12-13 ans</t>
+  </si>
+  <si>
+    <t>samedi, 19 décembre 2015</t>
+  </si>
+  <si>
+    <t>Championnats Maîtres</t>
+  </si>
+  <si>
+    <t>dimanche, 20 décembre 2015</t>
+  </si>
+  <si>
+    <t>Trophée Guy Giacomoni</t>
+  </si>
+  <si>
+    <t>dimanche, 17 janvier 2016</t>
+  </si>
+  <si>
+    <t>Rencontre avenirs N° 2</t>
+  </si>
+  <si>
+    <t>Natathlon poussins N° 1</t>
+  </si>
+  <si>
+    <t>dimanche, 24 janvier 2016</t>
+  </si>
+  <si>
+    <t>Golden Tour</t>
+  </si>
+  <si>
+    <t>dimanche, 31 janvier 2016</t>
+  </si>
+  <si>
+    <t>Coupe Interclubs 14 ans-15 ans</t>
+  </si>
+  <si>
+    <t>dimanche, 7 février 2016</t>
+  </si>
+  <si>
+    <t>Meeting Régional Sprint Minimes et +</t>
+  </si>
+  <si>
+    <t>samedi, 27 février 2016</t>
+  </si>
+  <si>
+    <t>Natathlon poussins N° 2</t>
+  </si>
+  <si>
+    <t>dimanche, 28 février 2016</t>
+  </si>
+  <si>
+    <t>Natathlon benjamins N° 1</t>
+  </si>
+  <si>
+    <t>dimanche, 6 mars 2016</t>
+  </si>
+  <si>
+    <t>Meeting Régional N°2</t>
+  </si>
+  <si>
+    <t>dimanche, 13 mars 2016</t>
+  </si>
+  <si>
+    <t>KM Antibes</t>
+  </si>
+  <si>
+    <t>dimanche, 20 mars 2016</t>
+  </si>
+  <si>
+    <t>N2 50m</t>
+  </si>
+  <si>
+    <t>dimanche, 27 mars 2016</t>
+  </si>
+  <si>
+    <t>Natathlon poussins N° 3</t>
+  </si>
+  <si>
+    <t>samedi, 2 avril 2016</t>
+  </si>
+  <si>
+    <t>dimanche, 3 avril 2016</t>
+  </si>
+  <si>
+    <t>Natathlon benjamins N° 2</t>
+  </si>
+  <si>
+    <t>dimanche, 10 avril 2016</t>
+  </si>
+  <si>
+    <t>Interclubs poussins N° 2</t>
+  </si>
+  <si>
+    <t>dimanche, 24 avril 2016</t>
+  </si>
+  <si>
+    <t>Natathlon benjamins N° 3 régional avec grille</t>
+  </si>
+  <si>
+    <t>dimanche, 8 mai 2016</t>
+  </si>
+  <si>
+    <t>Natathlon poussins N° 4</t>
+  </si>
+  <si>
+    <t>dimanche, 15 mai 2016</t>
+  </si>
+  <si>
+    <t>Meeting Régional des 7 trophées</t>
+  </si>
+  <si>
+    <t>dimanche, 22 mai 2016</t>
+  </si>
+  <si>
+    <t>Polonat</t>
+  </si>
+  <si>
+    <t>Natathlon benjamins N° 4 régional avec grille</t>
+  </si>
+  <si>
+    <t>dimanche, 5 juin 2016</t>
+  </si>
+  <si>
+    <t>Meeting de Monaco</t>
+  </si>
+  <si>
+    <t>Finales des natathlons poussins et benjamins</t>
+  </si>
+  <si>
+    <t>dimanche, 12 juin 2016</t>
+  </si>
+  <si>
+    <t>Chpt régional bassin de 50 m minimes et +</t>
+  </si>
+  <si>
+    <t>dimanche, 19 juin 2016</t>
+  </si>
+  <si>
+    <t>Rencontre benjamins N°3</t>
+  </si>
+  <si>
+    <t>Rencontre avenirs N°3 et test pass compétition</t>
+  </si>
+  <si>
+    <t>samedi, 25 juin 2016</t>
+  </si>
+  <si>
+    <t>Championnat maîtres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -191,16 +533,30 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66CCFF"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,14 +587,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,8 +621,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -259,6 +646,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF66CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -269,17 +716,17 @@
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -287,181 +734,181 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="B19" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B21" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
+      <c r="B22" s="3" t="n">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -471,38 +918,424 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -515,126 +1348,126 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -644,19 +1477,477 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>32997</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>32993</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>33463</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>34323</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>33007</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>35303</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>35207</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="n">
+        <v>35205</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="n">
+        <v>33009</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>35711</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6"/>
+      <c r="B23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6"/>
+      <c r="B24" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
+      <c r="B25" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6"/>
+      <c r="B26" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6"/>
+      <c r="B29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6"/>
+      <c r="B31" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6"/>
+      <c r="B33" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6"/>
+      <c r="B34" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6"/>
+      <c r="B35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6"/>
+      <c r="B36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6"/>
+      <c r="B37" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6"/>
+      <c r="B38" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
   <si>
     <t>Club</t>
   </si>
@@ -106,18 +106,42 @@
     <t>B depuis</t>
   </si>
   <si>
+    <t>ACKERMANN Isabelle</t>
+  </si>
+  <si>
     <t>AIRAUD Cedric</t>
   </si>
   <si>
     <t>AIRAUD Sophie</t>
   </si>
   <si>
+    <t>BARROT Gilbert</t>
+  </si>
+  <si>
     <t>BEAUMONT Frédéric</t>
   </si>
   <si>
+    <t>BERTAUX Yann</t>
+  </si>
+  <si>
+    <t>BIANCHI Nicolas</t>
+  </si>
+  <si>
+    <t>BIANCHI Sabine</t>
+  </si>
+  <si>
+    <t>BONIFACINO Monica</t>
+  </si>
+  <si>
+    <t>BONY Christine</t>
+  </si>
+  <si>
     <t>BOTTERO Annie</t>
   </si>
   <si>
+    <t>BRIAND David</t>
+  </si>
+  <si>
     <t>CALATAYUD Lionel</t>
   </si>
   <si>
@@ -142,12 +166,18 @@
     <t>CLAMENS Sophie</t>
   </si>
   <si>
+    <t>COURTIN Richard</t>
+  </si>
+  <si>
     <t>COUTANT Isabelle</t>
   </si>
   <si>
     <t>DAL MASO Christine</t>
   </si>
   <si>
+    <t>DELACROIX Romane</t>
+  </si>
+  <si>
     <t>DIONISI Sébastien</t>
   </si>
   <si>
@@ -157,6 +187,12 @@
     <t>FELIX Ariane</t>
   </si>
   <si>
+    <t>FLECHE Eric</t>
+  </si>
+  <si>
+    <t>GALLO GEROLD Karyn</t>
+  </si>
+  <si>
     <t>GARRO Francoise</t>
   </si>
   <si>
@@ -166,9 +202,21 @@
     <t>GIORDANENGO Jean-Louis</t>
   </si>
   <si>
+    <t>GIOVANETTI Nadege</t>
+  </si>
+  <si>
     <t>HEMERY Emmanuelle</t>
   </si>
   <si>
+    <t>JIGUET David</t>
+  </si>
+  <si>
+    <t>JIGUET Sandrine</t>
+  </si>
+  <si>
+    <t>LAHANA Didier</t>
+  </si>
+  <si>
     <t>LE LAY Nathalie</t>
   </si>
   <si>
@@ -181,6 +229,9 @@
     <t>LHERMITTE Morgan</t>
   </si>
   <si>
+    <t>LOISY Stéphanie</t>
+  </si>
+  <si>
     <t>MARTIN Patrice</t>
   </si>
   <si>
@@ -193,12 +244,27 @@
     <t>MILLE Nathalie</t>
   </si>
   <si>
+    <t>MIYAMATSU Kyo</t>
+  </si>
+  <si>
+    <t>MOLL Jean</t>
+  </si>
+  <si>
+    <t>MOREAU Olivier</t>
+  </si>
+  <si>
     <t>MORVAN Laure</t>
   </si>
   <si>
+    <t>MUSSO RAZE Laurence</t>
+  </si>
+  <si>
     <t>NECTOUX Ivan</t>
   </si>
   <si>
+    <t>PEREZ Stephane</t>
+  </si>
+  <si>
     <t>PEROTTINO BARBIER Fabienne</t>
   </si>
   <si>
@@ -220,6 +286,12 @@
     <t>RENAUD Serge</t>
   </si>
   <si>
+    <t>RIVIERE Sandra</t>
+  </si>
+  <si>
+    <t>ROBERT Alain</t>
+  </si>
+  <si>
     <t>ROSSO Jean-Jacques</t>
   </si>
   <si>
@@ -232,6 +304,9 @@
     <t>VARTANIAN Stephane</t>
   </si>
   <si>
+    <t>VIORA PUYO Valerie</t>
+  </si>
+  <si>
     <t>XALLE Christelle</t>
   </si>
   <si>
@@ -289,6 +364,15 @@
     <t>Starter</t>
   </si>
   <si>
+    <t>Coordonnateur</t>
+  </si>
+  <si>
+    <t>Gestion extraNat</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
     <t>Numéro</t>
   </si>
   <si>
@@ -304,196 +388,106 @@
     <t>Équipe</t>
   </si>
   <si>
-    <t>dimanche, 11 octobre 2015</t>
-  </si>
-  <si>
     <t>Rencontre benjamins N° 1</t>
   </si>
   <si>
     <t>Rencontre poussins N° 1</t>
   </si>
   <si>
-    <t>dimanche, 18 octobre 2015</t>
-  </si>
-  <si>
     <t>Meeting régional N°1 minimes et plus</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>samedi, 7 novembre 2015</t>
-  </si>
-  <si>
     <t>Interclubs poule B (Equipes)</t>
   </si>
   <si>
-    <t>dimanche, 22 novembre 2015</t>
-  </si>
-  <si>
     <t>Championnats départementaux 06 et 83 25m</t>
   </si>
   <si>
-    <t>dimanche, 29 novembre 2015</t>
-  </si>
-  <si>
     <t>Championnat régional ½ fond</t>
   </si>
   <si>
-    <t>dimanche, 6 décembre 2015</t>
-  </si>
-  <si>
     <t>Championnats régionaux minimes et plus</t>
   </si>
   <si>
-    <t>dimanche, 13 décembre 2015</t>
-  </si>
-  <si>
     <t>Coupe Interclubs 12-13 ans</t>
   </si>
   <si>
-    <t>samedi, 19 décembre 2015</t>
-  </si>
-  <si>
     <t>Championnats Maîtres</t>
   </si>
   <si>
-    <t>dimanche, 20 décembre 2015</t>
-  </si>
-  <si>
     <t>Trophée Guy Giacomoni</t>
   </si>
   <si>
-    <t>dimanche, 17 janvier 2016</t>
-  </si>
-  <si>
     <t>Rencontre avenirs N° 2</t>
   </si>
   <si>
     <t>Natathlon poussins N° 1</t>
   </si>
   <si>
-    <t>dimanche, 24 janvier 2016</t>
-  </si>
-  <si>
     <t>Golden Tour</t>
   </si>
   <si>
-    <t>dimanche, 31 janvier 2016</t>
-  </si>
-  <si>
     <t>Coupe Interclubs 14 ans-15 ans</t>
   </si>
   <si>
-    <t>dimanche, 7 février 2016</t>
-  </si>
-  <si>
     <t>Meeting Régional Sprint Minimes et +</t>
   </si>
   <si>
-    <t>samedi, 27 février 2016</t>
-  </si>
-  <si>
     <t>Natathlon poussins N° 2</t>
   </si>
   <si>
-    <t>dimanche, 28 février 2016</t>
-  </si>
-  <si>
     <t>Natathlon benjamins N° 1</t>
   </si>
   <si>
-    <t>dimanche, 6 mars 2016</t>
-  </si>
-  <si>
     <t>Meeting Régional N°2</t>
   </si>
   <si>
-    <t>dimanche, 13 mars 2016</t>
-  </si>
-  <si>
     <t>KM Antibes</t>
   </si>
   <si>
-    <t>dimanche, 20 mars 2016</t>
-  </si>
-  <si>
     <t>N2 50m</t>
   </si>
   <si>
-    <t>dimanche, 27 mars 2016</t>
-  </si>
-  <si>
     <t>Natathlon poussins N° 3</t>
   </si>
   <si>
-    <t>samedi, 2 avril 2016</t>
-  </si>
-  <si>
-    <t>dimanche, 3 avril 2016</t>
-  </si>
-  <si>
     <t>Natathlon benjamins N° 2</t>
   </si>
   <si>
-    <t>dimanche, 10 avril 2016</t>
-  </si>
-  <si>
     <t>Interclubs poussins N° 2</t>
   </si>
   <si>
-    <t>dimanche, 24 avril 2016</t>
-  </si>
-  <si>
     <t>Natathlon benjamins N° 3 régional avec grille</t>
   </si>
   <si>
-    <t>dimanche, 8 mai 2016</t>
-  </si>
-  <si>
     <t>Natathlon poussins N° 4</t>
   </si>
   <si>
-    <t>dimanche, 15 mai 2016</t>
-  </si>
-  <si>
     <t>Meeting Régional des 7 trophées</t>
   </si>
   <si>
-    <t>dimanche, 22 mai 2016</t>
-  </si>
-  <si>
     <t>Polonat</t>
   </si>
   <si>
     <t>Natathlon benjamins N° 4 régional avec grille</t>
   </si>
   <si>
-    <t>dimanche, 5 juin 2016</t>
-  </si>
-  <si>
     <t>Meeting de Monaco</t>
   </si>
   <si>
     <t>Finales des natathlons poussins et benjamins</t>
   </si>
   <si>
-    <t>dimanche, 12 juin 2016</t>
-  </si>
-  <si>
     <t>Chpt régional bassin de 50 m minimes et +</t>
   </si>
   <si>
-    <t>dimanche, 19 juin 2016</t>
-  </si>
-  <si>
     <t>Rencontre benjamins N°3</t>
   </si>
   <si>
     <t>Rencontre avenirs N°3 et test pass compétition</t>
-  </si>
-  <si>
-    <t>samedi, 25 juin 2016</t>
   </si>
   <si>
     <t>Championnat maîtres</t>
@@ -587,53 +581,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -717,13 +707,13 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="D10 F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -918,19 +908,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.219387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -947,385 +937,758 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="C14" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="2"/>
+      <c r="D24" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D38" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D43" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="C49" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D49" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D58" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D59" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D44" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D67" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D69" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1345,120 +1708,142 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="D10 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1477,473 +1862,488 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="D10 E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>32999</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>42288</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>32997</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="B3" s="5" t="n">
+        <v>42288</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>32995</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>42288</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>32993</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+      <c r="B5" s="5" t="n">
+        <v>42288</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>33463</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+      <c r="B6" s="7" t="n">
+        <v>42295</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>34323</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="B7" s="7" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>33007</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="B8" s="5" t="n">
+        <v>42330</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="n">
+        <v>42337</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>35303</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="B10" s="7" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>35207</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="B11" s="4" t="n">
+        <v>42351</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>35205</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="B12" s="4" t="n">
+        <v>42357</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>33009</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="B13" s="4" t="n">
+        <v>42358</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="n">
+        <v>42386</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="n">
+        <v>42386</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>35711</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B16" s="4" t="n">
+        <v>42393</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="n">
+        <v>42400</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="n">
+        <v>42400</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="n">
+        <v>42407</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="n">
+        <v>42427</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="n">
+        <v>42428</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="n">
+        <v>42435</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="n">
+        <v>42442</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="n">
+        <v>42449</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="n">
+        <v>42456</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="n">
+        <v>42462</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="n">
+        <v>42463</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="n">
+        <v>42470</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="n">
+        <v>42484</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="n">
+        <v>42498</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="n">
+        <v>42505</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9" t="s">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="n">
+        <v>42512</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="n">
+        <v>42512</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="n">
+        <v>42526</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="n">
+        <v>42160</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="n">
+        <v>42167</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="9" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="n">
+        <v>42174</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="n">
+        <v>42174</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="n">
+        <v>42180</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="226">
   <si>
     <t>Club</t>
   </si>
@@ -34,15 +34,21 @@
     <t>A.S DRAGUIGNAN NATATION</t>
   </si>
   <si>
+    <t>AC HYÈRES</t>
+  </si>
+  <si>
+    <t>AC CANNES</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
     <t>AMSL FRÉJUS</t>
   </si>
   <si>
     <t>AQUATIC CLUB DE MENTON</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>AS CACHALOTS SIX-FOURS</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>US ST-TROPEZ</t>
   </si>
   <si>
+    <t>CLUB OMNISPORTS DE VALBONNE</t>
+  </si>
+  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -115,12 +124,27 @@
     <t>AIRAUD Sophie</t>
   </si>
   <si>
+    <t>BARALE Sylvain</t>
+  </si>
+  <si>
+    <t>BARRALIS Patrick</t>
+  </si>
+  <si>
     <t>BARROT Gilbert</t>
   </si>
   <si>
+    <t>BAUSSY Charles</t>
+  </si>
+  <si>
     <t>BEAUMONT Frédéric</t>
   </si>
   <si>
+    <t>BELIN Philippe</t>
+  </si>
+  <si>
+    <t>BENARD Deborah</t>
+  </si>
+  <si>
     <t>BERTAUX Yann</t>
   </si>
   <si>
@@ -136,12 +160,21 @@
     <t>BONY Christine</t>
   </si>
   <si>
+    <t>BORGOGNO Eric</t>
+  </si>
+  <si>
     <t>BOTTERO Annie</t>
   </si>
   <si>
     <t>BRIAND David</t>
   </si>
   <si>
+    <t>BRIMAULT Joël</t>
+  </si>
+  <si>
+    <t>CACI Jean-Philippe</t>
+  </si>
+  <si>
     <t>CALATAYUD Lionel</t>
   </si>
   <si>
@@ -157,6 +190,9 @@
     <t>CARLES Corinne</t>
   </si>
   <si>
+    <t>CHAPUIS Annick</t>
+  </si>
+  <si>
     <t>CHERRIERE Martine</t>
   </si>
   <si>
@@ -166,72 +202,189 @@
     <t>CLAMENS Sophie</t>
   </si>
   <si>
+    <t>COLPAERT Christelle</t>
+  </si>
+  <si>
+    <t>COSTANTINI Isabelle</t>
+  </si>
+  <si>
     <t>COURTIN Richard</t>
   </si>
   <si>
     <t>COUTANT Isabelle</t>
   </si>
   <si>
+    <t>DAGUET Magali</t>
+  </si>
+  <si>
     <t>DAL MASO Christine</t>
   </si>
   <si>
+    <t>DALLE Frederique</t>
+  </si>
+  <si>
+    <t>DANJOU Lola</t>
+  </si>
+  <si>
+    <t>DEAGE Isabelle</t>
+  </si>
+  <si>
+    <t>DECOMBIS Marlene</t>
+  </si>
+  <si>
+    <t>DECOMBIS Olivier</t>
+  </si>
+  <si>
+    <t>DEGAUGUE Franck</t>
+  </si>
+  <si>
     <t>DELACROIX Romane</t>
   </si>
   <si>
     <t>DIONISI Sébastien</t>
   </si>
   <si>
+    <t>DORI Damien</t>
+  </si>
+  <si>
+    <t>DUBOST Jerome</t>
+  </si>
+  <si>
     <t>DUGARDIN Hugues</t>
   </si>
   <si>
+    <t>EYMENIER Nicolas</t>
+  </si>
+  <si>
     <t>FELIX Ariane</t>
   </si>
   <si>
     <t>FLECHE Eric</t>
   </si>
   <si>
+    <t>FLORENT Jerome</t>
+  </si>
+  <si>
+    <t>FREAUD PARRET Mireille</t>
+  </si>
+  <si>
     <t>GALLO GEROLD Karyn</t>
   </si>
   <si>
     <t>GARRO Francoise</t>
   </si>
   <si>
+    <t>GAUBERT Pierre</t>
+  </si>
+  <si>
+    <t>GELFMANN Erwan</t>
+  </si>
+  <si>
+    <t>GELFMANN Gwenaelle</t>
+  </si>
+  <si>
+    <t>GELFMANN Laurent</t>
+  </si>
+  <si>
+    <t>GELFMANN Soizic</t>
+  </si>
+  <si>
     <t>GIBSON Herbert</t>
   </si>
   <si>
+    <t>GIOANNI Jean-Marc</t>
+  </si>
+  <si>
     <t>GIORDANENGO Jean-Louis</t>
   </si>
   <si>
     <t>GIOVANETTI Nadege</t>
   </si>
   <si>
+    <t>GIOVANNETTI Lucas</t>
+  </si>
+  <si>
+    <t>GUIRADO Jerome</t>
+  </si>
+  <si>
     <t>HEMERY Emmanuelle</t>
   </si>
   <si>
+    <t>HESSE Christelle</t>
+  </si>
+  <si>
     <t>JIGUET David</t>
   </si>
   <si>
     <t>JIGUET Sandrine</t>
   </si>
   <si>
+    <t>JULIAN J-François</t>
+  </si>
+  <si>
+    <t>KHALIL Souad</t>
+  </si>
+  <si>
+    <t>KITCHING Anna</t>
+  </si>
+  <si>
+    <t>LAFOSSE Gregory</t>
+  </si>
+  <si>
+    <t>LAGIER Alain</t>
+  </si>
+  <si>
+    <t>LAGIER Dominique</t>
+  </si>
+  <si>
     <t>LAHANA Didier</t>
   </si>
   <si>
+    <t>LAKCHAL Alain</t>
+  </si>
+  <si>
+    <t>LAMBREGHTS Jean-Philippe</t>
+  </si>
+  <si>
     <t>LE LAY Nathalie</t>
   </si>
   <si>
     <t>LEBON Christophe</t>
   </si>
   <si>
+    <t>LECOMTE Annie</t>
+  </si>
+  <si>
+    <t>LEMASSON Pascal</t>
+  </si>
+  <si>
+    <t>LENICA Francis</t>
+  </si>
+  <si>
     <t>LEONARDI Ingrid</t>
   </si>
   <si>
     <t>LHERMITTE Morgan</t>
   </si>
   <si>
+    <t>LIOGIER Marc</t>
+  </si>
+  <si>
+    <t>LIOGIER Marie-Ange</t>
+  </si>
+  <si>
     <t>LOISY Stéphanie</t>
   </si>
   <si>
+    <t>MAITRE Nathalie</t>
+  </si>
+  <si>
+    <t>MANSIER Herve</t>
+  </si>
+  <si>
+    <t>MARINO Eric</t>
+  </si>
+  <si>
     <t>MARTIN Patrice</t>
   </si>
   <si>
@@ -241,6 +394,9 @@
     <t>MEYER Stephanie</t>
   </si>
   <si>
+    <t>MIGUET Patrice</t>
+  </si>
+  <si>
     <t>MILLE Nathalie</t>
   </si>
   <si>
@@ -262,6 +418,12 @@
     <t>NECTOUX Ivan</t>
   </si>
   <si>
+    <t>OLLIVIER Karen</t>
+  </si>
+  <si>
+    <t>PARIS HERITIER Claire</t>
+  </si>
+  <si>
     <t>PEREZ Stephane</t>
   </si>
   <si>
@@ -271,12 +433,18 @@
     <t>PERRIER Christine</t>
   </si>
   <si>
+    <t>PHILIPPOT Stéphane</t>
+  </si>
+  <si>
     <t>PIERRE Nathalie</t>
   </si>
   <si>
     <t>PRAILLET Gerard</t>
   </si>
   <si>
+    <t>PRAT Laurent</t>
+  </si>
+  <si>
     <t>REBERT Albert</t>
   </si>
   <si>
@@ -292,12 +460,42 @@
     <t>ROBERT Alain</t>
   </si>
   <si>
+    <t>ROGER Sophie</t>
+  </si>
+  <si>
     <t>ROSSO Jean-Jacques</t>
   </si>
   <si>
+    <t>ROUSSEAU Béatrice</t>
+  </si>
+  <si>
+    <t>SAINTON Sara</t>
+  </si>
+  <si>
+    <t>SASSELLI Cédric</t>
+  </si>
+  <si>
+    <t>SASSELLI Lola</t>
+  </si>
+  <si>
+    <t>SCHLATTER Sandra</t>
+  </si>
+  <si>
     <t>SELLET Peggy</t>
   </si>
   <si>
+    <t>SEZIONALE Gilles</t>
+  </si>
+  <si>
+    <t>SOREL Alan</t>
+  </si>
+  <si>
+    <t>VAMBRE Angelique</t>
+  </si>
+  <si>
+    <t>VANMOEN Isabelle</t>
+  </si>
+  <si>
     <t>VAROQUIER Stephane</t>
   </si>
   <si>
@@ -307,6 +505,9 @@
     <t>VIORA PUYO Valerie</t>
   </si>
   <si>
+    <t>WARLOP Veronique</t>
+  </si>
+  <si>
     <t>XALLE Christelle</t>
   </si>
   <si>
@@ -319,60 +520,63 @@
     <t>Niveau</t>
   </si>
   <si>
+    <t>Délégué fédéral</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Juge-Arbitre</t>
+  </si>
+  <si>
+    <t>Juges de nage</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
     <t>Chambre d'appel</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>Contrôleur de virages</t>
+  </si>
+  <si>
+    <t>Contrôleur de virages en chef</t>
+  </si>
+  <si>
+    <t>Juge d'arrivée</t>
+  </si>
+  <si>
     <t>Chronométreur</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Contrôleur de virages</t>
-  </si>
-  <si>
-    <t>Contrôleur de virages en chef</t>
+    <t>Coordonnateur</t>
+  </si>
+  <si>
+    <t>Gestion extraNat</t>
   </si>
   <si>
     <t>Inscrit sans fonction</t>
   </si>
   <si>
-    <t>Juge d'arrivée</t>
-  </si>
-  <si>
-    <t>Juge-Arbitre</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Juges de nage</t>
+    <t>Ramasseur de Fiches</t>
+  </si>
+  <si>
+    <t>Secrétariat</t>
+  </si>
+  <si>
+    <t>Speaker</t>
   </si>
   <si>
     <t>Jury d'appel</t>
   </si>
   <si>
-    <t>Ramasseur de Fiches</t>
-  </si>
-  <si>
-    <t>Secrétariat</t>
-  </si>
-  <si>
-    <t>Starter</t>
-  </si>
-  <si>
-    <t>Coordonnateur</t>
-  </si>
-  <si>
-    <t>Gestion extraNat</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
     <t>Numéro</t>
   </si>
   <si>
@@ -400,7 +604,13 @@
     <t>x</t>
   </si>
   <si>
+    <t>Interclubs poule A (Equipes)</t>
+  </si>
+  <si>
     <t>Interclubs poule B (Equipes)</t>
+  </si>
+  <si>
+    <t>Interclubs poule C (Equipes)</t>
   </si>
   <si>
     <t>Championnats départementaux 06 et 83 25m</t>
@@ -583,47 +793,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -704,16 +915,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="1" sqref="D10 F27"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -768,16 +979,16 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
+      <c r="B7" s="3" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>83</v>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -792,8 +1003,8 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
+      <c r="B10" s="3" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -808,8 +1019,8 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>83</v>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -824,8 +1035,8 @@
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
+      <c r="B14" s="3" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -864,8 +1075,8 @@
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="n">
-        <v>83</v>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -888,8 +1099,32 @@
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="n">
         <v>83</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -908,238 +1143,242 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>42005</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>42005</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>42005</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4" t="n">
-        <v>42005</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>21</v>
+      </c>
       <c r="D17" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="4" t="n">
-        <v>42005</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>42005</v>
@@ -1150,20 +1389,22 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>42005</v>
@@ -1174,523 +1415,1251 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>14</v>
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>4</v>
+      <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4" t="n">
-        <v>42005</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>42005</v>
+      </c>
       <c r="D33" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>14</v>
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <v>42005</v>
-      </c>
+      <c r="A38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>11</v>
+      </c>
       <c r="D39" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>14</v>
-      </c>
+      <c r="A43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="A48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="4" t="n">
-        <v>42005</v>
-      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D49" s="4" t="n">
-        <v>42005</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D51" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4" t="n">
-        <v>42005</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="4" t="n">
-        <v>42005</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4" t="n">
+        <v>42005</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="4" t="n">
-        <v>42005</v>
-      </c>
       <c r="D58" s="4" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D59" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D61" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D72" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D76" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D87" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="C98" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D98" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="C106" s="3"/>
+      <c r="D106" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D67" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="C110" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D110" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D125" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="4" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D69" s="4" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C130" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D130" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="4" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D133" s="4" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1708,143 +2677,151 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="D10 B10"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1862,35 +2839,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="D10 E10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1901,7 +2879,7 @@
         <v>42288</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1914,7 +2892,7 @@
         <v>42288</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1927,7 +2905,7 @@
         <v>42288</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1940,7 +2918,7 @@
         <v>42288</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1953,397 +2931,431 @@
         <v>42295</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>34323</v>
+        <v>34321</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>42315</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>124</v>
+        <v>192</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>33007</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>42330</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+        <v>34323</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="n">
-        <v>42337</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>127</v>
+      <c r="A9" s="3" t="n">
+        <v>34325</v>
+      </c>
+      <c r="B9" s="7" t="n">
+        <v>42315</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>35303</v>
-      </c>
-      <c r="B10" s="7" t="n">
-        <v>42344</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>33007</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>42330</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>35207</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>42351</v>
+      <c r="A11" s="3"/>
+      <c r="B11" s="9" t="n">
+        <v>42337</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>35205</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>42357</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>35303</v>
+      </c>
+      <c r="B12" s="7" t="n">
+        <v>42344</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>33009</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>42358</v>
+        <v>35207</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>42351</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="n">
-        <v>42386</v>
+      <c r="A14" s="3" t="n">
+        <v>35205</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>42357</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="n">
-        <v>42386</v>
+      <c r="A15" s="3" t="n">
+        <v>33009</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>42358</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>35711</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>42393</v>
+      <c r="A16" s="3"/>
+      <c r="B16" s="9" t="n">
+        <v>42386</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
-      <c r="B17" s="4" t="n">
-        <v>42400</v>
+      <c r="B17" s="9" t="n">
+        <v>42386</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="n">
-        <v>42400</v>
+      <c r="A18" s="3" t="n">
+        <v>35711</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>42393</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
-      <c r="B19" s="4" t="n">
-        <v>42407</v>
+      <c r="B19" s="9" t="n">
+        <v>42400</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="n">
-        <v>42427</v>
+      <c r="B20" s="9" t="n">
+        <v>42400</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="n">
-        <v>42428</v>
+      <c r="B21" s="9" t="n">
+        <v>42407</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
-      <c r="B22" s="4" t="n">
-        <v>42435</v>
+      <c r="B22" s="9" t="n">
+        <v>42427</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
-      <c r="B23" s="4" t="n">
-        <v>42442</v>
+      <c r="B23" s="9" t="n">
+        <v>42428</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
-      <c r="B24" s="4" t="n">
-        <v>42449</v>
+      <c r="B24" s="9" t="n">
+        <v>42435</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
-      <c r="B25" s="4" t="n">
-        <v>42456</v>
+      <c r="B25" s="9" t="n">
+        <v>42442</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
-      <c r="B26" s="4" t="n">
-        <v>42462</v>
+      <c r="B26" s="9" t="n">
+        <v>42449</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="n">
-        <v>42463</v>
+      <c r="B27" s="9" t="n">
+        <v>42456</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
-      <c r="B28" s="4" t="n">
-        <v>42470</v>
+      <c r="B28" s="9" t="n">
+        <v>42462</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
-      <c r="B29" s="4" t="n">
-        <v>42484</v>
+      <c r="B29" s="9" t="n">
+        <v>42463</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
-      <c r="B30" s="4" t="n">
-        <v>42498</v>
+      <c r="B30" s="9" t="n">
+        <v>42470</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="n">
-        <v>42505</v>
+      <c r="B31" s="9" t="n">
+        <v>42484</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
-      <c r="B32" s="4" t="n">
-        <v>42512</v>
+      <c r="B32" s="9" t="n">
+        <v>42498</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
-      <c r="B33" s="4" t="n">
-        <v>42512</v>
+      <c r="B33" s="9" t="n">
+        <v>42505</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
-      <c r="B34" s="4" t="n">
-        <v>42526</v>
+      <c r="B34" s="9" t="n">
+        <v>42512</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
-      <c r="B35" s="4" t="n">
-        <v>42160</v>
+      <c r="B35" s="9" t="n">
+        <v>42512</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3"/>
-      <c r="B36" s="4" t="n">
-        <v>42167</v>
+      <c r="B36" s="9" t="n">
+        <v>42526</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
-      <c r="B37" s="4" t="n">
-        <v>42174</v>
+      <c r="B37" s="9" t="n">
+        <v>42160</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3"/>
-      <c r="B38" s="4" t="n">
-        <v>42174</v>
+      <c r="B38" s="9" t="n">
+        <v>42167</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3"/>
-      <c r="B39" s="4" t="n">
-        <v>42180</v>
+      <c r="B39" s="9" t="n">
+        <v>42174</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="9" t="n">
+        <v>42174</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+      <c r="B41" s="9" t="n">
+        <v>42180</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -184,9 +184,6 @@
     <t>BELLAGUET Alain</t>
   </si>
   <si>
-    <t>BENARD Deborah</t>
-  </si>
-  <si>
     <t>BENEVENT Justine</t>
   </si>
   <si>
@@ -845,6 +842,9 @@
   </si>
   <si>
     <t>ZORDAN Damien</t>
+  </si>
+  <si>
+    <t>FIERS Luc</t>
   </si>
   <si>
     <t>Poste</t>
@@ -1156,19 +1156,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1176,7 +1172,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1184,7 +1184,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1273,9 +1273,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1536,16 +1536,18 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A213" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F240" activeCellId="0" sqref="F240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1564,7 +1566,7 @@
       <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -1573,13 +1575,13 @@
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E2" s="6" t="n">
+      <c r="C2" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E2" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1590,9 +1592,9 @@
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="n">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1603,11 +1605,11 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E4" s="6" t="n">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E4" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1618,11 +1620,11 @@
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E5" s="6" t="n">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E5" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1633,9 +1635,9 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="n">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1646,9 +1648,9 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="n">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1659,11 +1661,11 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1674,11 +1676,11 @@
       <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="n">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="n">
         <v>41322</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="5" t="n">
         <v>41322</v>
       </c>
     </row>
@@ -1689,9 +1691,9 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="n">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1702,13 +1704,13 @@
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E11" s="6" t="n">
+      <c r="C11" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E11" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1719,9 +1721,9 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="n">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1732,9 +1734,9 @@
       <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="n">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1745,11 +1747,11 @@
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E14" s="6" t="n">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E14" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1760,9 +1762,9 @@
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="n">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1773,11 +1775,11 @@
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E16" s="6" t="n">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1788,13 +1790,13 @@
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="5" t="n">
         <v>42329</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="5" t="n">
         <v>42329</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="5" t="n">
         <v>42329</v>
       </c>
     </row>
@@ -1805,13 +1807,13 @@
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D18" s="6" t="n">
+      <c r="C18" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D18" s="5" t="n">
         <v>37030</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="5" t="n">
         <v>37030</v>
       </c>
     </row>
@@ -1822,9 +1824,9 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="n">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1833,29 +1835,31 @@
         <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>42386</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="n">
-        <v>42005</v>
+        <v>9</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="n">
+        <v>42085</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>42085</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1863,14 +1867,12 @@
         <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="n">
-        <v>42085</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>42085</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1878,11 +1880,13 @@
         <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1891,13 +1895,11 @@
         <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1908,9 +1910,9 @@
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="n">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1919,12 +1921,16 @@
         <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="n">
-        <v>42005</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>39578</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>39578</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>39578</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1932,16 +1938,12 @@
         <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6" t="n">
-        <v>39578</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>39578</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>39578</v>
+        <v>16</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1951,39 +1953,41 @@
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E30" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -1992,29 +1996,29 @@
         <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E31" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="n">
+        <v>42078</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>42078</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="n">
-        <v>42078</v>
-      </c>
-      <c r="E32" s="6" t="n">
-        <v>42078</v>
+        <v>27</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2022,14 +2026,14 @@
         <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E33" s="6" t="n">
-        <v>42005</v>
+        <v>15</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="n">
+        <v>42050</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>42050</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2037,14 +2041,12 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="n">
-        <v>42050</v>
-      </c>
-      <c r="E34" s="6" t="n">
-        <v>42050</v>
+        <v>3</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2052,41 +2054,41 @@
         <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C36" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D37" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E37" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2095,12 +2097,14 @@
         <v>71</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="n">
-        <v>42005</v>
+        <v>3</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="n">
+        <v>41084</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>41084</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2108,28 +2112,30 @@
         <v>72</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="n">
-        <v>41084</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>41084</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E40" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E40" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2140,29 +2146,27 @@
       <c r="B41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D41" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E41" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E42" s="6" t="n">
-        <v>42005</v>
+        <v>11</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="n">
+        <v>39587</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>39587</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2172,12 +2176,12 @@
       <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="n">
-        <v>39587</v>
-      </c>
-      <c r="E43" s="6" t="n">
-        <v>39587</v>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2187,11 +2191,11 @@
       <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E44" s="6" t="n">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E44" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2200,13 +2204,13 @@
         <v>78</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E45" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E45" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2215,14 +2219,14 @@
         <v>79</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E46" s="6" t="n">
-        <v>42005</v>
+        <v>8</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="n">
+        <v>41735</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>41735</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2230,14 +2234,14 @@
         <v>80</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="n">
-        <v>41735</v>
-      </c>
-      <c r="E47" s="6" t="n">
-        <v>41735</v>
+        <v>13</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="n">
+        <v>39462</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>39462</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2245,14 +2249,14 @@
         <v>81</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="n">
-        <v>39462</v>
-      </c>
-      <c r="E48" s="6" t="n">
-        <v>39462</v>
+        <v>11</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2260,13 +2264,15 @@
         <v>82</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E49" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E49" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2275,16 +2281,14 @@
         <v>83</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D50" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E50" s="6" t="n">
-        <v>42005</v>
+        <v>22</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5" t="n">
+        <v>41965</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>41965</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2292,14 +2296,14 @@
         <v>84</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="n">
-        <v>41965</v>
-      </c>
-      <c r="E51" s="6" t="n">
-        <v>41965</v>
+        <v>16</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="n">
+        <v>42350</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>42350</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2307,28 +2311,26 @@
         <v>85</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6" t="n">
-        <v>42350</v>
-      </c>
-      <c r="E52" s="6" t="n">
-        <v>42350</v>
+        <v>19</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>41713</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>41713</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="6" t="n">
-        <v>41713</v>
-      </c>
-      <c r="E53" s="6" t="n">
-        <v>41713</v>
+      <c r="B53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2338,10 +2340,12 @@
       <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="n">
-        <v>42005</v>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="n">
+        <v>41819</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>41819</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2349,14 +2353,14 @@
         <v>88</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="n">
-        <v>41819</v>
-      </c>
-      <c r="E55" s="6" t="n">
-        <v>41819</v>
+        <v>9</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="n">
+        <v>42106</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>42106</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2364,14 +2368,12 @@
         <v>89</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="n">
-        <v>42106</v>
-      </c>
-      <c r="E56" s="6" t="n">
-        <v>42106</v>
+        <v>13</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2379,12 +2381,14 @@
         <v>90</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="n">
-        <v>42005</v>
+        <v>12</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="n">
+        <v>42141</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>42141</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2392,14 +2396,16 @@
         <v>91</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6" t="n">
-        <v>42141</v>
-      </c>
-      <c r="E58" s="6" t="n">
-        <v>42141</v>
+        <v>18</v>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2407,15 +2413,13 @@
         <v>92</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D59" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E59" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E59" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2424,13 +2428,11 @@
         <v>93</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2439,11 +2441,13 @@
         <v>94</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E61" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2452,13 +2456,13 @@
         <v>95</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E62" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E62" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2467,13 +2471,11 @@
         <v>96</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E63" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2482,12 +2484,14 @@
         <v>97</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="n">
-        <v>42005</v>
+        <v>23</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5" t="n">
+        <v>41308</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>41308</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2495,14 +2499,12 @@
         <v>98</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6" t="n">
-        <v>41308</v>
-      </c>
-      <c r="E65" s="6" t="n">
-        <v>41308</v>
+        <v>14</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2510,11 +2512,11 @@
         <v>99</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2523,11 +2525,11 @@
         <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2536,12 +2538,14 @@
         <v>101</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="n">
-        <v>42005</v>
+        <v>22</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5" t="n">
+        <v>40802</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>40802</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2549,14 +2553,14 @@
         <v>102</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6" t="n">
-        <v>40802</v>
-      </c>
-      <c r="E69" s="6" t="n">
-        <v>40802</v>
+        <v>11</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2564,13 +2568,13 @@
         <v>103</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E70" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E70" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2581,11 +2585,9 @@
       <c r="B71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E71" s="6" t="n">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2596,9 +2598,9 @@
       <c r="B72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="n">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2607,11 +2609,13 @@
         <v>106</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E73" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2620,13 +2624,11 @@
         <v>107</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E74" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2635,11 +2637,11 @@
         <v>108</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2648,11 +2650,11 @@
         <v>109</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2661,11 +2663,11 @@
         <v>110</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2674,11 +2676,15 @@
         <v>111</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E78" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2687,15 +2693,13 @@
         <v>112</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D79" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E79" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E79" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2704,13 +2708,13 @@
         <v>113</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E80" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E80" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2719,13 +2723,13 @@
         <v>114</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E81" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E81" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2736,11 +2740,9 @@
       <c r="B82" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E82" s="6" t="n">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2749,12 +2751,14 @@
         <v>116</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6" t="n">
-        <v>42005</v>
+        <v>24</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5" t="n">
+        <v>42183</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>42183</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2762,14 +2766,12 @@
         <v>117</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6" t="n">
-        <v>42183</v>
-      </c>
-      <c r="E84" s="6" t="n">
-        <v>42183</v>
+        <v>8</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2777,11 +2779,13 @@
         <v>118</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E85" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2790,14 +2794,14 @@
         <v>119</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E86" s="6" t="n">
-        <v>42005</v>
+        <v>18</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="n">
+        <v>40109</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>40109</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2805,14 +2809,12 @@
         <v>120</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6" t="n">
-        <v>40109</v>
-      </c>
-      <c r="E87" s="6" t="n">
-        <v>40109</v>
+        <v>7</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2820,11 +2822,15 @@
         <v>121</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E88" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2833,15 +2839,11 @@
         <v>122</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D89" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E89" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2850,11 +2852,13 @@
         <v>123</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E90" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2863,13 +2867,11 @@
         <v>124</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E91" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2878,22 +2880,22 @@
         <v>125</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E92" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="6" t="n">
+      <c r="B93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2902,11 +2904,11 @@
         <v>127</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2915,11 +2917,15 @@
         <v>128</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E95" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2928,16 +2934,14 @@
         <v>129</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D96" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E96" s="6" t="n">
-        <v>42005</v>
+        <v>11</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5" t="n">
+        <v>42078</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>42078</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2945,14 +2949,14 @@
         <v>130</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6" t="n">
-        <v>42078</v>
-      </c>
-      <c r="E97" s="6" t="n">
-        <v>42078</v>
+        <v>19</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5" t="n">
+        <v>38089</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>38089</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2960,14 +2964,12 @@
         <v>131</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6" t="n">
-        <v>38089</v>
-      </c>
-      <c r="E98" s="6" t="n">
-        <v>38089</v>
+        <v>3</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2975,11 +2977,11 @@
         <v>132</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -2988,12 +2990,14 @@
         <v>133</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6" t="n">
-        <v>42005</v>
+        <v>23</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5" t="n">
+        <v>42085</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>42085</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3001,14 +3005,14 @@
         <v>134</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6" t="n">
-        <v>42085</v>
-      </c>
-      <c r="E101" s="6" t="n">
-        <v>42085</v>
+        <v>24</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3016,13 +3020,11 @@
         <v>135</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E102" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3031,11 +3033,11 @@
         <v>136</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3046,9 +3048,11 @@
       <c r="B104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6" t="n">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E104" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3059,11 +3063,11 @@
       <c r="B105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E105" s="6" t="n">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E105" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3074,11 +3078,9 @@
       <c r="B106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E106" s="6" t="n">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3087,12 +3089,14 @@
         <v>140</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6" t="n">
-        <v>42005</v>
+        <v>19</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5" t="n">
+        <v>41665</v>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>41665</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3100,14 +3104,14 @@
         <v>141</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6" t="n">
-        <v>41665</v>
-      </c>
-      <c r="E108" s="6" t="n">
-        <v>41665</v>
+        <v>17</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3115,13 +3119,15 @@
         <v>142</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E109" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D109" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E109" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3130,15 +3136,13 @@
         <v>143</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D110" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E110" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E110" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3147,13 +3151,11 @@
         <v>144</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E111" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3164,9 +3166,9 @@
       <c r="B112" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6" t="n">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3175,11 +3177,11 @@
         <v>146</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3188,12 +3190,14 @@
         <v>147</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6" t="n">
-        <v>42005</v>
+        <v>14</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5" t="n">
+        <v>37653</v>
+      </c>
+      <c r="E114" s="5" t="n">
+        <v>37653</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3201,14 +3205,12 @@
         <v>148</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6" t="n">
-        <v>37653</v>
-      </c>
-      <c r="E115" s="6" t="n">
-        <v>37653</v>
+        <v>28</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3216,12 +3218,14 @@
         <v>149</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6" t="n">
-        <v>42005</v>
+        <v>10</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5" t="n">
+        <v>41293</v>
+      </c>
+      <c r="E116" s="5" t="n">
+        <v>41293</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3229,14 +3233,14 @@
         <v>150</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6" t="n">
-        <v>41293</v>
-      </c>
-      <c r="E117" s="6" t="n">
-        <v>41293</v>
+        <v>19</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5" t="n">
+        <v>39476</v>
+      </c>
+      <c r="E117" s="5" t="n">
+        <v>39476</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3244,14 +3248,12 @@
         <v>151</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6" t="n">
-        <v>39476</v>
-      </c>
-      <c r="E118" s="6" t="n">
-        <v>39476</v>
+        <v>22</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3259,11 +3261,11 @@
         <v>152</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3274,9 +3276,13 @@
       <c r="B120" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6" t="n">
+      <c r="C120" s="5" t="n">
+        <v>36944</v>
+      </c>
+      <c r="D120" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E120" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3285,15 +3291,11 @@
         <v>154</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" s="6" t="n">
-        <v>36944</v>
-      </c>
-      <c r="D121" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E121" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3302,11 +3304,11 @@
         <v>155</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3315,11 +3317,13 @@
         <v>156</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E123" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3328,13 +3332,13 @@
         <v>157</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E124" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E124" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3343,13 +3347,13 @@
         <v>158</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E125" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E125" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3360,11 +3364,9 @@
       <c r="B126" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E126" s="6" t="n">
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3375,9 +3377,11 @@
       <c r="B127" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6" t="n">
+      <c r="C127" s="5"/>
+      <c r="D127" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E127" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3386,13 +3390,13 @@
         <v>161</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E128" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E128" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3401,13 +3405,11 @@
         <v>162</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E129" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3416,11 +3418,15 @@
         <v>163</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D130" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E130" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3431,14 +3437,12 @@
       <c r="B131" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D131" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E131" s="6" t="n">
-        <v>42005</v>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5" t="n">
+        <v>41308</v>
+      </c>
+      <c r="E131" s="5" t="n">
+        <v>41308</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3446,14 +3450,16 @@
         <v>165</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6" t="n">
-        <v>41308</v>
-      </c>
-      <c r="E132" s="6" t="n">
-        <v>41308</v>
+        <v>22</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>40976</v>
+      </c>
+      <c r="D132" s="5" t="n">
+        <v>40976</v>
+      </c>
+      <c r="E132" s="5" t="n">
+        <v>40976</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3461,16 +3467,14 @@
         <v>166</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" s="6" t="n">
-        <v>40976</v>
-      </c>
-      <c r="D133" s="6" t="n">
-        <v>40976</v>
-      </c>
-      <c r="E133" s="6" t="n">
-        <v>40976</v>
+        <v>24</v>
+      </c>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E133" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3478,13 +3482,11 @@
         <v>167</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E134" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3495,9 +3497,9 @@
       <c r="B135" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6" t="n">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3506,11 +3508,11 @@
         <v>169</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3521,9 +3523,11 @@
       <c r="B137" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6" t="n">
+      <c r="C137" s="5"/>
+      <c r="D137" s="5" t="n">
+        <v>40802</v>
+      </c>
+      <c r="E137" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3532,13 +3536,15 @@
         <v>171</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6" t="n">
-        <v>40802</v>
-      </c>
-      <c r="E138" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D138" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E138" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3547,43 +3553,39 @@
         <v>172</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D139" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E139" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E139" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E140" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3592,12 +3594,14 @@
         <v>175</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6" t="n">
-        <v>42005</v>
+        <v>13</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5" t="n">
+        <v>41804</v>
+      </c>
+      <c r="E142" s="5" t="n">
+        <v>41804</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3607,12 +3611,10 @@
       <c r="B143" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6" t="n">
-        <v>41804</v>
-      </c>
-      <c r="E143" s="6" t="n">
-        <v>41804</v>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3620,11 +3622,11 @@
         <v>177</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3633,11 +3635,13 @@
         <v>178</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E145" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3648,11 +3652,9 @@
       <c r="B146" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E146" s="6" t="n">
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3661,12 +3663,14 @@
         <v>180</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6" t="n">
-        <v>42005</v>
+        <v>18</v>
+      </c>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5" t="n">
+        <v>38049</v>
+      </c>
+      <c r="E147" s="5" t="n">
+        <v>38049</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3674,14 +3678,14 @@
         <v>181</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6" t="n">
-        <v>38049</v>
-      </c>
-      <c r="E148" s="6" t="n">
-        <v>38049</v>
+        <v>22</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5" t="n">
+        <v>39886</v>
+      </c>
+      <c r="E148" s="5" t="n">
+        <v>39886</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3689,14 +3693,14 @@
         <v>182</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6" t="n">
-        <v>39886</v>
-      </c>
-      <c r="E149" s="6" t="n">
-        <v>39886</v>
+        <v>9</v>
+      </c>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E149" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3704,13 +3708,11 @@
         <v>183</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E150" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3719,11 +3721,11 @@
         <v>184</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3732,11 +3734,11 @@
         <v>185</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3745,11 +3747,13 @@
         <v>186</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C153" s="5"/>
+      <c r="D153" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E153" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3760,11 +3764,13 @@
       <c r="B154" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E154" s="6" t="n">
+      <c r="C154" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D154" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E154" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3773,15 +3779,11 @@
         <v>188</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D155" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E155" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3790,11 +3792,11 @@
         <v>189</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3803,11 +3805,13 @@
         <v>190</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E157" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3816,13 +3820,11 @@
         <v>191</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E158" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3831,11 +3833,11 @@
         <v>192</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3844,12 +3846,16 @@
         <v>193</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6" t="n">
-        <v>42005</v>
+        <v>8</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>42106</v>
+      </c>
+      <c r="D160" s="5" t="n">
+        <v>42106</v>
+      </c>
+      <c r="E160" s="5" t="n">
+        <v>42106</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3857,16 +3863,16 @@
         <v>194</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="6" t="n">
-        <v>42106</v>
-      </c>
-      <c r="D161" s="6" t="n">
-        <v>42106</v>
-      </c>
-      <c r="E161" s="6" t="n">
-        <v>42106</v>
+        <v>24</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D161" s="5" t="n">
+        <v>42029</v>
+      </c>
+      <c r="E161" s="5" t="n">
+        <v>42029</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3874,16 +3880,12 @@
         <v>195</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C162" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D162" s="6" t="n">
-        <v>42029</v>
-      </c>
-      <c r="E162" s="6" t="n">
-        <v>42029</v>
+        <v>23</v>
+      </c>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3891,11 +3893,11 @@
         <v>196</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3904,12 +3906,14 @@
         <v>197</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-      <c r="E164" s="6" t="n">
-        <v>42005</v>
+        <v>24</v>
+      </c>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5" t="n">
+        <v>39546</v>
+      </c>
+      <c r="E164" s="5" t="n">
+        <v>39546</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3917,14 +3921,12 @@
         <v>198</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6" t="n">
-        <v>39546</v>
-      </c>
-      <c r="E165" s="6" t="n">
-        <v>39546</v>
+        <v>10</v>
+      </c>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3932,12 +3934,16 @@
         <v>199</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="6" t="n">
-        <v>42005</v>
+        <v>8</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>35888</v>
+      </c>
+      <c r="D166" s="5" t="n">
+        <v>35888</v>
+      </c>
+      <c r="E166" s="5" t="n">
+        <v>35888</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3945,16 +3951,12 @@
         <v>200</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="6" t="n">
-        <v>35888</v>
-      </c>
-      <c r="D167" s="6" t="n">
-        <v>35888</v>
-      </c>
-      <c r="E167" s="6" t="n">
-        <v>35888</v>
+        <v>17</v>
+      </c>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3962,11 +3964,15 @@
         <v>201</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D168" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E168" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3977,13 +3983,11 @@
       <c r="B169" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C169" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D169" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E169" s="6" t="n">
+      <c r="C169" s="5"/>
+      <c r="D169" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E169" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -3992,13 +3996,15 @@
         <v>203</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="6"/>
-      <c r="D170" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E170" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D170" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E170" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4007,15 +4013,11 @@
         <v>204</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C171" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D171" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E171" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4024,11 +4026,11 @@
         <v>205</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="6"/>
-      <c r="E172" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4037,11 +4039,13 @@
         <v>206</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E173" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4050,13 +4054,15 @@
         <v>207</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C174" s="6"/>
-      <c r="D174" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E174" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D174" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E174" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4065,16 +4071,14 @@
         <v>208</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C175" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D175" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E175" s="6" t="n">
-        <v>42005</v>
+        <v>22</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5" t="n">
+        <v>41679</v>
+      </c>
+      <c r="E175" s="5" t="n">
+        <v>41679</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4082,14 +4086,12 @@
         <v>209</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6" t="n">
-        <v>41679</v>
-      </c>
-      <c r="E176" s="6" t="n">
-        <v>41679</v>
+        <v>12</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4097,11 +4099,11 @@
         <v>210</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4110,11 +4112,11 @@
         <v>211</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4123,12 +4125,14 @@
         <v>212</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6" t="n">
-        <v>42005</v>
+        <v>23</v>
+      </c>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5" t="n">
+        <v>42085</v>
+      </c>
+      <c r="E179" s="5" t="n">
+        <v>42085</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4136,14 +4140,14 @@
         <v>213</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6" t="n">
-        <v>42085</v>
-      </c>
-      <c r="E180" s="6" t="n">
-        <v>42085</v>
+        <v>22</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E180" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4151,13 +4155,11 @@
         <v>214</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E181" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4166,12 +4168,14 @@
         <v>215</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C182" s="6"/>
-      <c r="D182" s="6"/>
-      <c r="E182" s="6" t="n">
-        <v>42005</v>
+        <v>6</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5" t="n">
+        <v>42050</v>
+      </c>
+      <c r="E182" s="5" t="n">
+        <v>42050</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4179,14 +4183,14 @@
         <v>216</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" s="6"/>
-      <c r="D183" s="6" t="n">
-        <v>42050</v>
-      </c>
-      <c r="E183" s="6" t="n">
-        <v>42050</v>
+        <v>19</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5" t="n">
+        <v>38362</v>
+      </c>
+      <c r="E183" s="5" t="n">
+        <v>38362</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4194,14 +4198,14 @@
         <v>217</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C184" s="6"/>
-      <c r="D184" s="6" t="n">
-        <v>38362</v>
-      </c>
-      <c r="E184" s="6" t="n">
-        <v>38362</v>
+        <v>6</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5" t="n">
+        <v>42050</v>
+      </c>
+      <c r="E184" s="5" t="n">
+        <v>42050</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4209,14 +4213,14 @@
         <v>218</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="6"/>
-      <c r="D185" s="6" t="n">
-        <v>42050</v>
-      </c>
-      <c r="E185" s="6" t="n">
-        <v>42050</v>
+        <v>22</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5" t="n">
+        <v>41679</v>
+      </c>
+      <c r="E185" s="5" t="n">
+        <v>41679</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4224,14 +4228,14 @@
         <v>219</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C186" s="6"/>
-      <c r="D186" s="6" t="n">
-        <v>41679</v>
-      </c>
-      <c r="E186" s="6" t="n">
-        <v>41679</v>
+        <v>3</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5" t="n">
+        <v>39553</v>
+      </c>
+      <c r="E186" s="5" t="n">
+        <v>39553</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4239,14 +4243,14 @@
         <v>220</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="6"/>
-      <c r="D187" s="6" t="n">
-        <v>39553</v>
-      </c>
-      <c r="E187" s="6" t="n">
-        <v>39553</v>
+        <v>13</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E187" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4254,13 +4258,13 @@
         <v>221</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" s="6"/>
-      <c r="D188" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E188" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E188" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4269,13 +4273,11 @@
         <v>222</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C189" s="6"/>
-      <c r="D189" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E189" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4284,12 +4286,14 @@
         <v>223</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C190" s="6"/>
-      <c r="D190" s="6"/>
-      <c r="E190" s="6" t="n">
-        <v>42005</v>
+        <v>11</v>
+      </c>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5" t="n">
+        <v>38806</v>
+      </c>
+      <c r="E190" s="5" t="n">
+        <v>38806</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4299,12 +4303,10 @@
       <c r="B191" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6" t="n">
-        <v>38806</v>
-      </c>
-      <c r="E191" s="6" t="n">
-        <v>38806</v>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4312,12 +4314,14 @@
         <v>225</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
-      <c r="E192" s="6" t="n">
-        <v>42005</v>
+        <v>24</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5" t="n">
+        <v>42329</v>
+      </c>
+      <c r="E192" s="5" t="n">
+        <v>42329</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4325,14 +4329,14 @@
         <v>226</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6" t="n">
-        <v>42329</v>
-      </c>
-      <c r="E193" s="6" t="n">
-        <v>42329</v>
+        <v>6</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5" t="n">
+        <v>42113</v>
+      </c>
+      <c r="E193" s="5" t="n">
+        <v>42113</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4340,14 +4344,16 @@
         <v>227</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6" t="n">
-        <v>42113</v>
-      </c>
-      <c r="E194" s="6" t="n">
-        <v>42113</v>
+        <v>15</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D194" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E194" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4355,15 +4361,13 @@
         <v>228</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C195" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D195" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E195" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E195" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4372,14 +4376,14 @@
         <v>229</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E196" s="6" t="n">
-        <v>42005</v>
+        <v>30</v>
+      </c>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5" t="n">
+        <v>42015</v>
+      </c>
+      <c r="E196" s="5" t="n">
+        <v>42015</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4387,14 +4391,12 @@
         <v>230</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6" t="n">
-        <v>42015</v>
-      </c>
-      <c r="E197" s="6" t="n">
-        <v>42015</v>
+        <v>17</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4402,11 +4404,15 @@
         <v>231</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D198" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E198" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4415,16 +4421,14 @@
         <v>232</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D199" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E199" s="6" t="n">
-        <v>42005</v>
+        <v>14</v>
+      </c>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5" t="n">
+        <v>42078</v>
+      </c>
+      <c r="E199" s="5" t="n">
+        <v>42078</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4432,14 +4436,12 @@
         <v>233</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C200" s="6"/>
-      <c r="D200" s="6" t="n">
-        <v>42078</v>
-      </c>
-      <c r="E200" s="6" t="n">
-        <v>42078</v>
+        <v>25</v>
+      </c>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4447,11 +4449,13 @@
         <v>234</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C201" s="6"/>
-      <c r="D201" s="6"/>
-      <c r="E201" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E201" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4462,11 +4466,11 @@
       <c r="B202" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C202" s="6"/>
-      <c r="D202" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E202" s="6" t="n">
+      <c r="C202" s="5"/>
+      <c r="D202" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E202" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4475,13 +4479,11 @@
         <v>236</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C203" s="6"/>
-      <c r="D203" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E203" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4490,11 +4492,11 @@
         <v>237</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C204" s="6"/>
-      <c r="D204" s="6"/>
-      <c r="E204" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4503,11 +4505,11 @@
         <v>238</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C205" s="6"/>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4516,11 +4518,13 @@
         <v>239</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C206" s="6"/>
-      <c r="D206" s="6"/>
-      <c r="E206" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E206" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4529,13 +4533,11 @@
         <v>240</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E207" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4544,11 +4546,13 @@
         <v>241</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E208" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4557,13 +4561,13 @@
         <v>242</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E209" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E209" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4572,13 +4576,11 @@
         <v>243</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" s="6"/>
-      <c r="D210" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E210" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4587,11 +4589,13 @@
         <v>244</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" s="6"/>
-      <c r="D211" s="6"/>
-      <c r="E211" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E211" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4600,13 +4604,11 @@
         <v>245</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C212" s="6"/>
-      <c r="D212" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E212" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4617,9 +4619,9 @@
       <c r="B213" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C213" s="6"/>
-      <c r="D213" s="6"/>
-      <c r="E213" s="6" t="n">
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4628,11 +4630,11 @@
         <v>247</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4641,11 +4643,11 @@
         <v>248</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
-      <c r="E215" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4654,11 +4656,13 @@
         <v>249</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="6"/>
-      <c r="D216" s="6"/>
-      <c r="E216" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E216" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4667,13 +4671,15 @@
         <v>250</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C217" s="6"/>
-      <c r="D217" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E217" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D217" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E217" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4682,15 +4688,11 @@
         <v>251</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C218" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D218" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E218" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4699,12 +4701,14 @@
         <v>252</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C219" s="6"/>
-      <c r="D219" s="6"/>
-      <c r="E219" s="6" t="n">
-        <v>42005</v>
+        <v>14</v>
+      </c>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5" t="n">
+        <v>42078</v>
+      </c>
+      <c r="E219" s="5" t="n">
+        <v>42078</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4712,14 +4716,12 @@
         <v>253</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C220" s="6"/>
-      <c r="D220" s="6" t="n">
-        <v>42078</v>
-      </c>
-      <c r="E220" s="6" t="n">
-        <v>42078</v>
+        <v>24</v>
+      </c>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4727,11 +4729,13 @@
         <v>254</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E221" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4740,13 +4744,11 @@
         <v>255</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E222" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4755,11 +4757,11 @@
         <v>256</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4768,11 +4770,11 @@
         <v>257</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4781,12 +4783,14 @@
         <v>258</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6" t="n">
-        <v>42005</v>
+        <v>24</v>
+      </c>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5" t="n">
+        <v>40608</v>
+      </c>
+      <c r="E225" s="5" t="n">
+        <v>40608</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4794,14 +4798,12 @@
         <v>259</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6" t="n">
-        <v>40608</v>
-      </c>
-      <c r="E226" s="6" t="n">
-        <v>40608</v>
+        <v>3</v>
+      </c>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4811,10 +4813,12 @@
       <c r="B227" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6" t="n">
-        <v>42005</v>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5" t="n">
+        <v>41679</v>
+      </c>
+      <c r="E227" s="5" t="n">
+        <v>41679</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4824,12 +4828,12 @@
       <c r="B228" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6" t="n">
-        <v>41679</v>
-      </c>
-      <c r="E228" s="6" t="n">
-        <v>41679</v>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5" t="n">
+        <v>41792</v>
+      </c>
+      <c r="E228" s="5" t="n">
+        <v>41792</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4837,14 +4841,14 @@
         <v>262</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6" t="n">
-        <v>41792</v>
-      </c>
-      <c r="E229" s="6" t="n">
-        <v>41792</v>
+        <v>16</v>
+      </c>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E229" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4852,14 +4856,14 @@
         <v>263</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E230" s="6" t="n">
-        <v>42005</v>
+        <v>3</v>
+      </c>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5" t="n">
+        <v>40802</v>
+      </c>
+      <c r="E230" s="5" t="n">
+        <v>40802</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4867,14 +4871,12 @@
         <v>264</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6" t="n">
-        <v>40802</v>
-      </c>
-      <c r="E231" s="6" t="n">
-        <v>40802</v>
+        <v>9</v>
+      </c>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4882,11 +4884,13 @@
         <v>265</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E232" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4895,13 +4899,15 @@
         <v>266</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E233" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C233" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D233" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E233" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4910,15 +4916,11 @@
         <v>267</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C234" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D234" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E234" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
@@ -4927,12 +4929,14 @@
         <v>268</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6" t="n">
-        <v>42005</v>
+        <v>8</v>
+      </c>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5" t="n">
+        <v>41044</v>
+      </c>
+      <c r="E235" s="5" t="n">
+        <v>41044</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4940,14 +4944,14 @@
         <v>269</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6" t="n">
-        <v>41044</v>
-      </c>
-      <c r="E236" s="6" t="n">
-        <v>41044</v>
+        <v>2</v>
+      </c>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5" t="n">
+        <v>39580</v>
+      </c>
+      <c r="E236" s="5" t="n">
+        <v>39580</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4955,14 +4959,14 @@
         <v>270</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6" t="n">
-        <v>39580</v>
-      </c>
-      <c r="E237" s="6" t="n">
-        <v>39580</v>
+        <v>14</v>
+      </c>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E237" s="5" t="n">
+        <v>42005</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4970,44 +4974,44 @@
         <v>271</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E238" s="6" t="n">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="D238" s="5" t="n">
+        <v>42005</v>
+      </c>
+      <c r="E238" s="5" t="n">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C239" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="D239" s="6" t="n">
-        <v>42005</v>
-      </c>
-      <c r="E239" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5" t="n">
         <v>42005</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B240" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E240" s="5" t="n">
+        <v>42386</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5047,8 +5051,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5214,11 +5218,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5242,13 +5246,13 @@
       <c r="A2" s="4" t="n">
         <v>32999</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>42288</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E2" s="4"/>
@@ -5257,13 +5261,13 @@
       <c r="A3" s="4" t="n">
         <v>32997</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="6" t="n">
         <v>42288</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E3" s="4"/>
@@ -5272,13 +5276,13 @@
       <c r="A4" s="4" t="n">
         <v>32995</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="6" t="n">
         <v>42288</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E4" s="4"/>
@@ -5287,13 +5291,13 @@
       <c r="A5" s="4" t="n">
         <v>32993</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="6" t="n">
         <v>42288</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E5" s="4"/>
@@ -5308,7 +5312,7 @@
       <c r="C6" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>304</v>
       </c>
       <c r="E6" s="4"/>
@@ -5323,7 +5327,7 @@
       <c r="C7" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>304</v>
       </c>
       <c r="E7" s="4" t="n">
@@ -5340,7 +5344,7 @@
       <c r="C8" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>304</v>
       </c>
       <c r="E8" s="4" t="n">
@@ -5357,7 +5361,7 @@
       <c r="C9" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>304</v>
       </c>
       <c r="E9" s="4" t="n">
@@ -5368,13 +5372,13 @@
       <c r="A10" s="4" t="n">
         <v>33007</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="6" t="n">
         <v>42330</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E10" s="4"/>
@@ -5389,7 +5393,7 @@
       <c r="C11" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>304</v>
       </c>
       <c r="E11" s="4"/>
@@ -5404,7 +5408,7 @@
       <c r="C12" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>304</v>
       </c>
       <c r="E12" s="4"/>
@@ -5413,13 +5417,13 @@
       <c r="A13" s="4" t="n">
         <v>35207</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="6" t="n">
         <v>42351</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E13" s="4" t="n">
@@ -5436,7 +5440,7 @@
       <c r="C14" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E14" s="4"/>
@@ -5451,7 +5455,7 @@
       <c r="C15" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>304</v>
       </c>
       <c r="E15" s="4"/>
@@ -5464,7 +5468,7 @@
       <c r="C16" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>301</v>
       </c>
       <c r="E16" s="4"/>
@@ -5477,7 +5481,7 @@
       <c r="C17" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5490,7 +5494,7 @@
       <c r="C18" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5501,7 +5505,7 @@
       <c r="C19" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5512,7 +5516,7 @@
       <c r="C20" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5523,7 +5527,7 @@
       <c r="C21" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5534,7 +5538,7 @@
       <c r="C22" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5545,7 +5549,7 @@
       <c r="C23" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5556,7 +5560,7 @@
       <c r="C24" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5567,7 +5571,7 @@
       <c r="C25" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5578,7 +5582,7 @@
       <c r="C26" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5589,7 +5593,7 @@
       <c r="C27" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5600,7 +5604,7 @@
       <c r="C28" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5611,7 +5615,7 @@
       <c r="C29" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5622,7 +5626,7 @@
       <c r="C30" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5633,7 +5637,7 @@
       <c r="C31" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5644,7 +5648,7 @@
       <c r="C32" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5655,7 +5659,7 @@
       <c r="C33" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5666,7 +5670,7 @@
       <c r="C34" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5677,7 +5681,7 @@
       <c r="C35" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5688,7 +5692,7 @@
       <c r="C36" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5699,7 +5703,7 @@
       <c r="C37" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5710,7 +5714,7 @@
       <c r="C38" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5721,7 +5725,7 @@
       <c r="C39" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5732,7 +5736,7 @@
       <c r="C40" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5743,7 +5747,7 @@
       <c r="C41" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="4"/>
     </row>
   </sheetData>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="340">
   <si>
     <t>Club</t>
   </si>
@@ -970,13 +970,16 @@
     <t>Trophée Guy Giacomoni</t>
   </si>
   <si>
-    <t>Rencontre avenirs N° 2</t>
-  </si>
-  <si>
     <t>Natathlon poussins N° 1</t>
   </si>
   <si>
     <t>Golden Tour</t>
+  </si>
+  <si>
+    <t>Inter-national</t>
+  </si>
+  <si>
+    <t>Interclub Régional Minimes</t>
   </si>
   <si>
     <t>Coupe Interclubs 14 ans-15 ans</t>
@@ -1082,7 +1085,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,13 +1095,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF66"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66CCFF"/>
         <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -1139,7 +1148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1188,6 +1197,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1204,7 +1225,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1273,9 +1294,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1536,18 +1557,18 @@
   </sheetPr>
   <dimension ref="A1:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A213" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A213" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F240" activeCellId="0" sqref="F240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5051,8 +5072,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5210,19 +5231,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.31632653061224"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5461,11 +5482,13 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="11" t="n">
+      <c r="A16" s="12" t="n">
+        <v>36323</v>
+      </c>
+      <c r="B16" s="13" t="n">
         <v>42386</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="14" t="s">
         <v>315</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -5474,14 +5497,18 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="11" t="n">
+      <c r="A17" s="12" t="n">
+        <v>36325</v>
+      </c>
+      <c r="B17" s="13" t="n">
         <v>42386</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D17" s="8"/>
+      <c r="C17" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>301</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5492,29 +5519,37 @@
         <v>42393</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="D18" s="8"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="11" t="n">
-        <v>42400</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D19" s="8"/>
+      <c r="A19" s="4" t="n">
+        <v>37017</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>42399</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>304</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4" t="n">
+        <v>37025</v>
+      </c>
       <c r="B20" s="11" t="n">
         <v>42400</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="4"/>
@@ -5522,7 +5557,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="11" t="n">
-        <v>42407</v>
+        <v>42400</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>319</v>
@@ -5533,7 +5568,7 @@
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="11" t="n">
-        <v>42427</v>
+        <v>42407</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>320</v>
@@ -5542,9 +5577,11 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
+      <c r="A23" s="12" t="n">
+        <v>36327</v>
+      </c>
       <c r="B23" s="11" t="n">
-        <v>42428</v>
+        <v>42427</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>321</v>
@@ -5555,7 +5592,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="11" t="n">
-        <v>42435</v>
+        <v>42428</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>322</v>
@@ -5566,7 +5603,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="11" t="n">
-        <v>42442</v>
+        <v>42435</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>323</v>
@@ -5577,7 +5614,7 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="11" t="n">
-        <v>42449</v>
+        <v>42442</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>324</v>
@@ -5588,7 +5625,7 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="11" t="n">
-        <v>42456</v>
+        <v>42449</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>325</v>
@@ -5599,10 +5636,10 @@
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="11" t="n">
-        <v>42462</v>
+        <v>42456</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="4"/>
@@ -5610,10 +5647,10 @@
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="11" t="n">
-        <v>42463</v>
+        <v>42462</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="4"/>
@@ -5621,7 +5658,7 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="11" t="n">
-        <v>42470</v>
+        <v>42463</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>327</v>
@@ -5632,7 +5669,7 @@
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="11" t="n">
-        <v>42484</v>
+        <v>42470</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>328</v>
@@ -5643,7 +5680,7 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="11" t="n">
-        <v>42498</v>
+        <v>42484</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>329</v>
@@ -5654,7 +5691,7 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="11" t="n">
-        <v>42505</v>
+        <v>42498</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>330</v>
@@ -5665,7 +5702,7 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="11" t="n">
-        <v>42512</v>
+        <v>42505</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>331</v>
@@ -5687,7 +5724,7 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="11" t="n">
-        <v>42526</v>
+        <v>42512</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>333</v>
@@ -5698,7 +5735,7 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="11" t="n">
-        <v>42160</v>
+        <v>42526</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>334</v>
@@ -5709,7 +5746,7 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="11" t="n">
-        <v>42167</v>
+        <v>42160</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>335</v>
@@ -5720,7 +5757,7 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="11" t="n">
-        <v>42174</v>
+        <v>42167</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>336</v>
@@ -5742,7 +5779,7 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="11" t="n">
-        <v>42180</v>
+        <v>42174</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>338</v>
@@ -5750,9 +5787,21 @@
       <c r="D41" s="8"/>
       <c r="E41" s="4"/>
     </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="11" t="n">
+        <v>42180</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D42" type="list">
       <formula1>"Départemental,Régional,National 2,National,Inter-national"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,8 @@
     <sheet name="Régions" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Niveau compétitions" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Types compétitions" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Nages" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Disqualifications" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,741 +28,1638 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="245">
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Département</t>
-  </si>
-  <si>
-    <t>TOULON WATER-POLO</t>
-  </si>
-  <si>
-    <t>AC CANNES</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>NICE NICAEA WATER-POLO</t>
-  </si>
-  <si>
-    <t>CLUB OMNISPORTS DE VALBONNE</t>
-  </si>
-  <si>
-    <t>AS MONACO NATATION</t>
-  </si>
-  <si>
-    <t>CN DRAGUIGNAN</t>
-  </si>
-  <si>
-    <t>ASPTT NICE</t>
-  </si>
-  <si>
-    <t>CN ANTIBES</t>
-  </si>
-  <si>
-    <t>CN CANNES</t>
-  </si>
-  <si>
-    <t>NICE LA SEMEUSE</t>
-  </si>
-  <si>
-    <t>TOULON VAR NATATION</t>
-  </si>
-  <si>
-    <t>AS CACHALOTS SIX-FOURS</t>
-  </si>
-  <si>
-    <t>AMSL FRÉJUS</t>
-  </si>
-  <si>
-    <t>CN MENTON</t>
-  </si>
-  <si>
-    <t>US ST-TROPEZ</t>
-  </si>
-  <si>
-    <t>CARROS NATATION</t>
-  </si>
-  <si>
-    <t>SAINT-RAPHAEL NATATION</t>
-  </si>
-  <si>
-    <t>AC HYÈRES</t>
-  </si>
-  <si>
-    <t>DAUPHINS GRASSE</t>
-  </si>
-  <si>
-    <t>OLYMPIC NICE NATATION</t>
-  </si>
-  <si>
-    <t>CNS VALLAURIS</t>
-  </si>
-  <si>
-    <t>STADE ST-LAURENT-DU-VAR NAT</t>
-  </si>
-  <si>
-    <t>ASPTT TOULON</t>
-  </si>
-  <si>
-    <t>A.S DRAGUIGNAN NATATION</t>
-  </si>
-  <si>
-    <t>AQUATIC CLUB DE MENTON</t>
-  </si>
-  <si>
-    <t>Poste</t>
-  </si>
-  <si>
-    <t>Niveau</t>
-  </si>
-  <si>
-    <t>Délégué fédéral</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Jury d'appel</t>
-  </si>
-  <si>
-    <t>Juge arbitre</t>
-  </si>
-  <si>
-    <t>Starter</t>
-  </si>
-  <si>
-    <t>Coordonnateur</t>
-  </si>
-  <si>
-    <t>Juge de Nage</t>
-  </si>
-  <si>
-    <t>Juge à l'arrivée</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Chef des virages</t>
-  </si>
-  <si>
-    <t>Juge aux virages</t>
-  </si>
-  <si>
-    <t>Juge aux virages + Bouton poussoir</t>
-  </si>
-  <si>
-    <t>Chronométreur</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Superviseur SdC</t>
-  </si>
-  <si>
-    <t>Gestion extraNat</t>
-  </si>
-  <si>
-    <t>Secrétariat</t>
-  </si>
-  <si>
-    <t>Chambre d'appel</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Médecin</t>
-  </si>
-  <si>
-    <t>Délégué Anti-dopage</t>
-  </si>
-  <si>
-    <t>Chaperon Anti-dopage</t>
-  </si>
-  <si>
-    <t>Ramasseur des fiches</t>
-  </si>
-  <si>
-    <t>Officiel en examen</t>
-  </si>
-  <si>
-    <t>Officiel non affecté</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t>Licencié</t>
-  </si>
-  <si>
-    <t>Elève A</t>
-  </si>
-  <si>
-    <t>Elève B</t>
-  </si>
-  <si>
-    <t>Elève C</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Finale A</t>
-  </si>
-  <si>
-    <t>Finale B</t>
-  </si>
-  <si>
-    <t>Finale C</t>
-  </si>
-  <si>
-    <t>Finale D</t>
-  </si>
-  <si>
-    <t>Barrage Finales</t>
-  </si>
-  <si>
-    <t>Finale Jeune</t>
-  </si>
-  <si>
-    <t>Barrage Finale Jeune</t>
-  </si>
-  <si>
-    <t>1/2 Finale (1)</t>
-  </si>
-  <si>
-    <t>1/2 Finale (2)</t>
-  </si>
-  <si>
-    <t>Barrage 1/2 Finales</t>
-  </si>
-  <si>
-    <t>1/4 Finale (1)</t>
-  </si>
-  <si>
-    <t>1/4 Finale (2)</t>
-  </si>
-  <si>
-    <t>1/4 Finale (3)</t>
-  </si>
-  <si>
-    <t>1/4 Finale (4)</t>
-  </si>
-  <si>
-    <t>Barrage 1/4 Finales</t>
-  </si>
-  <si>
-    <t>1/8 Finale (1)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (2)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (3)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (4)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (5)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (6)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (7)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (8)</t>
-  </si>
-  <si>
-    <t>Barrage 1/8 Finales</t>
-  </si>
-  <si>
-    <t>Séries</t>
-  </si>
-  <si>
-    <t>Série rapide</t>
-  </si>
-  <si>
-    <t>Séries lentes</t>
-  </si>
-  <si>
-    <t>Barrage Séries</t>
-  </si>
-  <si>
-    <t>Hors-Concours</t>
-  </si>
-  <si>
-    <t>Inter-région</t>
-  </si>
-  <si>
-    <t>ALSACE</t>
-  </si>
-  <si>
-    <t>NORD-EST</t>
-  </si>
-  <si>
-    <t>AQUITAINE</t>
-  </si>
-  <si>
-    <t>SUD-OUEST</t>
-  </si>
-  <si>
-    <t>AUVERGNE</t>
-  </si>
-  <si>
-    <t>SUD-EST</t>
-  </si>
-  <si>
-    <t>BOURGOGNE</t>
-  </si>
-  <si>
-    <t>BRETAGNE</t>
-  </si>
-  <si>
-    <t>NORD-OUEST</t>
-  </si>
-  <si>
-    <t>CENTRE-VAL DE LOIRE</t>
-  </si>
-  <si>
-    <t>CHAMPAGNE-ARDENNE</t>
-  </si>
-  <si>
-    <t>CORSE</t>
-  </si>
-  <si>
-    <t>CÔTE D'AZUR</t>
-  </si>
-  <si>
-    <t>DAUPHINÉ-SAVOIE</t>
-  </si>
-  <si>
-    <t>FRANCHE-COMTÉ</t>
-  </si>
-  <si>
-    <t>ILE-DE-FRANCE</t>
-  </si>
-  <si>
-    <t>LANGUEDOC-ROUSSILLON</t>
-  </si>
-  <si>
-    <t>LIMOUSIN</t>
-  </si>
-  <si>
-    <t>LORRAINE</t>
-  </si>
-  <si>
-    <t>LYONNAIS</t>
-  </si>
-  <si>
-    <t>NORD-PAS-DE-CALAIS</t>
-  </si>
-  <si>
-    <t>NORMANDIE</t>
-  </si>
-  <si>
-    <t>PAYS DE LA LOIRE</t>
-  </si>
-  <si>
-    <t>PICARDIE</t>
-  </si>
-  <si>
-    <t>POITOU-CHARENTES</t>
-  </si>
-  <si>
-    <t>PROVENCE</t>
-  </si>
-  <si>
-    <t>MIDI-PYRÉNÉES</t>
-  </si>
-  <si>
-    <t>NOUVELLE-CALÉDONIE</t>
-  </si>
-  <si>
-    <t>DOM-TOM</t>
-  </si>
-  <si>
-    <t>GUADELOUPE</t>
-  </si>
-  <si>
-    <t>MARTINIQUE</t>
-  </si>
-  <si>
-    <t>GUYANE</t>
-  </si>
-  <si>
-    <t>LA RÉUNION</t>
-  </si>
-  <si>
-    <t>TAHITI</t>
-  </si>
-  <si>
-    <t>Compétitions Internationales</t>
-  </si>
-  <si>
-    <t>Compétitions Nationales</t>
-  </si>
-  <si>
-    <t>Compétitions Interrégionales</t>
-  </si>
-  <si>
-    <t>Compétitions Régionales</t>
-  </si>
-  <si>
-    <t>Compétitions Départementales</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Jeux Olympiques      </t>
-  </si>
-  <si>
-    <t>Championnats du Monde en grand bassin  </t>
-  </si>
-  <si>
-    <t>Championnats d'Europe en grand bassin   </t>
-  </si>
-  <si>
-    <t>Compétitions Internationales diverses     </t>
-  </si>
-  <si>
-    <t>Championnats de France Elite    </t>
-  </si>
-  <si>
-    <t>Championnats N1 Interclubs     </t>
-  </si>
-  <si>
-    <t>Coupe de France     </t>
-  </si>
-  <si>
-    <t>Compétitions Nationales diverses     </t>
-  </si>
-  <si>
-    <t>Championnats de Nationale 2 (par zones)  </t>
-  </si>
-  <si>
-    <t>Circuit Fédéral de catégories d'âge   </t>
-  </si>
-  <si>
-    <t>Championnats N2 Interclubs     </t>
-  </si>
-  <si>
-    <t>Championnats de Nationale 3 (par zones)  </t>
-  </si>
-  <si>
-    <t>Compétitions Interrégionales diverses     </t>
-  </si>
-  <si>
-    <t>Meeting fédéral du 42401 fond   </t>
-  </si>
-  <si>
-    <t>Championnat Régional Interclubs     </t>
-  </si>
-  <si>
-    <t>Championnats Régionaux (animation)     </t>
-  </si>
-  <si>
-    <t>Natathlon Régional (étapes)     </t>
-  </si>
-  <si>
-    <t>Coupe Interclubs Minimes     </t>
-  </si>
-  <si>
-    <t>Coupe Interclubs Benjamins     </t>
-  </si>
-  <si>
-    <t>Circuit Régional      </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses     </t>
-  </si>
-  <si>
-    <t>Coupe des Régions - Minimes et Cadets </t>
-  </si>
-  <si>
-    <t>Coupe des Départements Benjamins    </t>
-  </si>
-  <si>
-    <t>Trophée National Lucien-Zins     </t>
-  </si>
-  <si>
-    <t>Championnats de France Juniors    </t>
-  </si>
-  <si>
-    <t>Championnats de France Cadets    </t>
-  </si>
-  <si>
-    <t>Championnats de France Minimes    </t>
-  </si>
-  <si>
-    <t>Championnats de France Cadets et Juniors  </t>
-  </si>
-  <si>
-    <t>Coupe des Régions des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Coupe Interclubs Benjamins des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Coupe Interclubs Minimes des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Interclubs Régionaux des clubs d'été   </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Meetings d'animation labellisés : international   </t>
-  </si>
-  <si>
-    <t>Meetings d'animation labellisés : national   </t>
-  </si>
-  <si>
-    <t>Meetings d'animation labellisés : régional   </t>
-  </si>
-  <si>
-    <t>Championnats Départementaux (animation)     </t>
-  </si>
-  <si>
-    <t>Championnat Départemental Interclubs     </t>
-  </si>
-  <si>
-    <t>Circuit Départemental      </t>
-  </si>
-  <si>
-    <t>Meetings d'animation labellisés : départemental   </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales diverses     </t>
-  </si>
-  <si>
-    <t>Championnats du Monde des Maîtres   </t>
-  </si>
-  <si>
-    <t>Championnats d'Europe des Maîtres    </t>
-  </si>
-  <si>
-    <t>Meetings Internationaux des Maîtres labellisés   </t>
-  </si>
-  <si>
-    <t>Compétitions Internationales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Championnats de France d'été des Maîtres (50m) </t>
-  </si>
-  <si>
-    <t>Meeting National Interclubs des maîtres   </t>
-  </si>
-  <si>
-    <t>Meeting National des Maîtres labellisés (FFN)  </t>
-  </si>
-  <si>
-    <t>Compétitions Nationales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Championnats Régionaux des Maîtres    </t>
-  </si>
-  <si>
-    <t>Meeting Régional Interclubs des maîtres   </t>
-  </si>
-  <si>
-    <t>Meeting Régional des Maîtres labellisé (FFN)  </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Championnats Départementaux des Maîtres    </t>
-  </si>
-  <si>
-    <t>Interclubs Départemental des Maîtres    </t>
-  </si>
-  <si>
-    <t>Meeting Départemental des Maîtres labellisé (FFN)  </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Natathlon Départemental (étapes)     </t>
-  </si>
-  <si>
-    <t>Championnats du Monde en petit bassin  </t>
-  </si>
-  <si>
-    <t>Championnats d'Europe en petit bassin   </t>
-  </si>
-  <si>
-    <t>Championnats d'Europe Juniors     </t>
-  </si>
-  <si>
-    <t>Meetings Internationaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t>Championnats de France en petit bassin  </t>
-  </si>
-  <si>
-    <t>Meetings Nationaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t>Championnat régional d'été (référence nationale)   </t>
-  </si>
-  <si>
-    <t>Championnats de France des Jeunes   </t>
-  </si>
-  <si>
-    <t>Championnats de France N2    </t>
-  </si>
-  <si>
-    <t>Championnats de France UNSS/FFN    </t>
-  </si>
-  <si>
-    <t>Coupe Régionale Interclubs 11-13 ans   </t>
-  </si>
-  <si>
-    <t>Coupe Départementale Interclubs 11-13 ans   </t>
-  </si>
-  <si>
-    <t>Meeting Juniors des clubs d'été   </t>
-  </si>
-  <si>
-    <t>Championnats du Monde Juniors    </t>
-  </si>
-  <si>
-    <t>Compétitions Internationales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Nationales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Interrégionales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses des clubs d'été par équipe</t>
-  </si>
-  <si>
-    <t>Meetings Régionaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales diverses des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales diverses des clubs d'été par équipe</t>
-  </si>
-  <si>
-    <t>Championnats de France Jeunes en petit bassin </t>
-  </si>
-  <si>
-    <t>Championnats Interrégionaux (réf. nat.)    </t>
-  </si>
-  <si>
-    <t>Meetings Départementaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t>Meeting du circuit fédéral des Maîtres  </t>
-  </si>
-  <si>
-    <t>Meeting International d'hiver FFN    </t>
-  </si>
-  <si>
-    <t>Compétitions Interrégionales des maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Championnats de France d'hiver des Maîtres (25m) </t>
-  </si>
-  <si>
-    <t>Championnats nationaux 16 ans et plus  </t>
-  </si>
-  <si>
-    <t>Meeting International labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t>Meeting National labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t>Championnats Interrégionaux en petit bassin   </t>
-  </si>
-  <si>
-    <t>Championnats de nationale 2 d'hiver   </t>
-  </si>
-  <si>
-    <t>Championnats de nationale 2 d'été   </t>
-  </si>
-  <si>
-    <t>Championnat Régional d'hiver (25m)    </t>
-  </si>
-  <si>
-    <t>Championnat régional d'été (50m)    </t>
-  </si>
-  <si>
-    <t>Meeting Régional labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t>Interclubs Régional Benjamins     </t>
-  </si>
-  <si>
-    <t>Interclubs Régional Minimes     </t>
-  </si>
-  <si>
-    <t>Championnat Départemental d'hiver en petit bassin  </t>
-  </si>
-  <si>
-    <t>Championnat Départemental d'été     </t>
-  </si>
-  <si>
-    <t>Interclubs Départemental Benjamins     </t>
-  </si>
-  <si>
-    <t>Interclubs Départemental Minimes     </t>
-  </si>
-  <si>
-    <t>Meeting Départemental labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t>Coupe Régionale Interclubs Minimes et moins  </t>
-  </si>
-  <si>
-    <t>Coupe Régionale Interclubs Toutes catégories   </t>
-  </si>
-  <si>
-    <t>Championnat Régional des Maîtres (25m)   </t>
-  </si>
-  <si>
-    <t>Championnat Régional des Maîtres (50m)   </t>
-  </si>
-  <si>
-    <t>Championnat Départemental des Maîtres (25m)   </t>
-  </si>
-  <si>
-    <t>Championnat Départemental des Maîtres (50m)   </t>
-  </si>
-  <si>
-    <t>Trophée Interrégional Lucien-Zins     </t>
-  </si>
-  <si>
-    <t>Trophée Régional Lucien-Zins     </t>
-  </si>
-  <si>
-    <t>Autre.       </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="544">
+  <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Département</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON WATER-POLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC CANNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE NICAEA WATER-POLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB OMNISPORTS DE VALBONNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS MONACO NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN DRAGUIGNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN ANTIBES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN CANNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE LA SEMEUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON VAR NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMSL FRÉJUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN MENTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US ST-TROPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARROS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC HYÈRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS GRASSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS VALLAURIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT TOULON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.S DRAGUIGNAN NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUATIC CLUB DE MENTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délégué fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jury d'appel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge arbitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordonnateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge de Nage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge à l'arrivée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chef des virages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge aux virages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge aux virages + Bouton poussoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronométreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superviseur SdC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion extraNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrétariat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chambre d'appel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médecin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délégué Anti-dopage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaperon Anti-dopage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramasseur des fiches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officiel en examen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge d'arrivée en chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officiel non affecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licencié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elève A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elève B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elève C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Jeune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage Finale Jeune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 Finale (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 Finale (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage 1/2 Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Finale (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Finale (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Finale (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Finale (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage 1/4 Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage 1/8 Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série rapide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séries lentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage Séries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hors-Concours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-région</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALSACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORD-EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUITAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUD-OUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUVERGNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUD-EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOURGOGNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRETAGNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORD-OUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRE-VAL DE LOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAMPAGNE-ARDENNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔTE D'AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINÉ-SAVOIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCHE-COMTÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILE-DE-FRANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANGUEDOC-ROUSSILLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMOUSIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORRAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYONNAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORD-PAS-DE-CALAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMANDIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYS DE LA LOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICARDIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POITOU-CHARENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDI-PYRÉNÉES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOUVELLE-CALÉDONIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM-TOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUADELOUPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUYANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA RÉUNION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAHITI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeux Olympiques      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats du Monde en grand bassin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats d'Europe en grand bassin   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Elite    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats N1 Interclubs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe de France     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 2 (par zones)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Fédéral de catégories d'âge   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats N2 Interclubs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 3 (par zones)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting fédéral du 42401 fond   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Régional Interclubs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Régionaux (animation)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Régional (étapes)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Interclubs Minimes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Interclubs Benjamins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Régional      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe des Régions - Minimes et Cadets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe des Départements Benjamins    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophée National Lucien-Zins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Juniors    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Cadets    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Minimes    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Cadets et Juniors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe des Régions des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Interclubs Benjamins des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Interclubs Minimes des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régionaux des clubs d'été   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings d'animation labellisés : international   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings d'animation labellisés : national   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings d'animation labellisés : régional   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Départementaux (animation)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental Interclubs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Départemental      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings d'animation labellisés : départemental   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats du Monde des Maîtres   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats d'Europe des Maîtres    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Internationaux des Maîtres labellisés   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France d'été des Maîtres (50m) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting National Interclubs des maîtres   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting National des Maîtres labellisés (FFN)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Régionaux des Maîtres    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Régional Interclubs des maîtres   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Régional des Maîtres labellisé (FFN)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Départementaux des Maîtres    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Départemental des Maîtres    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Départemental des Maîtres labellisé (FFN)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Départemental (étapes)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats du Monde en petit bassin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats d'Europe en petit bassin   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats d'Europe Juniors     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Internationaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France en petit bassin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Nationaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat régional d'été (référence nationale)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France des Jeunes   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France N2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France UNSS/FFN    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Régionale Interclubs 11-13 ans   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Départementale Interclubs 11-13 ans   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Juniors des clubs d'été   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats du Monde Juniors    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses des clubs d'été par équipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Régionaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses des clubs d'été par équipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Jeunes en petit bassin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Interrégionaux (réf. nat.)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Départementaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting du circuit fédéral des Maîtres  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting International d'hiver FFN    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales des maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France d'hiver des Maîtres (25m) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats nationaux 16 ans et plus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting International labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting National labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Interrégionaux en petit bassin   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de nationale 2 d'hiver   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de nationale 2 d'été   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Régional d'hiver (25m)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat régional d'été (50m)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Régional labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régional Benjamins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régional Minimes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental d'hiver en petit bassin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental d'été     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Départemental Benjamins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Départemental Minimes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Départemental labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Régionale Interclubs Minimes et moins  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Régionale Interclubs Toutes catégories   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Régional des Maîtres (25m)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Régional des Maîtres (50m)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental des Maîtres (25m)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental des Maîtres (50m)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophée Interrégional Lucien-Zins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophée Régional Lucien-Zins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régional Benjamins (plot 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x200 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Ind. Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x200 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Ind. Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x200 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Ind. Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libellé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait excusé (cerficat médical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait déclaré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS Nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait non déclaré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ CnS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Conduite non Sportive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ Da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Départ anticipé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait sans précision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1 Fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Départ anticipé (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps Limite Dépassé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Directe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ Ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Arrivée incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ 15m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépassement de la limite des 15m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPR Supp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Épreuve supprimée</t>
   </si>
 </sst>
 </file>
@@ -768,7 +1667,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="5">
@@ -848,7 +1747,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -877,6 +1776,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -902,10 +1813,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1199,8 +2109,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1210,16 +2120,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1251,9 +2161,6 @@
       <c r="B3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1263,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1271,10 +2178,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1282,7 +2189,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1290,10 +2197,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1301,10 +2208,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1315,7 +2222,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1326,7 +2233,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1337,7 +2244,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1382,9 +2289,6 @@
       <c r="B16" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -1436,10 +2340,21 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>55</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1447,8 +2362,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1466,7 +2381,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1477,7 +2392,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1485,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -1496,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>6</v>
@@ -1507,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>5</v>
@@ -1518,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>4</v>
@@ -1529,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>3</v>
@@ -1551,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1</v>
@@ -1567,8 +2482,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1586,8 +2501,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,7 +2527,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,7 +2535,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,7 +2543,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,7 +2551,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,7 +2559,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,7 +2567,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,7 +2575,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,7 +2583,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +2591,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,7 +2599,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,7 +2607,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,7 +2615,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,7 +2623,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,7 +2631,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +2639,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,7 +2647,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,7 +2655,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,7 +2663,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,7 +2671,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,7 +2679,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,7 +2687,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,7 +2695,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,7 +2703,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,7 +2711,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +2719,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,7 +2727,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +2735,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +2743,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1835,8 +2751,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1855,8 +2771,9 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1864,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,10 +2792,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1886,10 +2803,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1897,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1908,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1919,10 +2836,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,10 +2847,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1941,10 +2858,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,10 +2869,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,10 +2880,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1985,10 +2902,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,10 +2913,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2007,10 +2924,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,10 +2935,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,10 +2946,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,10 +2957,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,10 +2968,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,10 +2979,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2073,10 +2990,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,10 +3001,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,10 +3012,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2106,10 +3023,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,10 +3034,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,10 +3045,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2139,10 +3056,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,10 +3067,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,10 +3078,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,10 +3089,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,10 +3100,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2194,8 +3111,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2208,12 +3125,14 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,7 +3156,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,7 +3172,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2269,8 +3188,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2280,18 +3199,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.29081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -2310,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -2321,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -2332,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -2343,7 +3262,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -2354,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -2365,7 +3284,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -2376,7 +3295,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -2387,7 +3306,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -2398,7 +3317,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -2409,7 +3328,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -2420,7 +3339,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -2431,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -2442,7 +3361,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -2453,7 +3372,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -2465,7 +3384,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -2476,7 +3395,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4</v>
@@ -2487,7 +3406,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
@@ -2498,7 +3417,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -2509,7 +3428,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
@@ -2520,7 +3439,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
@@ -2531,7 +3450,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
@@ -2542,7 +3461,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -2553,7 +3472,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5</v>
@@ -2564,7 +3483,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -2575,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2</v>
@@ -2586,7 +3505,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2</v>
@@ -2597,7 +3516,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -2608,7 +3527,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2</v>
@@ -2619,7 +3538,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
@@ -2630,7 +3549,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>4</v>
@@ -2641,7 +3560,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>4</v>
@@ -2652,7 +3571,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>4</v>
@@ -2663,7 +3582,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>4</v>
@@ -2674,7 +3593,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -2685,7 +3604,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
@@ -2696,7 +3615,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>4</v>
@@ -2707,7 +3626,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5</v>
@@ -2718,7 +3637,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>5</v>
@@ -2729,7 +3648,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>5</v>
@@ -2740,7 +3659,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>5</v>
@@ -2751,7 +3670,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>5</v>
@@ -2762,7 +3681,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -2773,7 +3692,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
@@ -2784,7 +3703,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
@@ -2795,7 +3714,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
@@ -2806,7 +3725,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
@@ -2817,7 +3736,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -2828,7 +3747,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
@@ -2839,7 +3758,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
@@ -2850,7 +3769,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>4</v>
@@ -2861,7 +3780,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>4</v>
@@ -2872,7 +3791,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>4</v>
@@ -2883,7 +3802,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>4</v>
@@ -2894,7 +3813,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
@@ -2905,7 +3824,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>5</v>
@@ -2916,7 +3835,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>5</v>
@@ -2927,7 +3846,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>5</v>
@@ -2938,7 +3857,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
@@ -2949,7 +3868,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
@@ -2960,7 +3879,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
@@ -2971,7 +3890,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -2982,7 +3901,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1</v>
@@ -2993,7 +3912,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2</v>
@@ -3004,7 +3923,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2</v>
@@ -3015,7 +3934,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>4</v>
@@ -3026,7 +3945,7 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2</v>
@@ -3037,7 +3956,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3</v>
@@ -3048,7 +3967,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2</v>
@@ -3059,7 +3978,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>4</v>
@@ -3070,7 +3989,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>5</v>
@@ -3081,7 +4000,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2</v>
@@ -3092,7 +4011,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
@@ -3103,7 +4022,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
@@ -3114,7 +4033,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2</v>
@@ -3125,7 +4044,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>3</v>
@@ -3136,7 +4055,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>4</v>
@@ -3147,7 +4066,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>5</v>
@@ -3158,7 +4077,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
@@ -3169,7 +4088,7 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>4</v>
@@ -3180,7 +4099,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>5</v>
@@ -3191,7 +4110,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>5</v>
@@ -3202,7 +4121,7 @@
         <v>93</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2</v>
@@ -3213,7 +4132,7 @@
         <v>94</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>4</v>
@@ -3224,7 +4143,7 @@
         <v>95</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4</v>
@@ -3235,7 +4154,7 @@
         <v>96</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>3</v>
@@ -3246,7 +4165,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>5</v>
@@ -3257,7 +4176,7 @@
         <v>98</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -3268,7 +4187,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>1</v>
@@ -3279,7 +4198,7 @@
         <v>100</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>3</v>
@@ -3290,7 +4209,7 @@
         <v>101</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>4</v>
@@ -3301,7 +4220,7 @@
         <v>102</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>4</v>
@@ -3312,7 +4231,7 @@
         <v>103</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2</v>
@@ -3323,7 +4242,7 @@
         <v>104</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2</v>
@@ -3334,7 +4253,7 @@
         <v>105</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>1</v>
@@ -3345,7 +4264,7 @@
         <v>106</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
@@ -3356,7 +4275,7 @@
         <v>107</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3</v>
@@ -3367,7 +4286,7 @@
         <v>108</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3</v>
@@ -3378,7 +4297,7 @@
         <v>109</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>3</v>
@@ -3389,7 +4308,7 @@
         <v>110</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>4</v>
@@ -3400,7 +4319,7 @@
         <v>111</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>4</v>
@@ -3411,7 +4330,7 @@
         <v>112</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>4</v>
@@ -3422,7 +4341,7 @@
         <v>113</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>4</v>
@@ -3433,7 +4352,7 @@
         <v>114</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>4</v>
@@ -3444,7 +4363,7 @@
         <v>115</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>5</v>
@@ -3455,7 +4374,7 @@
         <v>116</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>5</v>
@@ -3466,7 +4385,7 @@
         <v>117</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>5</v>
@@ -3477,7 +4396,7 @@
         <v>118</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>5</v>
@@ -3488,7 +4407,7 @@
         <v>119</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>5</v>
@@ -3499,7 +4418,7 @@
         <v>120</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>4</v>
@@ -3510,7 +4429,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>4</v>
@@ -3521,7 +4440,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>4</v>
@@ -3532,7 +4451,7 @@
         <v>123</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>4</v>
@@ -3543,7 +4462,7 @@
         <v>124</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>5</v>
@@ -3554,7 +4473,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>5</v>
@@ -3565,7 +4484,7 @@
         <v>126</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>3</v>
@@ -3576,7 +4495,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>4</v>
@@ -3584,12 +4503,45 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C118" s="0" t="n">
+      <c r="B121" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C121" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3598,8 +4550,2083 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B160"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>250</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>120</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>130</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>252</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>283</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>289</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>295</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
+        <v>301</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
+        <v>254</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
+        <v>256</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
+        <v>121</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>258</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>131</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
+        <v>271</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
+        <v>265</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
+        <v>243</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
+        <v>277</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
+        <v>305</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
+        <v>150</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
+        <v>249</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="n">
+        <v>57</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="n">
+        <v>160</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="n">
+        <v>170</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="n">
+        <v>180</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="n">
+        <v>81</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="n">
+        <v>82</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="n">
+        <v>83</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="n">
+        <v>90</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="n">
+        <v>251</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="n">
+        <v>281</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="n">
+        <v>287</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
+        <v>293</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="n">
+        <v>299</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="n">
+        <v>97</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="n">
+        <v>93</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="n">
+        <v>253</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="n">
+        <v>161</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="n">
+        <v>255</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="n">
+        <v>171</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="n">
+        <v>257</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="n">
+        <v>181</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="n">
+        <v>89</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="n">
+        <v>98</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="n">
+        <v>273</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="n">
+        <v>266</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="n">
+        <v>244</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="n">
+        <v>275</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="n">
+        <v>304</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="n">
+        <v>201</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="n">
+        <v>202</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="n">
+        <v>203</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="n">
+        <v>204</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="n">
+        <v>262</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="n">
+        <v>205</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="n">
+        <v>206</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="n">
+        <v>216</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="n">
+        <v>215</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="n">
+        <v>210</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="n">
+        <v>211</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="n">
+        <v>212</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="n">
+        <v>213</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="n">
+        <v>220</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="n">
+        <v>221</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="n">
+        <v>222</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="n">
+        <v>223</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="n">
+        <v>230</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="n">
+        <v>231</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="n">
+        <v>232</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="n">
+        <v>233</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="n">
+        <v>240</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="n">
+        <v>241</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="n">
+        <v>263</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="n">
+        <v>242</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="n">
+        <v>285</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="n">
+        <v>291</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="n">
+        <v>297</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="n">
+        <v>303</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="n">
+        <v>86</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="n">
+        <v>88</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="n">
+        <v>259</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="n">
+        <v>246</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="n">
+        <v>260</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="n">
+        <v>247</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9" t="n">
+        <v>261</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="n">
+        <v>248</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="9" t="n">
+        <v>269</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9" t="n">
+        <v>267</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="9" t="n">
+        <v>245</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="9" t="n">
+        <v>214</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="9" t="n">
+        <v>279</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="n">
+        <v>84</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9" t="n">
+        <v>264</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>543</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="544">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -126,28 +126,28 @@
     <t xml:space="preserve">Délégué fédéral</t>
   </si>
   <si>
+    <t xml:space="preserve">Jury d'appel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge arbitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordonnateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge de Nage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge à l'arrivée</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jury d'appel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge arbitre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordonnateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge de Nage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge à l'arrivée</t>
   </si>
   <si>
     <t xml:space="preserve">Chef des virages</t>
@@ -1813,9 +1813,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2122,14 +2123,15 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2150,16 +2152,13 @@
       <c r="B2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2167,10 +2166,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2178,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2189,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2197,10 +2196,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2208,10 +2207,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2222,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2233,7 +2232,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2244,7 +2243,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2346,7 +2345,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,7 +2380,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>6</v>
@@ -2433,7 +2433,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>4</v>
@@ -2501,9 +2501,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,9 +2771,9 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,9 +3130,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,9 +3208,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.61224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4569,9 +4568,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,15 +5869,13 @@
   </sheetPr>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.8928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,1638 +28,1647 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="544">
-  <si>
-    <t xml:space="preserve">Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Club</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Département</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOULON WATER-POLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC CANNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE NICAEA WATER-POLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB OMNISPORTS DE VALBONNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS MONACO NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN DRAGUIGNAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT NICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN ANTIBES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN CANNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE LA SEMEUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOULON VAR NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMSL FRÉJUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN MENTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US ST-TROPEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARROS NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC HYÈRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPHINS GRASSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS VALLAURIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT TOULON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.S DRAGUIGNAN NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUATIC CLUB DE MENTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niveau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Délégué fédéral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jury d'appel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge arbitre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordonnateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge de Nage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge à l'arrivée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chef des virages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge aux virages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge aux virages + Bouton poussoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chronométreur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superviseur SdC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion extraNat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secrétariat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chambre d'appel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Médecin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Délégué Anti-dopage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaperon Anti-dopage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramasseur des fiches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Officiel en examen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juge d'arrivée en chef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Officiel non affecté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licencié</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elève A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elève B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elève C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finale A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finale B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finale C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finale D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrage Finales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finale Jeune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrage Finale Jeune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 Finale (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2 Finale (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrage 1/2 Finales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 Finale (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 Finale (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 Finale (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4 Finale (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrage 1/4 Finales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8 Finale (1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8 Finale (2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8 Finale (3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8 Finale (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8 Finale (5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8 Finale (6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8 Finale (7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8 Finale (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrage 1/8 Finales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Séries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Série rapide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Séries lentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrage Séries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hors-Concours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inter-région</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALSACE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORD-EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUITAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUD-OUEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUVERGNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUD-EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOURGOGNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRETAGNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORD-OUEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRE-VAL DE LOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAMPAGNE-ARDENNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÔTE D'AZUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPHINÉ-SAVOIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCHE-COMTÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILE-DE-FRANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANGUEDOC-ROUSSILLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMOUSIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LORRAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYONNAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORD-PAS-DE-CALAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORMANDIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYS DE LA LOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PICARDIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POITOU-CHARENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROVENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDI-PYRÉNÉES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOUVELLE-CALÉDONIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOM-TOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUADELOUPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTINIQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUYANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA RÉUNION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAHITI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Internationales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Nationales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Interrégionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Régionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Départementales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeux Olympiques      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats du Monde en grand bassin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats d'Europe en grand bassin   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Internationales diverses     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France Elite    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats N1 Interclubs     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe de France     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Nationales diverses     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de Nationale 2 (par zones)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circuit Fédéral de catégories d'âge   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats N2 Interclubs     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de Nationale 3 (par zones)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Interrégionales diverses     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting fédéral du 42401 fond   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Régional Interclubs     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats Régionaux (animation)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natathlon Régional (étapes)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe Interclubs Minimes     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe Interclubs Benjamins     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circuit Régional      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Régionales diverses     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe des Régions - Minimes et Cadets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe des Départements Benjamins    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trophée National Lucien-Zins     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France Juniors    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France Cadets    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France Minimes    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France Cadets et Juniors  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe des Régions des clubs d'été  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe Interclubs Benjamins des clubs d'été  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe Interclubs Minimes des clubs d'été  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interclubs Régionaux des clubs d'été   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Régionales diverses des clubs d'été  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings d'animation labellisés : international   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings d'animation labellisés : national   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings d'animation labellisés : régional   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats Départementaux (animation)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Départemental Interclubs     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circuit Départemental      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings d'animation labellisés : départemental   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Départementales diverses     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats du Monde des Maîtres   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats d'Europe des Maîtres    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings Internationaux des Maîtres labellisés   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Internationales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France d'été des Maîtres (50m) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting National Interclubs des maîtres   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting National des Maîtres labellisés (FFN)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Nationales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats Régionaux des Maîtres    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting Régional Interclubs des maîtres   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting Régional des Maîtres labellisé (FFN)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Régionales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats Départementaux des Maîtres    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interclubs Départemental des Maîtres    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting Départemental des Maîtres labellisé (FFN)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Départementales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natathlon Départemental (étapes)     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats du Monde en petit bassin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats d'Europe en petit bassin   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats d'Europe Juniors     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings Internationaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France en petit bassin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings Nationaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat régional d'été (référence nationale)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France des Jeunes   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France N2    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France UNSS/FFN    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe Régionale Interclubs 11-13 ans   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe Départementale Interclubs 11-13 ans   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting Juniors des clubs d'été   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats du Monde Juniors    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Internationales diverses par équipe   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Nationales diverses par équipe   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Interrégionales diverses par équipe   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Régionales diverses par équipe   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Départementales diverses par équipe   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Régionales diverses des clubs d'été par équipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings Régionaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Départementales diverses des clubs d'été  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Départementales diverses des clubs d'été par équipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France Jeunes en petit bassin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats Interrégionaux (réf. nat.)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetings Départementaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting du circuit fédéral des Maîtres  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting International d'hiver FFN    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Interrégionales des maîtres diverses   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de France d'hiver des Maîtres (25m) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats nationaux 16 ans et plus  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting International labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting National labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats Interrégionaux en petit bassin   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de nationale 2 d'hiver   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnats de nationale 2 d'été   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Régional d'hiver (25m)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat régional d'été (50m)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting Régional labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interclubs Régional Benjamins     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interclubs Régional Minimes     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Départemental d'hiver en petit bassin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Départemental d'été     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interclubs Départemental Benjamins     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interclubs Départemental Minimes     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting Départemental labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe Régionale Interclubs Minimes et moins  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coupe Régionale Interclubs Toutes catégories   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Régional des Maîtres (25m)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Régional des Maîtres (50m)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Départemental des Maîtres (25m)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Championnat Départemental des Maîtres (50m)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trophée Interrégional Lucien-Zins     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trophée Régional Lucien-Zins     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interclubs Régional Benjamins (plot 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compétitions Régionales diverses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre.       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">800 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Dos Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Dos Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Dos Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Dos Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Brasse Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Brasse Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Brasse Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Brasse Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Papillon Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Papillon Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Papillon Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Papillon Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 4 Nages Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 4 Nages Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 4 Nages Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 4 Nages Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Dos Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Brasse Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Papillon Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x200 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Dos Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Dos Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Brasse Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Brasse Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Papillon Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Papillon Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 4 Nages Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 4 Nages Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 4 Nages Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 4 Nages Ind. Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x25 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x100 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x50 4 Nages Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x100 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">800 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Dos Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Dos Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Dos Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Dos Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Dos Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x200 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Dos Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Dos Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 4 Nages Ind. Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x25 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x100 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x50 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x100 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">800 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5000 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Dos Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Dos Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Dos Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Dos Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Dos Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x50 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x200 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Dos Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Dos Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x25 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x50 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 4 Nages Ind. Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x25 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x100 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8x50 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10x100 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libellé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS exc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfait excusé (cerficat médical)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS dec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfait déclaré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQ MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS Nd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfait non déclaré</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQ CnS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Conduite non Sportive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQ Da</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Départ anticipé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQ Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQ Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfait sans précision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr1 Fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Départ anticipé (1er relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr1 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (1er relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr1 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (1er relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (1er relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr2 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (2e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr2 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (2e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr2 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (2e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (2e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr3 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (3e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr3 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (3e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr3 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (3e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (3e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr4 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (4e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr4 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (4e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr4 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (4e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (4e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr5 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (5e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr5 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (5e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr5 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (5e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (5e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr6 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (6e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr6 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (6e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr6 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (6e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (6e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr7 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (7e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr7 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (7e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr7 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (7e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (7e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr8 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (8e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr8 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (8e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr8 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (8e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (8e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr9 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (9e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr9 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (9e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr9 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (9e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (9e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr10 MpR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (10e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr10 Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (10e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr10 Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Nage incorrecte (10e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié sans précision (10e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps Limite Dépassé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finale Directe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQ Ai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Arrivée incorrecte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abandon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr1 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (1er relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr2 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (2e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr3 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (3e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr4 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (4e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr5 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (5e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr6 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (6e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr7 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (7e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr8 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (8e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr9 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (9e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQr10 McR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (10e relayeur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSQ 15m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dépassement de la limite des 15m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPR Supp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Épreuve supprimée</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="547">
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Département</t>
+  </si>
+  <si>
+    <t>TOULON WATER-POLO</t>
+  </si>
+  <si>
+    <t>AC CANNES</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>NICE NICAEA WATER-POLO</t>
+  </si>
+  <si>
+    <t>CLUB OMNISPORTS DE VALBONNE</t>
+  </si>
+  <si>
+    <t>AS MONACO NATATION</t>
+  </si>
+  <si>
+    <t>CN DRAGUIGNAN</t>
+  </si>
+  <si>
+    <t>ASPTT NICE</t>
+  </si>
+  <si>
+    <t>CN ANTIBES</t>
+  </si>
+  <si>
+    <t>CN CANNES</t>
+  </si>
+  <si>
+    <t>NICE LA SEMEUSE</t>
+  </si>
+  <si>
+    <t>TOULON VAR NATATION</t>
+  </si>
+  <si>
+    <t>AS CACHALOTS SIX-FOURS</t>
+  </si>
+  <si>
+    <t>AMSL FRÉJUS</t>
+  </si>
+  <si>
+    <t>CN MENTON</t>
+  </si>
+  <si>
+    <t>US ST-TROPEZ</t>
+  </si>
+  <si>
+    <t>CARROS NATATION</t>
+  </si>
+  <si>
+    <t>SAINT-RAPHAEL NATATION</t>
+  </si>
+  <si>
+    <t>AC HYÈRES</t>
+  </si>
+  <si>
+    <t>DAUPHINS GRASSE</t>
+  </si>
+  <si>
+    <t>OLYMPIC NICE NATATION</t>
+  </si>
+  <si>
+    <t>CNS VALLAURIS</t>
+  </si>
+  <si>
+    <t>STADE ST-LAURENT-DU-VAR NAT</t>
+  </si>
+  <si>
+    <t>ASPTT TOULON</t>
+  </si>
+  <si>
+    <t>A.S DRAGUIGNAN NATATION</t>
+  </si>
+  <si>
+    <t>AQUATIC CLUB DE MENTON</t>
+  </si>
+  <si>
+    <t>Poste</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>Délégué fédéral</t>
+  </si>
+  <si>
+    <t>Jury d'appel</t>
+  </si>
+  <si>
+    <t>Juge arbitre</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>Coordonnateur</t>
+  </si>
+  <si>
+    <t>Juge de Nage</t>
+  </si>
+  <si>
+    <t>Juge à l'arrivée</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Chef des virages</t>
+  </si>
+  <si>
+    <t>Juge aux virages</t>
+  </si>
+  <si>
+    <t>Juge aux virages + Bouton poussoir</t>
+  </si>
+  <si>
+    <t>Chronométreur</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Superviseur SdC</t>
+  </si>
+  <si>
+    <t>Gestion extraNat</t>
+  </si>
+  <si>
+    <t>Secrétariat</t>
+  </si>
+  <si>
+    <t>Chambre d'appel</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Médecin</t>
+  </si>
+  <si>
+    <t>Délégué Anti-dopage</t>
+  </si>
+  <si>
+    <t>Chaperon Anti-dopage</t>
+  </si>
+  <si>
+    <t>Ramasseur des fiches</t>
+  </si>
+  <si>
+    <t>Officiel en examen</t>
+  </si>
+  <si>
+    <t>Juge d'arrivée en chef</t>
+  </si>
+  <si>
+    <t>Officiel non affecté</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>Licencié</t>
+  </si>
+  <si>
+    <t>Elève A</t>
+  </si>
+  <si>
+    <t>Elève B</t>
+  </si>
+  <si>
+    <t>Elève C</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Finale A</t>
+  </si>
+  <si>
+    <t>Finale B</t>
+  </si>
+  <si>
+    <t>Finale C</t>
+  </si>
+  <si>
+    <t>Finale D</t>
+  </si>
+  <si>
+    <t>Barrage Finales</t>
+  </si>
+  <si>
+    <t>Finale Jeune</t>
+  </si>
+  <si>
+    <t>Barrage Finale Jeune</t>
+  </si>
+  <si>
+    <t>1/2 Finale (1)</t>
+  </si>
+  <si>
+    <t>1/2 Finale (2)</t>
+  </si>
+  <si>
+    <t>Barrage 1/2 Finales</t>
+  </si>
+  <si>
+    <t>1/4 Finale (1)</t>
+  </si>
+  <si>
+    <t>1/4 Finale (2)</t>
+  </si>
+  <si>
+    <t>1/4 Finale (3)</t>
+  </si>
+  <si>
+    <t>1/4 Finale (4)</t>
+  </si>
+  <si>
+    <t>Barrage 1/4 Finales</t>
+  </si>
+  <si>
+    <t>1/8 Finale (1)</t>
+  </si>
+  <si>
+    <t>1/8 Finale (2)</t>
+  </si>
+  <si>
+    <t>1/8 Finale (3)</t>
+  </si>
+  <si>
+    <t>1/8 Finale (4)</t>
+  </si>
+  <si>
+    <t>1/8 Finale (5)</t>
+  </si>
+  <si>
+    <t>1/8 Finale (6)</t>
+  </si>
+  <si>
+    <t>1/8 Finale (7)</t>
+  </si>
+  <si>
+    <t>1/8 Finale (8)</t>
+  </si>
+  <si>
+    <t>Barrage 1/8 Finales</t>
+  </si>
+  <si>
+    <t>Séries</t>
+  </si>
+  <si>
+    <t>Série rapide</t>
+  </si>
+  <si>
+    <t>Séries lentes</t>
+  </si>
+  <si>
+    <t>Barrage Séries</t>
+  </si>
+  <si>
+    <t>Hors-Concours</t>
+  </si>
+  <si>
+    <t>Inter-région</t>
+  </si>
+  <si>
+    <t>ALSACE</t>
+  </si>
+  <si>
+    <t>NORD-EST</t>
+  </si>
+  <si>
+    <t>AQUITAINE</t>
+  </si>
+  <si>
+    <t>SUD-OUEST</t>
+  </si>
+  <si>
+    <t>AUVERGNE</t>
+  </si>
+  <si>
+    <t>SUD-EST</t>
+  </si>
+  <si>
+    <t>BOURGOGNE</t>
+  </si>
+  <si>
+    <t>BRETAGNE</t>
+  </si>
+  <si>
+    <t>NORD-OUEST</t>
+  </si>
+  <si>
+    <t>CENTRE-VAL DE LOIRE</t>
+  </si>
+  <si>
+    <t>CHAMPAGNE-ARDENNE</t>
+  </si>
+  <si>
+    <t>CORSE</t>
+  </si>
+  <si>
+    <t>CÔTE D'AZUR</t>
+  </si>
+  <si>
+    <t>DAUPHINÉ-SAVOIE</t>
+  </si>
+  <si>
+    <t>FRANCHE-COMTÉ</t>
+  </si>
+  <si>
+    <t>ILE-DE-FRANCE</t>
+  </si>
+  <si>
+    <t>LANGUEDOC-ROUSSILLON</t>
+  </si>
+  <si>
+    <t>LIMOUSIN</t>
+  </si>
+  <si>
+    <t>LORRAINE</t>
+  </si>
+  <si>
+    <t>LYONNAIS</t>
+  </si>
+  <si>
+    <t>NORD-PAS-DE-CALAIS</t>
+  </si>
+  <si>
+    <t>NORMANDIE</t>
+  </si>
+  <si>
+    <t>PAYS DE LA LOIRE</t>
+  </si>
+  <si>
+    <t>PICARDIE</t>
+  </si>
+  <si>
+    <t>POITOU-CHARENTES</t>
+  </si>
+  <si>
+    <t>PROVENCE</t>
+  </si>
+  <si>
+    <t>MIDI-PYRÉNÉES</t>
+  </si>
+  <si>
+    <t>NOUVELLE-CALÉDONIE</t>
+  </si>
+  <si>
+    <t>DOM-TOM</t>
+  </si>
+  <si>
+    <t>GUADELOUPE</t>
+  </si>
+  <si>
+    <t>MARTINIQUE</t>
+  </si>
+  <si>
+    <t>GUYANE</t>
+  </si>
+  <si>
+    <t>LA RÉUNION</t>
+  </si>
+  <si>
+    <t>TAHITI</t>
+  </si>
+  <si>
+    <t>Compétitions Internationales</t>
+  </si>
+  <si>
+    <t>Compétitions Nationales</t>
+  </si>
+  <si>
+    <t>Compétitions Interrégionales</t>
+  </si>
+  <si>
+    <t>Compétitions Régionales</t>
+  </si>
+  <si>
+    <t>Compétitions Départementales</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Jeux Olympiques      </t>
+  </si>
+  <si>
+    <t>Championnats du Monde en grand bassin  </t>
+  </si>
+  <si>
+    <t>Championnats d'Europe en grand bassin   </t>
+  </si>
+  <si>
+    <t>Compétitions Internationales diverses     </t>
+  </si>
+  <si>
+    <t>Championnats de France Elite    </t>
+  </si>
+  <si>
+    <t>Championnats N1 Interclubs     </t>
+  </si>
+  <si>
+    <t>Coupe de France     </t>
+  </si>
+  <si>
+    <t>Compétitions Nationales diverses     </t>
+  </si>
+  <si>
+    <t>Championnats de Nationale 2 (par zones)  </t>
+  </si>
+  <si>
+    <t>Circuit Fédéral de catégories d'âge   </t>
+  </si>
+  <si>
+    <t>Championnats N2 Interclubs     </t>
+  </si>
+  <si>
+    <t>Championnats de Nationale 3 (par zones)  </t>
+  </si>
+  <si>
+    <t>Compétitions Interrégionales diverses     </t>
+  </si>
+  <si>
+    <t>Meeting fédéral du 42401 fond   </t>
+  </si>
+  <si>
+    <t>Championnat Régional Interclubs     </t>
+  </si>
+  <si>
+    <t>Championnats Régionaux (animation)     </t>
+  </si>
+  <si>
+    <t>Natathlon Régional (étapes)     </t>
+  </si>
+  <si>
+    <t>Coupe Interclubs Minimes     </t>
+  </si>
+  <si>
+    <t>Coupe Interclubs Benjamins     </t>
+  </si>
+  <si>
+    <t>Circuit Régional      </t>
+  </si>
+  <si>
+    <t>Compétitions Régionales diverses     </t>
+  </si>
+  <si>
+    <t>Coupe des Régions - Minimes et Cadets </t>
+  </si>
+  <si>
+    <t>Coupe des Départements Benjamins    </t>
+  </si>
+  <si>
+    <t>Trophée National Lucien-Zins     </t>
+  </si>
+  <si>
+    <t>Championnats de France Juniors    </t>
+  </si>
+  <si>
+    <t>Championnats de France Cadets    </t>
+  </si>
+  <si>
+    <t>Championnats de France Minimes    </t>
+  </si>
+  <si>
+    <t>Championnats de France Cadets et Juniors  </t>
+  </si>
+  <si>
+    <t>Coupe des Régions des clubs d'été  </t>
+  </si>
+  <si>
+    <t>Coupe Interclubs Benjamins des clubs d'été  </t>
+  </si>
+  <si>
+    <t>Coupe Interclubs Minimes des clubs d'été  </t>
+  </si>
+  <si>
+    <t>Interclubs Régionaux des clubs d'été   </t>
+  </si>
+  <si>
+    <t>Compétitions Régionales diverses des clubs d'été  </t>
+  </si>
+  <si>
+    <t>Meetings d'animation labellisés : international   </t>
+  </si>
+  <si>
+    <t>Meetings d'animation labellisés : national   </t>
+  </si>
+  <si>
+    <t>Meetings d'animation labellisés : régional   </t>
+  </si>
+  <si>
+    <t>Championnats Départementaux (animation)     </t>
+  </si>
+  <si>
+    <t>Championnat Départemental Interclubs     </t>
+  </si>
+  <si>
+    <t>Circuit Départemental      </t>
+  </si>
+  <si>
+    <t>Meetings d'animation labellisés : départemental   </t>
+  </si>
+  <si>
+    <t>Compétitions Départementales diverses     </t>
+  </si>
+  <si>
+    <t>Championnats du Monde des Maîtres   </t>
+  </si>
+  <si>
+    <t>Championnats d'Europe des Maîtres    </t>
+  </si>
+  <si>
+    <t>Meetings Internationaux des Maîtres labellisés   </t>
+  </si>
+  <si>
+    <t>Compétitions Internationales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t>Championnats de France d'été des Maîtres (50m) </t>
+  </si>
+  <si>
+    <t>Meeting National Interclubs des maîtres   </t>
+  </si>
+  <si>
+    <t>Meeting National des Maîtres labellisés (FFN)  </t>
+  </si>
+  <si>
+    <t>Compétitions Nationales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t>Championnats Régionaux des Maîtres    </t>
+  </si>
+  <si>
+    <t>Meeting Régional Interclubs des maîtres   </t>
+  </si>
+  <si>
+    <t>Meeting Régional des Maîtres labellisé (FFN)  </t>
+  </si>
+  <si>
+    <t>Compétitions Régionales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t>Championnats Départementaux des Maîtres    </t>
+  </si>
+  <si>
+    <t>Interclubs Départemental des Maîtres    </t>
+  </si>
+  <si>
+    <t>Meeting Départemental des Maîtres labellisé (FFN)  </t>
+  </si>
+  <si>
+    <t>Compétitions Départementales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t>Natathlon Départemental (étapes)     </t>
+  </si>
+  <si>
+    <t>Championnats du Monde en petit bassin  </t>
+  </si>
+  <si>
+    <t>Championnats d'Europe en petit bassin   </t>
+  </si>
+  <si>
+    <t>Championnats d'Europe Juniors     </t>
+  </si>
+  <si>
+    <t>Meetings Internationaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t>Championnats de France en petit bassin  </t>
+  </si>
+  <si>
+    <t>Meetings Nationaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t>Championnat régional d'été (référence nationale)   </t>
+  </si>
+  <si>
+    <t>Championnats de France des Jeunes   </t>
+  </si>
+  <si>
+    <t>Championnats de France N2    </t>
+  </si>
+  <si>
+    <t>Championnats de France UNSS/FFN    </t>
+  </si>
+  <si>
+    <t>Coupe Régionale Interclubs 11-13 ans   </t>
+  </si>
+  <si>
+    <t>Coupe Départementale Interclubs 11-13 ans   </t>
+  </si>
+  <si>
+    <t>Meeting Juniors des clubs d'été   </t>
+  </si>
+  <si>
+    <t>Championnats du Monde Juniors    </t>
+  </si>
+  <si>
+    <t>Compétitions Internationales diverses par équipe   </t>
+  </si>
+  <si>
+    <t>Compétitions Nationales diverses par équipe   </t>
+  </si>
+  <si>
+    <t>Compétitions Interrégionales diverses par équipe   </t>
+  </si>
+  <si>
+    <t>Compétitions Régionales diverses par équipe   </t>
+  </si>
+  <si>
+    <t>Compétitions Départementales diverses par équipe   </t>
+  </si>
+  <si>
+    <t>Compétitions Régionales diverses des clubs d'été par équipe</t>
+  </si>
+  <si>
+    <t>Meetings Régionaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t>Compétitions Départementales diverses des clubs d'été  </t>
+  </si>
+  <si>
+    <t>Compétitions Départementales diverses des clubs d'été par équipe</t>
+  </si>
+  <si>
+    <t>Championnats de France Jeunes en petit bassin </t>
+  </si>
+  <si>
+    <t>Championnats Interrégionaux (réf. nat.)    </t>
+  </si>
+  <si>
+    <t>Meetings Départementaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t>Meeting du circuit fédéral des Maîtres  </t>
+  </si>
+  <si>
+    <t>Meeting International d'hiver FFN    </t>
+  </si>
+  <si>
+    <t>Compétitions Interrégionales des maîtres diverses   </t>
+  </si>
+  <si>
+    <t>Championnats de France d'hiver des Maîtres (25m) </t>
+  </si>
+  <si>
+    <t>Championnats nationaux 16 ans et plus  </t>
+  </si>
+  <si>
+    <t>Meeting International labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t>Meeting National labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t>Championnats Interrégionaux en petit bassin   </t>
+  </si>
+  <si>
+    <t>Championnats de nationale 2 d'hiver   </t>
+  </si>
+  <si>
+    <t>Championnats de nationale 2 d'été   </t>
+  </si>
+  <si>
+    <t>Championnat Régional d'hiver (25m)    </t>
+  </si>
+  <si>
+    <t>Championnat régional d'été (50m)    </t>
+  </si>
+  <si>
+    <t>Meeting Régional labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t>Interclubs Régional Benjamins     </t>
+  </si>
+  <si>
+    <t>Interclubs Régional Minimes     </t>
+  </si>
+  <si>
+    <t>Championnat Départemental d'hiver en petit bassin  </t>
+  </si>
+  <si>
+    <t>Championnat Départemental d'été     </t>
+  </si>
+  <si>
+    <t>Interclubs Départemental Benjamins     </t>
+  </si>
+  <si>
+    <t>Interclubs Départemental Minimes     </t>
+  </si>
+  <si>
+    <t>Meeting Départemental labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t>Coupe Régionale Interclubs Minimes et moins  </t>
+  </si>
+  <si>
+    <t>Coupe Régionale Interclubs Toutes catégories   </t>
+  </si>
+  <si>
+    <t>Championnat Régional des Maîtres (25m)   </t>
+  </si>
+  <si>
+    <t>Championnat Régional des Maîtres (50m)   </t>
+  </si>
+  <si>
+    <t>Championnat Départemental des Maîtres (25m)   </t>
+  </si>
+  <si>
+    <t>Championnat Départemental des Maîtres (50m)   </t>
+  </si>
+  <si>
+    <t>Trophée Interrégional Lucien-Zins     </t>
+  </si>
+  <si>
+    <t>Trophée Régional Lucien-Zins     </t>
+  </si>
+  <si>
+    <t>Interclubs Régional Benjamins (plot 1)</t>
+  </si>
+  <si>
+    <t>Finale Régionale Natathlon 10 ans et moins</t>
+  </si>
+  <si>
+    <t>Finale Régionale Natathlon 11 ans</t>
+  </si>
+  <si>
+    <t>Compétitions Régionales diverses</t>
+  </si>
+  <si>
+    <t>Trophée Régional Lucien-Zins</t>
+  </si>
+  <si>
+    <t>Autre.       </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Nage</t>
+  </si>
+  <si>
+    <t>25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>200 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>400 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>600 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>800 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>1000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>1500 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>3000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>5000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>25 Dos Dames</t>
+  </si>
+  <si>
+    <t>50 Dos Dames</t>
+  </si>
+  <si>
+    <t>100 Dos Dames</t>
+  </si>
+  <si>
+    <t>200 Dos Dames</t>
+  </si>
+  <si>
+    <t>25 Brasse Dames</t>
+  </si>
+  <si>
+    <t>50 Brasse Dames</t>
+  </si>
+  <si>
+    <t>100 Brasse Dames</t>
+  </si>
+  <si>
+    <t>200 Brasse Dames</t>
+  </si>
+  <si>
+    <t>25 Papillon Dames</t>
+  </si>
+  <si>
+    <t>50 Papillon Dames</t>
+  </si>
+  <si>
+    <t>100 Papillon Dames</t>
+  </si>
+  <si>
+    <t>200 Papillon Dames</t>
+  </si>
+  <si>
+    <t>100 4 Nages Dames</t>
+  </si>
+  <si>
+    <t>200 4 Nages Dames</t>
+  </si>
+  <si>
+    <t>300 4 Nages Dames</t>
+  </si>
+  <si>
+    <t>400 4 Nages Dames</t>
+  </si>
+  <si>
+    <t>2x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>2x50 Dos Dames</t>
+  </si>
+  <si>
+    <t>2x50 Brasse Dames</t>
+  </si>
+  <si>
+    <t>2x50 Papillon Dames</t>
+  </si>
+  <si>
+    <t>4x25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>4x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>4x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>4x200 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>4x25 Dos Dames</t>
+  </si>
+  <si>
+    <t>4x50 Dos Dames</t>
+  </si>
+  <si>
+    <t>4x25 Brasse Dames</t>
+  </si>
+  <si>
+    <t>4x50 Brasse Dames</t>
+  </si>
+  <si>
+    <t>4x25 Papillon Dames</t>
+  </si>
+  <si>
+    <t>4x50 Papillon Dames</t>
+  </si>
+  <si>
+    <t>4x25 4 Nages Dames</t>
+  </si>
+  <si>
+    <t>4x50 4 Nages Dames</t>
+  </si>
+  <si>
+    <t>4x100 4 Nages Dames</t>
+  </si>
+  <si>
+    <t>4x100 4 Nages Ind. Dames</t>
+  </si>
+  <si>
+    <t>6x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>8x25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>8x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>8x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>8x50 4 Nages Dames</t>
+  </si>
+  <si>
+    <t>10x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>10x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>12x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t>25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>200 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>400 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>600 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>800 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>1000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>1500 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>3000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>5000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>25 Dos Messieurs</t>
+  </si>
+  <si>
+    <t>50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t>100 Dos Messieurs</t>
+  </si>
+  <si>
+    <t>200 Dos Messieurs</t>
+  </si>
+  <si>
+    <t>25 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t>50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t>100 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t>200 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t>25 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t>50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t>100 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t>200 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t>100 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t>200 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t>300 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t>400 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t>2x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>2x50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t>2x50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t>2x50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t>4x25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>4x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>4x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>4x200 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>4x25 Dos Messieurs</t>
+  </si>
+  <si>
+    <t>4x50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t>4x25 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t>4x50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t>4x25 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t>4x50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t>4x25 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t>4x50 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t>4x100 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t>4x100 4 Nages Ind. Messieurs</t>
+  </si>
+  <si>
+    <t>6x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>8x25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>8x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>8x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>8x50 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t>10x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>10x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>12x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t>25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>200 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>400 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>600 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>800 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>1000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>1500 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>3000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>5000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>25 Dos Mixtes</t>
+  </si>
+  <si>
+    <t>50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t>100 Dos Mixtes</t>
+  </si>
+  <si>
+    <t>200 Dos Mixtes</t>
+  </si>
+  <si>
+    <t>25 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t>50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t>100 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t>200 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t>25 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t>50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t>100 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t>200 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t>100 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t>200 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t>300 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t>400 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t>2x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>2x50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t>2x50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t>2x50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t>4x25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>4x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>4x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>4x200 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>4x25 Dos Mixtes</t>
+  </si>
+  <si>
+    <t>4x50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t>4x25 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t>4x50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t>4x25 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t>4x50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t>4x25 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t>4x50 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t>4x100 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t>4x100 4 Nages Ind. Mixtes</t>
+  </si>
+  <si>
+    <t>6x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>8x25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>8x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>8x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>8x50 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t>10x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>10x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>12x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Libellé</t>
+  </si>
+  <si>
+    <t>DNS exc</t>
+  </si>
+  <si>
+    <t>Forfait excusé (cerficat médical)</t>
+  </si>
+  <si>
+    <t>DNS dec</t>
+  </si>
+  <si>
+    <t>Forfait déclaré</t>
+  </si>
+  <si>
+    <t>DSQ MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais</t>
+  </si>
+  <si>
+    <t>DNS Nd</t>
+  </si>
+  <si>
+    <t>Forfait non déclaré</t>
+  </si>
+  <si>
+    <t>DSQ CnS</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Conduite non Sportive</t>
+  </si>
+  <si>
+    <t>DSQ Da</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Départ anticipé</t>
+  </si>
+  <si>
+    <t>DSQ Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage incorrect</t>
+  </si>
+  <si>
+    <t>DSQ Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte</t>
+  </si>
+  <si>
+    <t>DSQ</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>Forfait sans précision</t>
+  </si>
+  <si>
+    <t>DSQr1 Fd</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Départ anticipé (1er relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr1 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (1er relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr1 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (1er relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr1</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (1er relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr2 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (2e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr2 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (2e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr2 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (2e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr2</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (2e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr3 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (3e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr3 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (3e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr3 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (3e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr3</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (3e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr4 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (4e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr4 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (4e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr4 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (4e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr4</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (4e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr5 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (5e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr5 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (5e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr5 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (5e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr5</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (5e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr6 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (6e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr6 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (6e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr6 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (6e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr6</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (6e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr7 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (7e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr7 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (7e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr7 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (7e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr7</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (7e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr8 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (8e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr8 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (8e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr8 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (8e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr8</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (8e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr9 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (9e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr9 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (9e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr9 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (9e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr9</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (9e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr10 MpR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise prise de Relais (10e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr10 Vi</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Virage ou arrivée incorrect (10e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr10 Ni</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Nage incorrecte (10e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr10</t>
+  </si>
+  <si>
+    <t>Disqualifié sans précision (10e relayeur)</t>
+  </si>
+  <si>
+    <t>TLD</t>
+  </si>
+  <si>
+    <t>Temps Limite Dépassé</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Finale Directe</t>
+  </si>
+  <si>
+    <t>DSQ Ai</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Arrivée incorrecte</t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>Abandon</t>
+  </si>
+  <si>
+    <t>DSQr1 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (1er relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr2 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (2e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr3 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (3e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr4 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (4e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr5 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (5e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr6 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (6e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr7 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (7e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr8 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (8e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr9 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (9e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQr10 McR</t>
+  </si>
+  <si>
+    <t>Disqualifié pour Mauvaise composition de Relais (10e relayeur)</t>
+  </si>
+  <si>
+    <t>DSQ 15m</t>
+  </si>
+  <si>
+    <t>Dépassement de la limite des 15m</t>
+  </si>
+  <si>
+    <t>EPR Supp</t>
+  </si>
+  <si>
+    <t>Épreuve supprimée</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1676,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="5">
@@ -1813,10 +1822,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2123,15 +2132,14 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2380,8 +2388,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2501,9 +2508,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2771,9 +2777,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,9 +3135,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,17 +3202,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.0816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,7 +4517,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>246</v>
@@ -4524,10 +4528,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>173</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>227</v>
+        <v>157</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>4</v>
@@ -4535,12 +4539,45 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C121" s="0" t="n">
+      <c r="B124" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4568,15 +4605,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4623,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,7 +4639,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +4655,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,7 +4663,7 @@
         <v>250</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,7 +4671,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,7 +4695,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4664,7 +4703,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4711,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4719,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4735,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,7 +4743,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,7 +4751,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,7 +4759,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,7 +4767,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,7 +4775,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,7 +4783,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4791,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,7 +4799,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +4807,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4815,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +4823,7 @@
         <v>252</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,7 +4831,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,7 +4839,7 @@
         <v>283</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,7 +4847,7 @@
         <v>289</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,7 +4855,7 @@
         <v>295</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +4863,7 @@
         <v>301</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,7 +4871,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,7 +4879,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,7 +4887,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +4895,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4903,7 @@
         <v>254</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,7 +4911,7 @@
         <v>111</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,7 +4919,7 @@
         <v>256</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,7 +4927,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +4935,7 @@
         <v>258</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,7 +4943,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,7 +4951,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,7 +4959,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +4967,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +4975,7 @@
         <v>271</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +4991,7 @@
         <v>265</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +4999,7 @@
         <v>243</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +5007,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +5015,7 @@
         <v>277</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +5023,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,7 +5031,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,7 +5039,7 @@
         <v>305</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,7 +5047,7 @@
         <v>150</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,7 +5055,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5063,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5071,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5079,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5087,7 @@
         <v>249</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,7 +5095,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5103,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5111,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5119,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,7 +5127,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +5135,7 @@
         <v>160</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +5143,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5151,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5159,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5167,7 @@
         <v>170</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +5175,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +5183,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,7 +5191,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +5199,7 @@
         <v>180</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5207,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5215,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +5223,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +5231,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +5239,7 @@
         <v>91</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,7 +5247,7 @@
         <v>251</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5255,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5263,7 @@
         <v>281</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,7 +5271,7 @@
         <v>287</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,7 +5279,7 @@
         <v>293</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,7 +5287,7 @@
         <v>299</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,7 +5295,7 @@
         <v>58</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,7 +5303,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5272,7 +5311,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5280,7 +5319,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +5327,7 @@
         <v>253</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,7 +5335,7 @@
         <v>161</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +5343,7 @@
         <v>255</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,7 +5351,7 @@
         <v>171</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5320,7 +5359,7 @@
         <v>257</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,7 +5367,7 @@
         <v>181</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,7 +5375,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +5383,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,7 +5391,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,7 +5399,7 @@
         <v>273</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,7 +5407,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +5415,7 @@
         <v>266</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +5423,7 @@
         <v>244</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +5431,7 @@
         <v>64</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5439,7 @@
         <v>275</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5447,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,7 +5455,7 @@
         <v>95</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,7 +5463,7 @@
         <v>304</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +5471,7 @@
         <v>200</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,7 +5479,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,7 +5487,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,7 +5495,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +5503,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +5511,7 @@
         <v>262</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,7 +5519,7 @@
         <v>205</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5527,7 @@
         <v>207</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +5535,7 @@
         <v>206</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,7 +5543,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +5551,7 @@
         <v>215</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5559,7 @@
         <v>210</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,7 +5567,7 @@
         <v>211</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,7 +5575,7 @@
         <v>212</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5583,7 @@
         <v>213</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5591,7 @@
         <v>220</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,7 +5599,7 @@
         <v>221</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,7 +5607,7 @@
         <v>222</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,7 +5615,7 @@
         <v>223</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +5623,7 @@
         <v>230</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5592,7 +5631,7 @@
         <v>231</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,7 +5639,7 @@
         <v>232</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,7 +5647,7 @@
         <v>233</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,7 +5655,7 @@
         <v>240</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,7 +5663,7 @@
         <v>241</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,7 +5671,7 @@
         <v>263</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,7 +5679,7 @@
         <v>242</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,7 +5687,7 @@
         <v>285</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +5695,7 @@
         <v>291</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +5703,7 @@
         <v>297</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +5711,7 @@
         <v>303</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,7 +5719,7 @@
         <v>86</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +5727,7 @@
         <v>87</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5735,7 @@
         <v>88</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +5743,7 @@
         <v>34</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5751,7 @@
         <v>259</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +5759,7 @@
         <v>246</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +5767,7 @@
         <v>260</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,7 +5775,7 @@
         <v>247</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +5783,7 @@
         <v>261</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,7 +5791,7 @@
         <v>248</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +5799,7 @@
         <v>38</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,7 +5807,7 @@
         <v>37</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,7 +5815,7 @@
         <v>36</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,7 +5823,7 @@
         <v>269</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,7 +5831,7 @@
         <v>35</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5800,7 +5839,7 @@
         <v>267</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,7 +5847,7 @@
         <v>245</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5816,7 +5855,7 @@
         <v>214</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +5863,7 @@
         <v>279</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +5871,7 @@
         <v>84</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5879,7 @@
         <v>85</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,7 +5887,7 @@
         <v>264</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5875,18 +5914,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5894,10 +5935,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,10 +5946,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5916,10 +5957,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5927,10 +5968,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5938,10 +5979,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,10 +5990,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,10 +6001,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,10 +6012,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5982,10 +6023,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,10 +6034,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6004,10 +6045,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,10 +6056,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6026,10 +6067,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6037,10 +6078,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,10 +6089,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,10 +6100,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6070,10 +6111,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6081,10 +6122,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6092,10 +6133,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,10 +6144,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6114,10 +6155,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,10 +6166,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,10 +6177,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,10 +6188,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,10 +6199,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,10 +6210,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,10 +6221,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,10 +6232,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,10 +6243,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,10 +6254,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,10 +6265,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,10 +6276,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,10 +6287,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,10 +6298,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6268,10 +6309,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,10 +6320,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,10 +6331,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,10 +6342,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,10 +6353,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,10 +6364,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,10 +6375,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,10 +6386,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6356,10 +6397,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6367,10 +6408,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,10 +6419,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,10 +6430,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6400,10 +6441,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,10 +6452,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,10 +6463,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6433,10 +6474,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,10 +6485,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6455,10 +6496,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,10 +6507,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,10 +6518,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6488,10 +6529,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,10 +6540,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6510,10 +6551,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6521,10 +6562,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,10 +6573,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,10 +6584,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6554,10 +6595,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,10 +6606,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,10 +6617,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,10 +6628,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,10 +6639,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6609,10 +6650,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1816,16 +1816,15 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1951,7 +1950,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>635</v>
+        <v>1460</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -2083,7 +2082,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>1460</v>
+        <v>635</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>26</v>
@@ -2138,8 +2137,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2388,7 +2387,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2509,7 +2508,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,8 +2777,9 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,7 +3136,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3204,16 +3207,16 @@
   </sheetPr>
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.5408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4605,9 +4608,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5914,9 +5917,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="551">
   <si>
     <t>Index</t>
   </si>
@@ -411,6 +411,15 @@
     <t>TAHITI</t>
   </si>
   <si>
+    <t>Individuels</t>
+  </si>
+  <si>
+    <t>Relais</t>
+  </si>
+  <si>
+    <t>Equipes</t>
+  </si>
+  <si>
     <t>Compétitions Internationales</t>
   </si>
   <si>
@@ -778,6 +787,9 @@
   </si>
   <si>
     <t>Trophée Régional Lucien-Zins</t>
+  </si>
+  <si>
+    <t>Meeting International (circuit FFN - Golden tour)</t>
   </si>
   <si>
     <t>Autre.       </t>
@@ -1675,9 +1687,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1756,7 +1769,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1782,6 +1795,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1816,15 +1833,16 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2137,8 +2155,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2387,7 +2406,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2508,8 +2528,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,9 +2797,9 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,17 +3148,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3148,13 +3169,31 @@
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,7 +3201,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,7 +3218,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,7 +3235,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,7 +3252,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3207,16 +3282,16 @@
   </sheetPr>
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C120" activeCellId="0" sqref="C120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B124" activeCellId="0" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.5408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -3235,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -3246,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -3257,7 +3332,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -3268,7 +3343,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -3279,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -3290,7 +3365,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -3301,7 +3376,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -3312,7 +3387,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -3323,7 +3398,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -3334,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -3345,7 +3420,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -3356,7 +3431,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -3367,7 +3442,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -3378,19 +3453,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -3401,7 +3476,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4</v>
@@ -3412,7 +3487,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
@@ -3423,7 +3498,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -3434,7 +3509,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
@@ -3445,7 +3520,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
@@ -3456,7 +3531,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
@@ -3467,7 +3542,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -3478,7 +3553,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5</v>
@@ -3489,7 +3564,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -3500,7 +3575,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2</v>
@@ -3511,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2</v>
@@ -3522,7 +3597,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -3533,7 +3608,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2</v>
@@ -3544,7 +3619,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
@@ -3555,7 +3630,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>4</v>
@@ -3566,7 +3641,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>4</v>
@@ -3577,7 +3652,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>4</v>
@@ -3588,7 +3663,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>4</v>
@@ -3599,7 +3674,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -3610,7 +3685,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
@@ -3621,7 +3696,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>4</v>
@@ -3632,7 +3707,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5</v>
@@ -3643,7 +3718,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>5</v>
@@ -3654,7 +3729,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>5</v>
@@ -3665,7 +3740,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>5</v>
@@ -3676,7 +3751,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>5</v>
@@ -3687,7 +3762,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -3698,7 +3773,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
@@ -3709,7 +3784,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
@@ -3720,7 +3795,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
@@ -3731,7 +3806,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
@@ -3742,7 +3817,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -3753,7 +3828,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
@@ -3764,7 +3839,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
@@ -3775,7 +3850,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>4</v>
@@ -3786,7 +3861,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>4</v>
@@ -3797,7 +3872,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>4</v>
@@ -3808,7 +3883,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>4</v>
@@ -3819,7 +3894,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
@@ -3830,7 +3905,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>5</v>
@@ -3841,7 +3916,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>5</v>
@@ -3852,7 +3927,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>5</v>
@@ -3863,7 +3938,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
@@ -3874,7 +3949,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
@@ -3885,7 +3960,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
@@ -3896,7 +3971,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -3907,7 +3982,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1</v>
@@ -3918,7 +3993,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2</v>
@@ -3929,7 +4004,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2</v>
@@ -3940,7 +4015,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>4</v>
@@ -3951,7 +4026,7 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2</v>
@@ -3962,7 +4037,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3</v>
@@ -3973,7 +4048,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2</v>
@@ -3984,7 +4059,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>4</v>
@@ -3995,7 +4070,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>5</v>
@@ -4006,7 +4081,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2</v>
@@ -4017,7 +4092,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
@@ -4028,7 +4103,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
@@ -4039,7 +4114,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2</v>
@@ -4050,7 +4125,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>3</v>
@@ -4061,7 +4136,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>4</v>
@@ -4072,7 +4147,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>5</v>
@@ -4083,7 +4158,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
@@ -4094,7 +4169,7 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>4</v>
@@ -4105,7 +4180,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>5</v>
@@ -4116,7 +4191,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>5</v>
@@ -4127,7 +4202,7 @@
         <v>93</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2</v>
@@ -4138,7 +4213,7 @@
         <v>94</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>4</v>
@@ -4149,7 +4224,7 @@
         <v>95</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4</v>
@@ -4160,7 +4235,7 @@
         <v>96</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>3</v>
@@ -4171,7 +4246,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>5</v>
@@ -4182,7 +4257,7 @@
         <v>98</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -4193,7 +4268,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>1</v>
@@ -4204,7 +4279,7 @@
         <v>100</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>3</v>
@@ -4215,7 +4290,7 @@
         <v>101</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>4</v>
@@ -4226,7 +4301,7 @@
         <v>102</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>4</v>
@@ -4237,7 +4312,7 @@
         <v>103</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2</v>
@@ -4248,7 +4323,7 @@
         <v>104</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2</v>
@@ -4259,7 +4334,7 @@
         <v>105</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>1</v>
@@ -4270,7 +4345,7 @@
         <v>106</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
@@ -4281,7 +4356,7 @@
         <v>107</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3</v>
@@ -4292,7 +4367,7 @@
         <v>108</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3</v>
@@ -4303,7 +4378,7 @@
         <v>109</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>3</v>
@@ -4314,7 +4389,7 @@
         <v>110</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>4</v>
@@ -4325,7 +4400,7 @@
         <v>111</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>4</v>
@@ -4336,7 +4411,7 @@
         <v>112</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>4</v>
@@ -4347,7 +4422,7 @@
         <v>113</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>4</v>
@@ -4358,7 +4433,7 @@
         <v>114</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>4</v>
@@ -4369,7 +4444,7 @@
         <v>115</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>5</v>
@@ -4380,7 +4455,7 @@
         <v>116</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>5</v>
@@ -4391,7 +4466,7 @@
         <v>117</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>5</v>
@@ -4402,7 +4477,7 @@
         <v>118</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>5</v>
@@ -4413,7 +4488,7 @@
         <v>119</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>5</v>
@@ -4424,7 +4499,7 @@
         <v>120</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>4</v>
@@ -4435,7 +4510,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>4</v>
@@ -4446,7 +4521,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>4</v>
@@ -4457,7 +4532,7 @@
         <v>123</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>4</v>
@@ -4468,7 +4543,7 @@
         <v>124</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>5</v>
@@ -4479,7 +4554,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>5</v>
@@ -4490,7 +4565,7 @@
         <v>126</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>3</v>
@@ -4501,7 +4576,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>4</v>
@@ -4511,8 +4586,8 @@
       <c r="A118" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>245</v>
+      <c r="B118" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>4</v>
@@ -4522,8 +4597,8 @@
       <c r="A119" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>246</v>
+      <c r="B119" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>4</v>
@@ -4533,8 +4608,8 @@
       <c r="A120" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>247</v>
+      <c r="B120" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>4</v>
@@ -4544,8 +4619,8 @@
       <c r="A121" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>248</v>
+      <c r="B121" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>4</v>
@@ -4555,8 +4630,8 @@
       <c r="A122" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>249</v>
+      <c r="B122" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>4</v>
@@ -4566,11 +4641,11 @@
       <c r="A123" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>227</v>
+      <c r="B123" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>5</v>
@@ -4608,1289 +4683,1289 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>250</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
+        <v>110</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
+        <v>120</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
+        <v>130</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
+        <v>41</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
+        <v>252</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
+        <v>283</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
+        <v>289</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="n">
+        <v>295</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="n">
+        <v>301</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="n">
+        <v>254</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="n">
+        <v>111</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="n">
+        <v>256</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="n">
+        <v>121</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="n">
+        <v>258</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="n">
+        <v>131</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="n">
+        <v>271</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="n">
+        <v>265</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="n">
+        <v>243</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="n">
+        <v>277</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="n">
+        <v>305</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="n">
+        <v>249</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="10" t="n">
+        <v>180</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="n">
+        <v>81</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="n">
+        <v>82</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="10" t="n">
+        <v>91</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="10" t="n">
         <v>251</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="B80" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="n">
+        <v>281</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="10" t="n">
+        <v>287</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="10" t="n">
+        <v>293</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="n">
+        <v>299</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="n">
+        <v>97</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="10" t="n">
+        <v>93</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="n">
         <v>253</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="B90" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10" t="n">
+        <v>161</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="10" t="n">
         <v>255</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B92" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="n">
+        <v>171</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10" t="n">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>250</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="B94" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10" t="n">
+        <v>181</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10" t="n">
+        <v>98</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10" t="n">
+        <v>273</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="10" t="n">
+        <v>266</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="10" t="n">
+        <v>244</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="10" t="n">
+        <v>275</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="10" t="n">
+        <v>59</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="10" t="n">
+        <v>304</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="10" t="n">
+        <v>200</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="10" t="n">
+        <v>201</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="10" t="n">
+        <v>202</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="10" t="n">
+        <v>203</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="10" t="n">
+        <v>204</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="10" t="n">
+        <v>262</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="10" t="n">
+        <v>205</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="10" t="n">
+        <v>207</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="10" t="n">
+        <v>206</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="10" t="n">
+        <v>216</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="10" t="n">
+        <v>215</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="10" t="n">
+        <v>211</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="10" t="n">
+        <v>212</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="10" t="n">
+        <v>213</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="10" t="n">
+        <v>220</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="10" t="n">
+        <v>221</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="10" t="n">
+        <v>222</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="10" t="n">
+        <v>223</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="10" t="n">
+        <v>230</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="10" t="n">
+        <v>231</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="10" t="n">
+        <v>232</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="10" t="n">
+        <v>233</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="10" t="n">
+        <v>240</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="10" t="n">
+        <v>241</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="10" t="n">
+        <v>263</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="10" t="n">
+        <v>242</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="10" t="n">
+        <v>285</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="10" t="n">
+        <v>291</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="10" t="n">
+        <v>297</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="10" t="n">
+        <v>303</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="10" t="n">
+        <v>87</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="10" t="n">
+        <v>88</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="10" t="n">
         <v>259</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="B143" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="10" t="n">
+        <v>246</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="10" t="n">
         <v>260</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B145" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="10" t="n">
+        <v>247</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="10" t="n">
         <v>261</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
-        <v>110</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="B147" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="10" t="n">
+        <v>248</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="10" t="n">
+        <v>269</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="10" t="n">
+        <v>267</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="10" t="n">
+        <v>245</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="10" t="n">
+        <v>214</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="10" t="n">
+        <v>279</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="10" t="n">
+        <v>85</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="10" t="n">
         <v>264</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
-        <v>120</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
-        <v>130</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
-        <v>31</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
-        <v>32</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
-        <v>33</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
-        <v>41</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
-        <v>252</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
-        <v>42</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
-        <v>283</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
-        <v>289</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
-        <v>295</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
-        <v>301</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
-        <v>47</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
-        <v>44</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
-        <v>254</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
-        <v>111</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
-        <v>256</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
-        <v>121</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
-        <v>258</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
-        <v>131</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
-        <v>48</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
-        <v>46</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
-        <v>271</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
-        <v>49</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
-        <v>265</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
-        <v>243</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
-        <v>14</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
-        <v>277</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
-        <v>45</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
-        <v>305</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
-        <v>150</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="n">
-        <v>51</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
-        <v>52</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
-        <v>53</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
-        <v>54</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
-        <v>249</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
-        <v>57</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
-        <v>56</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="n">
-        <v>66</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="n">
-        <v>65</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="n">
-        <v>160</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="n">
-        <v>61</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="n">
-        <v>62</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="n">
-        <v>63</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="n">
-        <v>170</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="n">
-        <v>71</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="n">
-        <v>72</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="n">
-        <v>73</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="n">
-        <v>180</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9" t="n">
-        <v>81</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="n">
-        <v>82</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="n">
-        <v>83</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="n">
-        <v>90</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="n">
-        <v>91</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="n">
-        <v>251</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="n">
-        <v>92</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="n">
-        <v>281</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="n">
-        <v>287</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="n">
-        <v>293</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="n">
-        <v>299</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9" t="n">
-        <v>97</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="n">
-        <v>93</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="n">
-        <v>94</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="n">
-        <v>253</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="n">
-        <v>161</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="n">
-        <v>255</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="n">
-        <v>171</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="n">
-        <v>257</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="n">
-        <v>181</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="n">
-        <v>89</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="n">
-        <v>98</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="n">
-        <v>273</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="n">
-        <v>266</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="n">
-        <v>244</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="n">
-        <v>64</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="n">
-        <v>275</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="n">
-        <v>59</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="n">
-        <v>95</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="n">
-        <v>304</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="n">
-        <v>201</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="n">
-        <v>202</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="n">
-        <v>203</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="n">
-        <v>204</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="n">
-        <v>262</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="n">
-        <v>205</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="n">
-        <v>207</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="n">
-        <v>206</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="n">
-        <v>216</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="n">
-        <v>215</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="n">
-        <v>210</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="n">
-        <v>211</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="n">
-        <v>212</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="n">
-        <v>213</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="n">
-        <v>220</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="n">
-        <v>221</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="n">
-        <v>222</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="n">
-        <v>223</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="n">
-        <v>230</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="n">
-        <v>231</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9" t="n">
-        <v>232</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="n">
-        <v>233</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="n">
-        <v>240</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="n">
-        <v>241</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="n">
-        <v>263</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="n">
-        <v>242</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9" t="n">
-        <v>285</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="n">
-        <v>291</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9" t="n">
-        <v>297</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="n">
-        <v>303</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9" t="n">
-        <v>86</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9" t="n">
-        <v>87</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9" t="n">
-        <v>88</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="n">
-        <v>259</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="n">
-        <v>246</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="n">
-        <v>260</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="n">
-        <v>247</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="n">
-        <v>261</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="n">
-        <v>248</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9" t="n">
-        <v>38</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="n">
-        <v>37</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9" t="n">
-        <v>36</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9" t="n">
-        <v>269</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="9" t="n">
-        <v>267</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9" t="n">
-        <v>245</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9" t="n">
-        <v>214</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9" t="n">
-        <v>279</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="n">
-        <v>84</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9" t="n">
-        <v>85</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="9" t="n">
-        <v>264</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>411</v>
+      <c r="B160" s="10" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5917,746 +5992,746 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>414</v>
+      <c r="A1" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>416</v>
+      <c r="B2" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>418</v>
+      <c r="B3" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>420</v>
+      <c r="B4" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>422</v>
+      <c r="B5" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>424</v>
+      <c r="B6" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>426</v>
+      <c r="B7" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>428</v>
+      <c r="B8" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>430</v>
+      <c r="B9" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>432</v>
+      <c r="B10" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>434</v>
+      <c r="B11" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>436</v>
+      <c r="B12" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>438</v>
+      <c r="B13" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>440</v>
+      <c r="B14" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>442</v>
+      <c r="B15" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>444</v>
+      <c r="B16" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>446</v>
+      <c r="B17" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>448</v>
+      <c r="B18" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>450</v>
+      <c r="B19" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>452</v>
+      <c r="B20" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>454</v>
+      <c r="B21" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>456</v>
+      <c r="B22" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>458</v>
+      <c r="B23" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>460</v>
+      <c r="B24" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>462</v>
+      <c r="B25" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>464</v>
+      <c r="B26" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>466</v>
+      <c r="B27" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>468</v>
+      <c r="B28" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>470</v>
+      <c r="B29" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>472</v>
+      <c r="B30" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>474</v>
+      <c r="B31" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>476</v>
+      <c r="B32" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>478</v>
+      <c r="B33" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="n">
+      <c r="A34" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>480</v>
+      <c r="B34" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>482</v>
+      <c r="B35" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>484</v>
+      <c r="B36" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>486</v>
+      <c r="B37" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="n">
+      <c r="A38" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>488</v>
+      <c r="B38" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="n">
+      <c r="A39" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>490</v>
+      <c r="B39" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="n">
+      <c r="A40" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>492</v>
+      <c r="B40" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9" t="n">
+      <c r="A41" s="10" t="n">
         <v>41</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>494</v>
+      <c r="B41" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9" t="n">
+      <c r="A42" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>496</v>
+      <c r="B42" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="n">
+      <c r="A43" s="10" t="n">
         <v>43</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>498</v>
+      <c r="B43" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="n">
+      <c r="A44" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>500</v>
+      <c r="B44" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="n">
+      <c r="A45" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>502</v>
+      <c r="B45" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="n">
+      <c r="A46" s="10" t="n">
         <v>46</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>504</v>
+      <c r="B46" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="A47" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>506</v>
+      <c r="B47" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+      <c r="A48" s="10" t="n">
         <v>48</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>508</v>
+      <c r="B48" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+      <c r="A49" s="10" t="n">
         <v>49</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>510</v>
+      <c r="B49" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="n">
+      <c r="A50" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>512</v>
+      <c r="B50" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9" t="n">
+      <c r="A51" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>514</v>
+      <c r="B51" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
+      <c r="A52" s="10" t="n">
         <v>52</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>516</v>
+      <c r="B52" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="n">
+      <c r="A53" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>518</v>
+      <c r="B53" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9" t="n">
+      <c r="A54" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>520</v>
+      <c r="B54" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="n">
+      <c r="A55" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>522</v>
+      <c r="B55" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9" t="n">
+      <c r="A56" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>524</v>
+      <c r="B56" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="n">
+      <c r="A57" s="10" t="n">
         <v>57</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>526</v>
+      <c r="B57" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="n">
+      <c r="A58" s="10" t="n">
         <v>58</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>528</v>
+      <c r="B58" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
+      <c r="A59" s="10" t="n">
         <v>59</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>530</v>
+      <c r="B59" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
+      <c r="A60" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>532</v>
+      <c r="B60" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
+      <c r="A61" s="10" t="n">
         <v>61</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>534</v>
+      <c r="B61" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="n">
+      <c r="A62" s="10" t="n">
         <v>62</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>536</v>
+      <c r="B62" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9" t="n">
+      <c r="A63" s="10" t="n">
         <v>63</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>538</v>
+      <c r="B63" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="n">
+      <c r="A64" s="10" t="n">
         <v>64</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>540</v>
+      <c r="B64" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9" t="n">
+      <c r="A65" s="10" t="n">
         <v>65</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>542</v>
+      <c r="B65" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="n">
+      <c r="A66" s="10" t="n">
         <v>66</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>544</v>
+      <c r="B66" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9" t="n">
+      <c r="A67" s="10" t="n">
         <v>67</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>546</v>
+      <c r="B67" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,1659 +28,1668 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="551">
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Département</t>
-  </si>
-  <si>
-    <t>TOULON WATER-POLO</t>
-  </si>
-  <si>
-    <t>AC CANNES</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>NICE NICAEA WATER-POLO</t>
-  </si>
-  <si>
-    <t>CLUB OMNISPORTS DE VALBONNE</t>
-  </si>
-  <si>
-    <t>AS MONACO NATATION</t>
-  </si>
-  <si>
-    <t>CN DRAGUIGNAN</t>
-  </si>
-  <si>
-    <t>ASPTT NICE</t>
-  </si>
-  <si>
-    <t>CN ANTIBES</t>
-  </si>
-  <si>
-    <t>CN CANNES</t>
-  </si>
-  <si>
-    <t>NICE LA SEMEUSE</t>
-  </si>
-  <si>
-    <t>TOULON VAR NATATION</t>
-  </si>
-  <si>
-    <t>AS CACHALOTS SIX-FOURS</t>
-  </si>
-  <si>
-    <t>AMSL FRÉJUS</t>
-  </si>
-  <si>
-    <t>CN MENTON</t>
-  </si>
-  <si>
-    <t>US ST-TROPEZ</t>
-  </si>
-  <si>
-    <t>CARROS NATATION</t>
-  </si>
-  <si>
-    <t>SAINT-RAPHAEL NATATION</t>
-  </si>
-  <si>
-    <t>AC HYÈRES</t>
-  </si>
-  <si>
-    <t>DAUPHINS GRASSE</t>
-  </si>
-  <si>
-    <t>OLYMPIC NICE NATATION</t>
-  </si>
-  <si>
-    <t>CNS VALLAURIS</t>
-  </si>
-  <si>
-    <t>STADE ST-LAURENT-DU-VAR NAT</t>
-  </si>
-  <si>
-    <t>ASPTT TOULON</t>
-  </si>
-  <si>
-    <t>A.S DRAGUIGNAN NATATION</t>
-  </si>
-  <si>
-    <t>AQUATIC CLUB DE MENTON</t>
-  </si>
-  <si>
-    <t>Poste</t>
-  </si>
-  <si>
-    <t>Niveau</t>
-  </si>
-  <si>
-    <t>Délégué fédéral</t>
-  </si>
-  <si>
-    <t>Jury d'appel</t>
-  </si>
-  <si>
-    <t>Juge arbitre</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Starter</t>
-  </si>
-  <si>
-    <t>Coordonnateur</t>
-  </si>
-  <si>
-    <t>Juge de Nage</t>
-  </si>
-  <si>
-    <t>Juge à l'arrivée</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Chef des virages</t>
-  </si>
-  <si>
-    <t>Juge aux virages</t>
-  </si>
-  <si>
-    <t>Juge aux virages + Bouton poussoir</t>
-  </si>
-  <si>
-    <t>Chronométreur</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Superviseur SdC</t>
-  </si>
-  <si>
-    <t>Gestion extraNat</t>
-  </si>
-  <si>
-    <t>Secrétariat</t>
-  </si>
-  <si>
-    <t>Chambre d'appel</t>
-  </si>
-  <si>
-    <t>Speaker</t>
-  </si>
-  <si>
-    <t>Médecin</t>
-  </si>
-  <si>
-    <t>Délégué Anti-dopage</t>
-  </si>
-  <si>
-    <t>Chaperon Anti-dopage</t>
-  </si>
-  <si>
-    <t>Ramasseur des fiches</t>
-  </si>
-  <si>
-    <t>Officiel en examen</t>
-  </si>
-  <si>
-    <t>Juge d'arrivée en chef</t>
-  </si>
-  <si>
-    <t>Officiel non affecté</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t>Licencié</t>
-  </si>
-  <si>
-    <t>Elève A</t>
-  </si>
-  <si>
-    <t>Elève B</t>
-  </si>
-  <si>
-    <t>Elève C</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Finale A</t>
-  </si>
-  <si>
-    <t>Finale B</t>
-  </si>
-  <si>
-    <t>Finale C</t>
-  </si>
-  <si>
-    <t>Finale D</t>
-  </si>
-  <si>
-    <t>Barrage Finales</t>
-  </si>
-  <si>
-    <t>Finale Jeune</t>
-  </si>
-  <si>
-    <t>Barrage Finale Jeune</t>
-  </si>
-  <si>
-    <t>1/2 Finale (1)</t>
-  </si>
-  <si>
-    <t>1/2 Finale (2)</t>
-  </si>
-  <si>
-    <t>Barrage 1/2 Finales</t>
-  </si>
-  <si>
-    <t>1/4 Finale (1)</t>
-  </si>
-  <si>
-    <t>1/4 Finale (2)</t>
-  </si>
-  <si>
-    <t>1/4 Finale (3)</t>
-  </si>
-  <si>
-    <t>1/4 Finale (4)</t>
-  </si>
-  <si>
-    <t>Barrage 1/4 Finales</t>
-  </si>
-  <si>
-    <t>1/8 Finale (1)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (2)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (3)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (4)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (5)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (6)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (7)</t>
-  </si>
-  <si>
-    <t>1/8 Finale (8)</t>
-  </si>
-  <si>
-    <t>Barrage 1/8 Finales</t>
-  </si>
-  <si>
-    <t>Séries</t>
-  </si>
-  <si>
-    <t>Série rapide</t>
-  </si>
-  <si>
-    <t>Séries lentes</t>
-  </si>
-  <si>
-    <t>Barrage Séries</t>
-  </si>
-  <si>
-    <t>Hors-Concours</t>
-  </si>
-  <si>
-    <t>Inter-région</t>
-  </si>
-  <si>
-    <t>ALSACE</t>
-  </si>
-  <si>
-    <t>NORD-EST</t>
-  </si>
-  <si>
-    <t>AQUITAINE</t>
-  </si>
-  <si>
-    <t>SUD-OUEST</t>
-  </si>
-  <si>
-    <t>AUVERGNE</t>
-  </si>
-  <si>
-    <t>SUD-EST</t>
-  </si>
-  <si>
-    <t>BOURGOGNE</t>
-  </si>
-  <si>
-    <t>BRETAGNE</t>
-  </si>
-  <si>
-    <t>NORD-OUEST</t>
-  </si>
-  <si>
-    <t>CENTRE-VAL DE LOIRE</t>
-  </si>
-  <si>
-    <t>CHAMPAGNE-ARDENNE</t>
-  </si>
-  <si>
-    <t>CORSE</t>
-  </si>
-  <si>
-    <t>CÔTE D'AZUR</t>
-  </si>
-  <si>
-    <t>DAUPHINÉ-SAVOIE</t>
-  </si>
-  <si>
-    <t>FRANCHE-COMTÉ</t>
-  </si>
-  <si>
-    <t>ILE-DE-FRANCE</t>
-  </si>
-  <si>
-    <t>LANGUEDOC-ROUSSILLON</t>
-  </si>
-  <si>
-    <t>LIMOUSIN</t>
-  </si>
-  <si>
-    <t>LORRAINE</t>
-  </si>
-  <si>
-    <t>LYONNAIS</t>
-  </si>
-  <si>
-    <t>NORD-PAS-DE-CALAIS</t>
-  </si>
-  <si>
-    <t>NORMANDIE</t>
-  </si>
-  <si>
-    <t>PAYS DE LA LOIRE</t>
-  </si>
-  <si>
-    <t>PICARDIE</t>
-  </si>
-  <si>
-    <t>POITOU-CHARENTES</t>
-  </si>
-  <si>
-    <t>PROVENCE</t>
-  </si>
-  <si>
-    <t>MIDI-PYRÉNÉES</t>
-  </si>
-  <si>
-    <t>NOUVELLE-CALÉDONIE</t>
-  </si>
-  <si>
-    <t>DOM-TOM</t>
-  </si>
-  <si>
-    <t>GUADELOUPE</t>
-  </si>
-  <si>
-    <t>MARTINIQUE</t>
-  </si>
-  <si>
-    <t>GUYANE</t>
-  </si>
-  <si>
-    <t>LA RÉUNION</t>
-  </si>
-  <si>
-    <t>TAHITI</t>
-  </si>
-  <si>
-    <t>Individuels</t>
-  </si>
-  <si>
-    <t>Relais</t>
-  </si>
-  <si>
-    <t>Equipes</t>
-  </si>
-  <si>
-    <t>Compétitions Internationales</t>
-  </si>
-  <si>
-    <t>Compétitions Nationales</t>
-  </si>
-  <si>
-    <t>Compétitions Interrégionales</t>
-  </si>
-  <si>
-    <t>Compétitions Régionales</t>
-  </si>
-  <si>
-    <t>Compétitions Départementales</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Jeux Olympiques      </t>
-  </si>
-  <si>
-    <t>Championnats du Monde en grand bassin  </t>
-  </si>
-  <si>
-    <t>Championnats d'Europe en grand bassin   </t>
-  </si>
-  <si>
-    <t>Compétitions Internationales diverses     </t>
-  </si>
-  <si>
-    <t>Championnats de France Elite    </t>
-  </si>
-  <si>
-    <t>Championnats N1 Interclubs     </t>
-  </si>
-  <si>
-    <t>Coupe de France     </t>
-  </si>
-  <si>
-    <t>Compétitions Nationales diverses     </t>
-  </si>
-  <si>
-    <t>Championnats de Nationale 2 (par zones)  </t>
-  </si>
-  <si>
-    <t>Circuit Fédéral de catégories d'âge   </t>
-  </si>
-  <si>
-    <t>Championnats N2 Interclubs     </t>
-  </si>
-  <si>
-    <t>Championnats de Nationale 3 (par zones)  </t>
-  </si>
-  <si>
-    <t>Compétitions Interrégionales diverses     </t>
-  </si>
-  <si>
-    <t>Meeting fédéral du 42401 fond   </t>
-  </si>
-  <si>
-    <t>Championnat Régional Interclubs     </t>
-  </si>
-  <si>
-    <t>Championnats Régionaux (animation)     </t>
-  </si>
-  <si>
-    <t>Natathlon Régional (étapes)     </t>
-  </si>
-  <si>
-    <t>Coupe Interclubs Minimes     </t>
-  </si>
-  <si>
-    <t>Coupe Interclubs Benjamins     </t>
-  </si>
-  <si>
-    <t>Circuit Régional      </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses     </t>
-  </si>
-  <si>
-    <t>Coupe des Régions - Minimes et Cadets </t>
-  </si>
-  <si>
-    <t>Coupe des Départements Benjamins    </t>
-  </si>
-  <si>
-    <t>Trophée National Lucien-Zins     </t>
-  </si>
-  <si>
-    <t>Championnats de France Juniors    </t>
-  </si>
-  <si>
-    <t>Championnats de France Cadets    </t>
-  </si>
-  <si>
-    <t>Championnats de France Minimes    </t>
-  </si>
-  <si>
-    <t>Championnats de France Cadets et Juniors  </t>
-  </si>
-  <si>
-    <t>Coupe des Régions des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Coupe Interclubs Benjamins des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Coupe Interclubs Minimes des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Interclubs Régionaux des clubs d'été   </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Meetings d'animation labellisés : international   </t>
-  </si>
-  <si>
-    <t>Meetings d'animation labellisés : national   </t>
-  </si>
-  <si>
-    <t>Meetings d'animation labellisés : régional   </t>
-  </si>
-  <si>
-    <t>Championnats Départementaux (animation)     </t>
-  </si>
-  <si>
-    <t>Championnat Départemental Interclubs     </t>
-  </si>
-  <si>
-    <t>Circuit Départemental      </t>
-  </si>
-  <si>
-    <t>Meetings d'animation labellisés : départemental   </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales diverses     </t>
-  </si>
-  <si>
-    <t>Championnats du Monde des Maîtres   </t>
-  </si>
-  <si>
-    <t>Championnats d'Europe des Maîtres    </t>
-  </si>
-  <si>
-    <t>Meetings Internationaux des Maîtres labellisés   </t>
-  </si>
-  <si>
-    <t>Compétitions Internationales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Championnats de France d'été des Maîtres (50m) </t>
-  </si>
-  <si>
-    <t>Meeting National Interclubs des maîtres   </t>
-  </si>
-  <si>
-    <t>Meeting National des Maîtres labellisés (FFN)  </t>
-  </si>
-  <si>
-    <t>Compétitions Nationales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Championnats Régionaux des Maîtres    </t>
-  </si>
-  <si>
-    <t>Meeting Régional Interclubs des maîtres   </t>
-  </si>
-  <si>
-    <t>Meeting Régional des Maîtres labellisé (FFN)  </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Championnats Départementaux des Maîtres    </t>
-  </si>
-  <si>
-    <t>Interclubs Départemental des Maîtres    </t>
-  </si>
-  <si>
-    <t>Meeting Départemental des Maîtres labellisé (FFN)  </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales des Maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Natathlon Départemental (étapes)     </t>
-  </si>
-  <si>
-    <t>Championnats du Monde en petit bassin  </t>
-  </si>
-  <si>
-    <t>Championnats d'Europe en petit bassin   </t>
-  </si>
-  <si>
-    <t>Championnats d'Europe Juniors     </t>
-  </si>
-  <si>
-    <t>Meetings Internationaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t>Championnats de France en petit bassin  </t>
-  </si>
-  <si>
-    <t>Meetings Nationaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t>Championnat régional d'été (référence nationale)   </t>
-  </si>
-  <si>
-    <t>Championnats de France des Jeunes   </t>
-  </si>
-  <si>
-    <t>Championnats de France N2    </t>
-  </si>
-  <si>
-    <t>Championnats de France UNSS/FFN    </t>
-  </si>
-  <si>
-    <t>Coupe Régionale Interclubs 11-13 ans   </t>
-  </si>
-  <si>
-    <t>Coupe Départementale Interclubs 11-13 ans   </t>
-  </si>
-  <si>
-    <t>Meeting Juniors des clubs d'été   </t>
-  </si>
-  <si>
-    <t>Championnats du Monde Juniors    </t>
-  </si>
-  <si>
-    <t>Compétitions Internationales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Nationales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Interrégionales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales diverses par équipe   </t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses des clubs d'été par équipe</t>
-  </si>
-  <si>
-    <t>Meetings Régionaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales diverses des clubs d'été  </t>
-  </si>
-  <si>
-    <t>Compétitions Départementales diverses des clubs d'été par équipe</t>
-  </si>
-  <si>
-    <t>Championnats de France Jeunes en petit bassin </t>
-  </si>
-  <si>
-    <t>Championnats Interrégionaux (réf. nat.)    </t>
-  </si>
-  <si>
-    <t>Meetings Départementaux labellisés qualificatifs    </t>
-  </si>
-  <si>
-    <t>Meeting du circuit fédéral des Maîtres  </t>
-  </si>
-  <si>
-    <t>Meeting International d'hiver FFN    </t>
-  </si>
-  <si>
-    <t>Compétitions Interrégionales des maîtres diverses   </t>
-  </si>
-  <si>
-    <t>Championnats de France d'hiver des Maîtres (25m) </t>
-  </si>
-  <si>
-    <t>Championnats nationaux 16 ans et plus  </t>
-  </si>
-  <si>
-    <t>Meeting International labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t>Meeting National labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t>Championnats Interrégionaux en petit bassin   </t>
-  </si>
-  <si>
-    <t>Championnats de nationale 2 d'hiver   </t>
-  </si>
-  <si>
-    <t>Championnats de nationale 2 d'été   </t>
-  </si>
-  <si>
-    <t>Championnat Régional d'hiver (25m)    </t>
-  </si>
-  <si>
-    <t>Championnat régional d'été (50m)    </t>
-  </si>
-  <si>
-    <t>Meeting Régional labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t>Interclubs Régional Benjamins     </t>
-  </si>
-  <si>
-    <t>Interclubs Régional Minimes     </t>
-  </si>
-  <si>
-    <t>Championnat Départemental d'hiver en petit bassin  </t>
-  </si>
-  <si>
-    <t>Championnat Départemental d'été     </t>
-  </si>
-  <si>
-    <t>Interclubs Départemental Benjamins     </t>
-  </si>
-  <si>
-    <t>Interclubs Départemental Minimes     </t>
-  </si>
-  <si>
-    <t>Meeting Départemental labellisé (FFN)    </t>
-  </si>
-  <si>
-    <t>Coupe Régionale Interclubs Minimes et moins  </t>
-  </si>
-  <si>
-    <t>Coupe Régionale Interclubs Toutes catégories   </t>
-  </si>
-  <si>
-    <t>Championnat Régional des Maîtres (25m)   </t>
-  </si>
-  <si>
-    <t>Championnat Régional des Maîtres (50m)   </t>
-  </si>
-  <si>
-    <t>Championnat Départemental des Maîtres (25m)   </t>
-  </si>
-  <si>
-    <t>Championnat Départemental des Maîtres (50m)   </t>
-  </si>
-  <si>
-    <t>Trophée Interrégional Lucien-Zins     </t>
-  </si>
-  <si>
-    <t>Trophée Régional Lucien-Zins     </t>
-  </si>
-  <si>
-    <t>Interclubs Régional Benjamins (plot 1)</t>
-  </si>
-  <si>
-    <t>Finale Régionale Natathlon 10 ans et moins</t>
-  </si>
-  <si>
-    <t>Finale Régionale Natathlon 11 ans</t>
-  </si>
-  <si>
-    <t>Compétitions Régionales diverses</t>
-  </si>
-  <si>
-    <t>Trophée Régional Lucien-Zins</t>
-  </si>
-  <si>
-    <t>Meeting International (circuit FFN - Golden tour)</t>
-  </si>
-  <si>
-    <t>Autre.       </t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Nage</t>
-  </si>
-  <si>
-    <t>25 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>100 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>200 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>400 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>600 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>800 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>1000 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>1500 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>3000 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>5000 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>25 Dos Dames</t>
-  </si>
-  <si>
-    <t>50 Dos Dames</t>
-  </si>
-  <si>
-    <t>100 Dos Dames</t>
-  </si>
-  <si>
-    <t>200 Dos Dames</t>
-  </si>
-  <si>
-    <t>25 Brasse Dames</t>
-  </si>
-  <si>
-    <t>50 Brasse Dames</t>
-  </si>
-  <si>
-    <t>100 Brasse Dames</t>
-  </si>
-  <si>
-    <t>200 Brasse Dames</t>
-  </si>
-  <si>
-    <t>25 Papillon Dames</t>
-  </si>
-  <si>
-    <t>50 Papillon Dames</t>
-  </si>
-  <si>
-    <t>100 Papillon Dames</t>
-  </si>
-  <si>
-    <t>200 Papillon Dames</t>
-  </si>
-  <si>
-    <t>100 4 Nages Dames</t>
-  </si>
-  <si>
-    <t>200 4 Nages Dames</t>
-  </si>
-  <si>
-    <t>300 4 Nages Dames</t>
-  </si>
-  <si>
-    <t>400 4 Nages Dames</t>
-  </si>
-  <si>
-    <t>2x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>2x50 Dos Dames</t>
-  </si>
-  <si>
-    <t>2x50 Brasse Dames</t>
-  </si>
-  <si>
-    <t>2x50 Papillon Dames</t>
-  </si>
-  <si>
-    <t>4x25 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>4x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>4x100 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>4x200 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>4x25 Dos Dames</t>
-  </si>
-  <si>
-    <t>4x50 Dos Dames</t>
-  </si>
-  <si>
-    <t>4x25 Brasse Dames</t>
-  </si>
-  <si>
-    <t>4x50 Brasse Dames</t>
-  </si>
-  <si>
-    <t>4x25 Papillon Dames</t>
-  </si>
-  <si>
-    <t>4x50 Papillon Dames</t>
-  </si>
-  <si>
-    <t>4x25 4 Nages Dames</t>
-  </si>
-  <si>
-    <t>4x50 4 Nages Dames</t>
-  </si>
-  <si>
-    <t>4x100 4 Nages Dames</t>
-  </si>
-  <si>
-    <t>4x100 4 Nages Ind. Dames</t>
-  </si>
-  <si>
-    <t>6x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>8x25 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>8x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>8x100 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>8x50 4 Nages Dames</t>
-  </si>
-  <si>
-    <t>10x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>10x100 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>12x50 Nage Libre Dames</t>
-  </si>
-  <si>
-    <t>25 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>100 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>200 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>400 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>600 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>800 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>1000 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>1500 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>3000 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>5000 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>25 Dos Messieurs</t>
-  </si>
-  <si>
-    <t>50 Dos Messieurs</t>
-  </si>
-  <si>
-    <t>100 Dos Messieurs</t>
-  </si>
-  <si>
-    <t>200 Dos Messieurs</t>
-  </si>
-  <si>
-    <t>25 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t>50 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t>100 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t>200 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t>25 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t>50 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t>100 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t>200 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t>100 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t>200 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t>300 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t>400 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t>2x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>2x50 Dos Messieurs</t>
-  </si>
-  <si>
-    <t>2x50 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t>2x50 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t>4x25 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>4x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>4x100 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>4x200 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>4x25 Dos Messieurs</t>
-  </si>
-  <si>
-    <t>4x50 Dos Messieurs</t>
-  </si>
-  <si>
-    <t>4x25 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t>4x50 Brasse Messieurs</t>
-  </si>
-  <si>
-    <t>4x25 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t>4x50 Papillon Messieurs</t>
-  </si>
-  <si>
-    <t>4x25 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t>4x50 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t>4x100 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t>4x100 4 Nages Ind. Messieurs</t>
-  </si>
-  <si>
-    <t>6x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>8x25 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>8x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>8x100 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>8x50 4 Nages Messieurs</t>
-  </si>
-  <si>
-    <t>10x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>10x100 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>12x50 Nage Libre Messieurs</t>
-  </si>
-  <si>
-    <t>25 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>100 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>200 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>400 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>600 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>800 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>1000 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>1500 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>3000 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>5000 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>25 Dos Mixtes</t>
-  </si>
-  <si>
-    <t>50 Dos Mixtes</t>
-  </si>
-  <si>
-    <t>100 Dos Mixtes</t>
-  </si>
-  <si>
-    <t>200 Dos Mixtes</t>
-  </si>
-  <si>
-    <t>25 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t>50 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t>100 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t>200 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t>25 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t>50 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t>100 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t>200 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t>100 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t>200 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t>300 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t>400 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t>2x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>2x50 Dos Mixtes</t>
-  </si>
-  <si>
-    <t>2x50 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t>2x50 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t>4x25 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>4x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>4x100 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>4x200 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>4x25 Dos Mixtes</t>
-  </si>
-  <si>
-    <t>4x50 Dos Mixtes</t>
-  </si>
-  <si>
-    <t>4x25 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t>4x50 Brasse Mixtes</t>
-  </si>
-  <si>
-    <t>4x25 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t>4x50 Papillon Mixtes</t>
-  </si>
-  <si>
-    <t>4x25 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t>4x50 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t>4x100 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t>4x100 4 Nages Ind. Mixtes</t>
-  </si>
-  <si>
-    <t>6x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>8x25 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>8x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>8x100 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>8x50 4 Nages Mixtes</t>
-  </si>
-  <si>
-    <t>10x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>10x100 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>12x50 Nage Libre Mixtes</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Libellé</t>
-  </si>
-  <si>
-    <t>DNS exc</t>
-  </si>
-  <si>
-    <t>Forfait excusé (cerficat médical)</t>
-  </si>
-  <si>
-    <t>DNS dec</t>
-  </si>
-  <si>
-    <t>Forfait déclaré</t>
-  </si>
-  <si>
-    <t>DSQ MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais</t>
-  </si>
-  <si>
-    <t>DNS Nd</t>
-  </si>
-  <si>
-    <t>Forfait non déclaré</t>
-  </si>
-  <si>
-    <t>DSQ CnS</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Conduite non Sportive</t>
-  </si>
-  <si>
-    <t>DSQ Da</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Départ anticipé</t>
-  </si>
-  <si>
-    <t>DSQ Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage incorrect</t>
-  </si>
-  <si>
-    <t>DSQ Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte</t>
-  </si>
-  <si>
-    <t>DSQ</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision</t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>Forfait sans précision</t>
-  </si>
-  <si>
-    <t>DSQr1 Fd</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Départ anticipé (1er relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr1 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (1er relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr1 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (1er relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr1</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (1er relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr2 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (2e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr2 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (2e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr2 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (2e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr2</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (2e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr3 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (3e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr3 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (3e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr3 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (3e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr3</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (3e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr4 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (4e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr4 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (4e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr4 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (4e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr4</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (4e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr5 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (5e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr5 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (5e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr5 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (5e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr5</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (5e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr6 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (6e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr6 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (6e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr6 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (6e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr6</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (6e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr7 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (7e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr7 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (7e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr7 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (7e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr7</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (7e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr8 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (8e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr8 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (8e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr8 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (8e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr8</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (8e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr9 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (9e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr9 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (9e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr9 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (9e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr9</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (9e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr10 MpR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise prise de Relais (10e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr10 Vi</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Virage ou arrivée incorrect (10e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr10 Ni</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Nage incorrecte (10e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr10</t>
-  </si>
-  <si>
-    <t>Disqualifié sans précision (10e relayeur)</t>
-  </si>
-  <si>
-    <t>TLD</t>
-  </si>
-  <si>
-    <t>Temps Limite Dépassé</t>
-  </si>
-  <si>
-    <t>FD</t>
-  </si>
-  <si>
-    <t>Finale Directe</t>
-  </si>
-  <si>
-    <t>DSQ Ai</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Arrivée incorrecte</t>
-  </si>
-  <si>
-    <t>DNF</t>
-  </si>
-  <si>
-    <t>Abandon</t>
-  </si>
-  <si>
-    <t>DSQr1 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (1er relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr2 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (2e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr3 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (3e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr4 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (4e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr5 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (5e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr6 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (6e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr7 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (7e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr8 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (8e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr9 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (9e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQr10 McR</t>
-  </si>
-  <si>
-    <t>Disqualifié pour Mauvaise composition de Relais (10e relayeur)</t>
-  </si>
-  <si>
-    <t>DSQ 15m</t>
-  </si>
-  <si>
-    <t>Dépassement de la limite des 15m</t>
-  </si>
-  <si>
-    <t>EPR Supp</t>
-  </si>
-  <si>
-    <t>Épreuve supprimée</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="554">
+  <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Département</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON WATER-POLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC CANNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE NICAEA WATER-POLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB OMNISPORTS DE VALBONNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS MONACO NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN DRAGUIGNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN ANTIBES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN CANNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE LA SEMEUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON VAR NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMSL FRÉJUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN MENTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US ST-TROPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARROS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC HYÈRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS GRASSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS VALLAURIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT TOULON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.S DRAGUIGNAN NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUATIC CLUB DE MENTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Départemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Régional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délégué fédéral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licencié</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jury d'appel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge arbitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordonnateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge de Nage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge à l'arrivée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chef des virages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge aux virages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge aux virages + Bouton poussoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronométreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superviseur SdC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion extraNat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secrétariat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chambre d'appel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Médecin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Délégué Anti-dopage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaperon Anti-dopage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramasseur des fiches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officiel en examen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge d'arrivée en chef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officiel non affecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elève A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elève B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elève C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Jeune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage Finale Jeune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 Finale (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2 Finale (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage 1/2 Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Finale (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Finale (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Finale (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Finale (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage 1/4 Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8 Finale (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage 1/8 Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Série rapide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Séries lentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrage Séries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hors-Concours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-région</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALSACE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORD-EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUITAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUD-OUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUVERGNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUD-EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOURGOGNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRETAGNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORD-OUEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRE-VAL DE LOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAMPAGNE-ARDENNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÔTE D'AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINÉ-SAVOIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCHE-COMTÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILE-DE-FRANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANGUEDOC-ROUSSILLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMOUSIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORRAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYONNAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORD-PAS-DE-CALAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMANDIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYS DE LA LOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICARDIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POITOU-CHARENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIDI-PYRÉNÉES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOUVELLE-CALÉDONIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOM-TOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUADELOUPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUYANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA RÉUNION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAHITI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeux Olympiques      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats du Monde en grand bassin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats d'Europe en grand bassin   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Elite    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats N1 Interclubs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe de France     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 2 (par zones)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Fédéral de catégories d'âge   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats N2 Interclubs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 3 (par zones)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting fédéral du 42401 fond   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Régional Interclubs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Régionaux (animation)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Régional (étapes)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Interclubs Minimes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Interclubs Benjamins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Régional      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe des Régions - Minimes et Cadets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe des Départements Benjamins    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophée National Lucien-Zins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Juniors    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Cadets    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Minimes    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Cadets et Juniors  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe des Régions des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Interclubs Benjamins des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Interclubs Minimes des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régionaux des clubs d'été   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings d'animation labellisés : international   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings d'animation labellisés : national   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings d'animation labellisés : régional   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Départementaux (animation)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental Interclubs     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit Départemental      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings d'animation labellisés : départemental   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats du Monde des Maîtres   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats d'Europe des Maîtres    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Internationaux des Maîtres labellisés   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France d'été des Maîtres (50m) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting National Interclubs des maîtres   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting National des Maîtres labellisés (FFN)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Régionaux des Maîtres    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Régional Interclubs des maîtres   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Régional des Maîtres labellisé (FFN)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Départementaux des Maîtres    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Départemental des Maîtres    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Départemental des Maîtres labellisé (FFN)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales des Maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Départemental (étapes)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats du Monde en petit bassin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats d'Europe en petit bassin   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats d'Europe Juniors     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Internationaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France en petit bassin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Nationaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat régional d'été (référence nationale)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France des Jeunes   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France N2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France UNSS/FFN    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Régionale Interclubs 11-13 ans   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Départementale Interclubs 11-13 ans   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Juniors des clubs d'été   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats du Monde Juniors    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses par équipe   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses des clubs d'été par équipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Régionaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses des clubs d'été  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses des clubs d'été par équipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Jeunes en petit bassin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Interrégionaux (réf. nat.)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meetings Départementaux labellisés qualificatifs    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting du circuit fédéral des Maîtres  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting International d'hiver FFN    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales des maîtres diverses   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France d'hiver des Maîtres (25m) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats nationaux 16 ans et plus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting International labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting National labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Interrégionaux en petit bassin   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de nationale 2 d'hiver   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de nationale 2 d'été   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Régional d'hiver (25m)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat régional d'été (50m)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Régional labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régional Benjamins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régional Minimes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental d'hiver en petit bassin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental d'été     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Départemental Benjamins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Départemental Minimes     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Départemental labellisé (FFN)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Régionale Interclubs Minimes et moins  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe Régionale Interclubs Toutes catégories   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Régional des Maîtres (25m)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Régional des Maîtres (50m)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental des Maîtres (25m)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnat Départemental des Maîtres (50m)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophée Interrégional Lucien-Zins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophée Régional Lucien-Zins     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régional Benjamins (plot 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Régionale Natathlon 10 ans et moins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Régionale Natathlon 11 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophée Régional Lucien-Zins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting International (circuit FFN - Golden tour)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre.       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x200 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Dos Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Brasse Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Papillon Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Ind. Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x25 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 4 Nages Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x100 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x50 Nage Libre Dames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x200 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Dos Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Brasse Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Papillon Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Ind. Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x25 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 4 Nages Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x100 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x50 Nage Libre Messieurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x200 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Dos Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Brasse Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 Papillon Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x25 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x50 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 4 Nages Ind. Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x25 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8x50 4 Nages Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x100 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x50 Nage Libre Mixtes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libellé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS exc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait excusé (cerficat médical)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait déclaré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS Nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait non déclaré</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ CnS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Conduite non Sportive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ Da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Départ anticipé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfait sans précision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1 Fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Départ anticipé (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10 MpR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise prise de Relais (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10 Vi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Virage ou arrivée incorrect (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10 Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Nage incorrecte (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié sans précision (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps Limite Dépassé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Directe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ Ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Arrivée incorrecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr1 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (1er relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr2 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (2e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr3 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (3e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr4 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (4e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr5 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (5e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr6 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (6e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr7 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (7e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr8 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (8e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr9 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (9e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQr10 McR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disqualifié pour Mauvaise composition de Relais (10e relayeur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSQ 15m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépassement de la limite des 15m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPR Supp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Épreuve supprimée</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1697,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
@@ -1839,10 +1848,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2147,17 +2156,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.20408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2170,13 +2181,25 @@
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2184,7 +2207,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2192,10 +2218,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2203,10 +2235,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2214,7 +2252,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2222,10 +2266,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>34</v>
+      <c r="D7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2233,10 +2283,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>39</v>
+      <c r="E8" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2244,10 +2300,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2255,10 +2317,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2266,10 +2334,16 @@
         <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2277,10 +2351,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2288,7 +2368,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2296,7 +2376,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2304,7 +2390,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2312,7 +2404,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2320,7 +2418,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2328,7 +2432,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,7 +2446,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,7 +2454,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,7 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2360,7 +2476,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,10 +2484,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2379,7 +2501,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2401,13 +2529,12 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2418,7 +2545,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2426,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>0</v>
@@ -2437,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>6</v>
@@ -2448,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>5</v>
@@ -2459,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>4</v>
@@ -2470,7 +2597,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>3</v>
@@ -2481,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>2</v>
@@ -2492,7 +2619,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>1</v>
@@ -2528,8 +2655,7 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2561,7 +2687,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,7 +2711,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +2719,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2601,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,7 +2735,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,7 +2743,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,7 +2751,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,7 +2759,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2641,7 +2767,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,7 +2775,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,7 +2783,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,7 +2791,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2799,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,7 +2807,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,7 +2815,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2697,7 +2823,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2831,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2713,7 +2839,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,7 +2847,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,7 +2855,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,7 +2863,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2871,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2753,7 +2879,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,7 +2887,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,7 +2895,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2797,9 +2923,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,10 +2954,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,10 +2965,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,10 +2976,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,10 +2987,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,10 +2998,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,10 +3009,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,10 +3020,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,10 +3031,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,10 +3042,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2928,10 +3053,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2939,10 +3064,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,10 +3075,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,10 +3086,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,10 +3097,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2983,10 +3108,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,10 +3119,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,10 +3130,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,10 +3141,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,10 +3152,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,10 +3163,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,10 +3174,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,10 +3185,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,10 +3196,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3082,10 +3207,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,10 +3218,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,10 +3229,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>124</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,10 +3240,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,10 +3251,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3156,10 +3281,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,13 +3293,13 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3184,7 +3307,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>9</v>
@@ -3201,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>9</v>
@@ -3218,7 +3341,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>9</v>
@@ -3235,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>4.6</v>
@@ -3252,7 +3375,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>3.5</v>
@@ -3282,16 +3405,16 @@
   </sheetPr>
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B124" activeCellId="0" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7857142857143"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -3310,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -3321,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -3332,7 +3455,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -3343,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -3354,7 +3477,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -3365,7 +3488,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -3376,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -3387,7 +3510,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -3398,7 +3521,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -3409,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -3420,7 +3543,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -3431,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -3442,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -3453,7 +3576,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -3465,7 +3588,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -3476,7 +3599,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4</v>
@@ -3487,7 +3610,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
@@ -3498,7 +3621,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -3509,7 +3632,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
@@ -3520,7 +3643,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
@@ -3531,7 +3654,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
@@ -3542,7 +3665,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -3553,7 +3676,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5</v>
@@ -3564,7 +3687,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -3575,7 +3698,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2</v>
@@ -3586,7 +3709,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2</v>
@@ -3597,7 +3720,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -3608,7 +3731,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2</v>
@@ -3619,7 +3742,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
@@ -3630,7 +3753,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>4</v>
@@ -3641,7 +3764,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>4</v>
@@ -3652,7 +3775,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>4</v>
@@ -3663,7 +3786,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>4</v>
@@ -3674,7 +3797,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -3685,7 +3808,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
@@ -3696,7 +3819,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>4</v>
@@ -3707,7 +3830,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5</v>
@@ -3718,7 +3841,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>5</v>
@@ -3729,7 +3852,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>5</v>
@@ -3740,7 +3863,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>5</v>
@@ -3751,7 +3874,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>5</v>
@@ -3762,7 +3885,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -3773,7 +3896,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
@@ -3784,7 +3907,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
@@ -3795,7 +3918,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
@@ -3806,7 +3929,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
@@ -3817,7 +3940,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -3828,7 +3951,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
@@ -3839,7 +3962,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
@@ -3850,7 +3973,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>4</v>
@@ -3861,7 +3984,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>4</v>
@@ -3872,7 +3995,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>4</v>
@@ -3883,7 +4006,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>4</v>
@@ -3894,7 +4017,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
@@ -3905,7 +4028,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>5</v>
@@ -3916,7 +4039,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>5</v>
@@ -3927,7 +4050,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>5</v>
@@ -3938,7 +4061,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
@@ -3949,7 +4072,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
@@ -3960,7 +4083,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
@@ -3971,7 +4094,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -3982,7 +4105,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1</v>
@@ -3993,7 +4116,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2</v>
@@ -4004,7 +4127,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2</v>
@@ -4015,7 +4138,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>4</v>
@@ -4026,7 +4149,7 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2</v>
@@ -4037,7 +4160,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3</v>
@@ -4048,7 +4171,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2</v>
@@ -4059,7 +4182,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>4</v>
@@ -4070,7 +4193,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>5</v>
@@ -4081,7 +4204,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2</v>
@@ -4092,7 +4215,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
@@ -4103,7 +4226,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
@@ -4114,7 +4237,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2</v>
@@ -4125,7 +4248,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>3</v>
@@ -4136,7 +4259,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>4</v>
@@ -4147,7 +4270,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>5</v>
@@ -4158,7 +4281,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
@@ -4169,7 +4292,7 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>4</v>
@@ -4180,7 +4303,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>5</v>
@@ -4191,7 +4314,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>5</v>
@@ -4202,7 +4325,7 @@
         <v>93</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2</v>
@@ -4213,7 +4336,7 @@
         <v>94</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>4</v>
@@ -4224,7 +4347,7 @@
         <v>95</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4</v>
@@ -4235,7 +4358,7 @@
         <v>96</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>3</v>
@@ -4246,7 +4369,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>5</v>
@@ -4257,7 +4380,7 @@
         <v>98</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -4268,7 +4391,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>1</v>
@@ -4279,7 +4402,7 @@
         <v>100</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>3</v>
@@ -4290,7 +4413,7 @@
         <v>101</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>4</v>
@@ -4301,7 +4424,7 @@
         <v>102</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>4</v>
@@ -4312,7 +4435,7 @@
         <v>103</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2</v>
@@ -4323,7 +4446,7 @@
         <v>104</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2</v>
@@ -4334,7 +4457,7 @@
         <v>105</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>1</v>
@@ -4345,7 +4468,7 @@
         <v>106</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
@@ -4356,7 +4479,7 @@
         <v>107</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3</v>
@@ -4367,7 +4490,7 @@
         <v>108</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3</v>
@@ -4378,7 +4501,7 @@
         <v>109</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>3</v>
@@ -4389,7 +4512,7 @@
         <v>110</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>4</v>
@@ -4400,7 +4523,7 @@
         <v>111</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>4</v>
@@ -4411,7 +4534,7 @@
         <v>112</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>4</v>
@@ -4422,7 +4545,7 @@
         <v>113</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>4</v>
@@ -4433,7 +4556,7 @@
         <v>114</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>4</v>
@@ -4444,7 +4567,7 @@
         <v>115</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>5</v>
@@ -4455,7 +4578,7 @@
         <v>116</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>5</v>
@@ -4466,7 +4589,7 @@
         <v>117</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>5</v>
@@ -4477,7 +4600,7 @@
         <v>118</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>5</v>
@@ -4488,7 +4611,7 @@
         <v>119</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>5</v>
@@ -4499,7 +4622,7 @@
         <v>120</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>4</v>
@@ -4510,7 +4633,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>4</v>
@@ -4521,7 +4644,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>4</v>
@@ -4532,7 +4655,7 @@
         <v>123</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>4</v>
@@ -4543,7 +4666,7 @@
         <v>124</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>5</v>
@@ -4554,7 +4677,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>5</v>
@@ -4565,7 +4688,7 @@
         <v>126</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>3</v>
@@ -4576,7 +4699,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>4</v>
@@ -4587,7 +4710,7 @@
         <v>128</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>4</v>
@@ -4598,7 +4721,7 @@
         <v>145</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>4</v>
@@ -4609,7 +4732,7 @@
         <v>157</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>4</v>
@@ -4620,7 +4743,7 @@
         <v>161</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>4</v>
@@ -4631,7 +4754,7 @@
         <v>163</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>4</v>
@@ -4642,7 +4765,7 @@
         <v>173</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>1</v>
@@ -4653,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>5</v>
@@ -4683,17 +4806,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,7 +4824,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4733,7 +4856,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4741,7 +4864,7 @@
         <v>250</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4757,7 +4880,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,7 +4896,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,7 +4912,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4797,7 +4920,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,7 +4936,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4821,7 +4944,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,7 +4952,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4837,7 +4960,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,7 +4968,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4853,7 +4976,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,7 +4984,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,7 +4992,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,7 +5000,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4885,7 +5008,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4893,7 +5016,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4901,7 +5024,7 @@
         <v>252</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,7 +5032,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,7 +5040,7 @@
         <v>283</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,7 +5048,7 @@
         <v>289</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,7 +5056,7 @@
         <v>295</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4941,7 +5064,7 @@
         <v>301</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,7 +5072,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,7 +5080,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,7 +5088,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4973,7 +5096,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4981,7 +5104,7 @@
         <v>254</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4989,7 +5112,7 @@
         <v>111</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,7 +5120,7 @@
         <v>256</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5005,7 +5128,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5013,7 +5136,7 @@
         <v>258</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,7 +5144,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5029,7 +5152,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,7 +5160,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,7 +5168,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +5176,7 @@
         <v>271</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,7 +5184,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,7 +5192,7 @@
         <v>265</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,7 +5200,7 @@
         <v>243</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,7 +5208,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,7 +5216,7 @@
         <v>277</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5101,7 +5224,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,7 +5232,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,7 +5240,7 @@
         <v>305</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,7 +5248,7 @@
         <v>150</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5133,7 +5256,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5141,7 +5264,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5149,7 +5272,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,7 +5280,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,7 +5288,7 @@
         <v>249</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5173,7 +5296,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,7 +5304,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,7 +5312,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5197,7 +5320,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,7 +5328,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,7 +5336,7 @@
         <v>160</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,7 +5344,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5229,7 +5352,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +5360,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,7 +5368,7 @@
         <v>170</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,7 +5376,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,7 +5384,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5269,7 +5392,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,7 +5400,7 @@
         <v>180</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,7 +5408,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5293,7 +5416,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,7 +5424,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5309,7 +5432,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5317,7 +5440,7 @@
         <v>91</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,7 +5448,7 @@
         <v>251</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,7 +5456,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,7 +5464,7 @@
         <v>281</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,7 +5472,7 @@
         <v>287</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5357,7 +5480,7 @@
         <v>293</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5365,7 +5488,7 @@
         <v>299</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5373,7 +5496,7 @@
         <v>58</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5381,7 +5504,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,7 +5512,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5520,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,7 +5528,7 @@
         <v>253</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,7 +5536,7 @@
         <v>161</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5421,7 +5544,7 @@
         <v>255</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5429,7 +5552,7 @@
         <v>171</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5437,7 +5560,7 @@
         <v>257</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5445,7 +5568,7 @@
         <v>181</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5453,7 +5576,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5461,7 +5584,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5469,7 +5592,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,7 +5600,7 @@
         <v>273</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5485,7 +5608,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5493,7 +5616,7 @@
         <v>266</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5501,7 +5624,7 @@
         <v>244</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5509,7 +5632,7 @@
         <v>64</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5517,7 +5640,7 @@
         <v>275</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5525,7 +5648,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5533,7 +5656,7 @@
         <v>95</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5541,7 +5664,7 @@
         <v>304</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5549,7 +5672,7 @@
         <v>200</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +5680,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,7 +5688,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +5696,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5581,7 +5704,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5589,7 +5712,7 @@
         <v>262</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,7 +5720,7 @@
         <v>205</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,7 +5728,7 @@
         <v>207</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,7 +5736,7 @@
         <v>206</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5621,7 +5744,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,7 +5752,7 @@
         <v>215</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5637,7 +5760,7 @@
         <v>210</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5645,7 +5768,7 @@
         <v>211</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,7 +5776,7 @@
         <v>212</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5661,7 +5784,7 @@
         <v>213</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5669,7 +5792,7 @@
         <v>220</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,7 +5800,7 @@
         <v>221</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,7 +5808,7 @@
         <v>222</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5693,7 +5816,7 @@
         <v>223</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5701,7 +5824,7 @@
         <v>230</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5709,7 +5832,7 @@
         <v>231</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5717,7 +5840,7 @@
         <v>232</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,7 +5848,7 @@
         <v>233</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5733,7 +5856,7 @@
         <v>240</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,7 +5864,7 @@
         <v>241</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5749,7 +5872,7 @@
         <v>263</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5757,7 +5880,7 @@
         <v>242</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5765,7 +5888,7 @@
         <v>285</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,7 +5896,7 @@
         <v>291</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,7 +5904,7 @@
         <v>297</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,7 +5912,7 @@
         <v>303</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,7 +5920,7 @@
         <v>86</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,7 +5928,7 @@
         <v>87</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,7 +5936,7 @@
         <v>88</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,7 +5944,7 @@
         <v>34</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,7 +5952,7 @@
         <v>259</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +5960,7 @@
         <v>246</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,7 +5968,7 @@
         <v>260</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,7 +5976,7 @@
         <v>247</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,7 +5984,7 @@
         <v>261</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,7 +5992,7 @@
         <v>248</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,7 +6000,7 @@
         <v>38</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,7 +6008,7 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5893,7 +6016,7 @@
         <v>36</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,7 +6024,7 @@
         <v>269</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,7 +6032,7 @@
         <v>35</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,7 +6040,7 @@
         <v>267</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,7 +6048,7 @@
         <v>245</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,7 +6056,7 @@
         <v>214</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5941,7 +6064,7 @@
         <v>279</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,7 +6072,7 @@
         <v>84</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,7 +6080,7 @@
         <v>85</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,7 +6088,7 @@
         <v>264</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5992,20 +6115,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,10 +6136,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,10 +6147,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6035,10 +6158,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6046,10 +6169,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6057,10 +6180,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6068,10 +6191,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6079,10 +6202,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6090,10 +6213,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,10 +6224,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6123,10 +6246,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6134,10 +6257,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6145,10 +6268,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,10 +6279,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,10 +6290,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6178,10 +6301,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,10 +6312,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,10 +6323,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,10 +6334,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6222,10 +6345,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6233,10 +6356,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,10 +6367,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6255,10 +6378,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6266,10 +6389,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,10 +6400,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,10 +6411,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,10 +6422,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6310,10 +6433,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,10 +6444,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6332,10 +6455,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,10 +6466,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6354,10 +6477,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,10 +6488,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,10 +6499,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,10 +6510,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6398,10 +6521,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6409,10 +6532,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6420,10 +6543,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6431,10 +6554,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6442,10 +6565,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6453,10 +6576,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6464,10 +6587,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,10 +6598,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,10 +6609,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6497,10 +6620,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6508,10 +6631,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,10 +6642,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6530,10 +6653,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,10 +6664,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6552,10 +6675,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,10 +6686,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,10 +6697,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,10 +6708,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,10 +6719,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,10 +6730,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,10 +6741,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,10 +6752,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,10 +6763,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6651,10 +6774,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6662,10 +6785,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6673,10 +6796,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6684,10 +6807,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,10 +6818,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6706,10 +6829,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6717,10 +6840,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6728,10 +6851,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="Types compétitions" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Nages" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Disqualifications" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Changement Club" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="659">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -39,9 +40,165 @@
     <t xml:space="preserve">Département</t>
   </si>
   <si>
+    <t xml:space="preserve">E.P. DE MANOSQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB DE NATATION DIGNOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE DES NAGEURS DE GAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIC CLUB BRIANCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS EMBRUNAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'ARGENTIERE ECRINS AQUATIC CLUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O TONIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS CIOTADENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB DES NAGEURS SALONAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION NAGEURS ARLESIENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISTRES SPORT NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CER. SPO. MUNI. MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS PENNES MIRABEAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIC CLUB DE LA CRAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATATION MARSEILLE NORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIGUES NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. N. DU PUY ST REPARADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUATIC CLUB ALLAUDIEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIL CLUB BOUCAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITROLLES SPORT NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN ETANG DE BERRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUBAGNE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELTIC DE MARSEILLE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE D'ACTIVITES AQUATIQUES DE PROVENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYS D'AIX NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGNAC NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIGNANE NATATION</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOULON WATER-POLO</t>
   </si>
   <si>
+    <t xml:space="preserve">CN DRAGUIGNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT TOULON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMSL FRÉJUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US ST-TROPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC HYÈRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON VAR NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.S DRAGUIGNAN NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB NAGEURS CARPENTRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT-NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRITON CLUB CAVAILLONNAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS ORANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIC CLUB ISLOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION SPORTIVE PONTET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN PORTES DE PROVENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION SPORT.NAT.VEDENAISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS D'AVIGNON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERTUIS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUA SORGUES RHONE OUVEZE</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC CANNES</t>
   </si>
   <si>
@@ -51,72 +208,72 @@
     <t xml:space="preserve">NICE NICAEA WATER-POLO</t>
   </si>
   <si>
+    <t xml:space="preserve">AS MONACO NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN ANTIBES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN CANNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE LA SEMEUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN MENTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARROS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS GRASSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS VALLAURIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLUB OMNISPORTS DE VALBONNE</t>
   </si>
   <si>
-    <t xml:space="preserve">AS MONACO NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN DRAGUIGNAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT NICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN ANTIBES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN CANNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE LA SEMEUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOULON VAR NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMSL FRÉJUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN MENTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US ST-TROPEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARROS NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC HYÈRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPHINS GRASSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS VALLAURIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT TOULON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.S DRAGUIGNAN NATATION</t>
-  </si>
-  <si>
     <t xml:space="preserve">AQUATIC CLUB DE MENTON</t>
   </si>
   <si>
+    <t xml:space="preserve">GEMENOS NATATION DES MAITRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USC GDE BASTIDE MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G S E M NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA SEYNE NATATION AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPM NATATION AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT ANDRE NATATION AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXESPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROQUEBRUNE CAP MARTIN NATATION SYNCHRONISEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB SPORTIF ET ARTISTIQUE MEDITERRANEE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poste</t>
   </si>
   <si>
@@ -783,25 +940,172 @@
     <t xml:space="preserve">Trophée Régional Lucien-Zins     </t>
   </si>
   <si>
-    <t xml:space="preserve">Interclubs Régional Benjamins (plot 1)</t>
+    <t xml:space="preserve">Interclubs Régional Benjamins (plot 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Départemental Benjamins (plot 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales diverses par équipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Départementales diverses par équipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Régionales par équipe de sélection départementale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Départemental Interclubs des maîtres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Internationales diverses de référence nationale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Nationales diverses de référence nationale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions Interrégionales diverses de référence nationale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compétitions qualificatives aux différents Championnats de France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Régional 10 ans et moins</t>
   </si>
   <si>
     <t xml:space="preserve">Finale Régionale Natathlon 10 ans et moins</t>
   </si>
   <si>
+    <t xml:space="preserve">Natathlon Départemental 10 ans et moins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Départementale Natathlon 10 ans et moins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Départemental 11 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Départementale Natathlon 11 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Régional 11 ans</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finale Régionale Natathlon 11 ans</t>
   </si>
   <si>
-    <t xml:space="preserve">Compétitions Régionales diverses</t>
+    <t xml:space="preserve">Interclubs Régional 11 ans et moins (plot 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Régional 12-13 ans</t>
   </si>
   <si>
     <t xml:space="preserve">Trophée Régional Lucien-Zins</t>
   </si>
   <si>
-    <t xml:space="preserve">Meeting International (circuit FFN - Golden tour)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autre.       </t>
+    <t xml:space="preserve">Interclubs Départemental 11 ans et moins (plot 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon Départemental 12-13 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France 15 ans et moins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Cadets et Critérium national 16 ans et plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting International (circuit FFN Golden tour - Camille MUFFAT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 2 en petit bassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Régional 11 ans et moins (plot 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs Départemental 11 ans et moins (plot 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale Départementale Natathlon 12-13 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe de France des Régions - Trophée Jean-POMMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Promotionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Filles 15 ans et moins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critérium National été Open Filles 16 ans et plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critérium National Promotionnel d'été</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 2 Hiver Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 2 Printemps Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs régionaux Avenirs en bassin de 25m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon régional Avenirs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale régionale Natathlon Avenirs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs régionaux Jeunes en bassin de 25m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon régional Jeunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats régionaux en bassin de 25m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats régionaux d'été qualificatifs Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs départementaux Avenirs en bassin de 25m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interclubs départementaux Jeunes en bassin de 25m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon départemental Avenirs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finale départementale Natathlon Avenirs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natathlon départemental Jeunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophée départemental Lucien-ZINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de France Cadets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critériums Nationaux 18 ans et plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coupe de la COMEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gymnasiades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats N2 Hiver Q1 (avec épreuve suppplémentaire)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 2 Hiver Q1 (Dom-Tom)</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -1690,16 +1994,27 @@
   </si>
   <si>
     <t xml:space="preserve">Épreuve supprimée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prénom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAGIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antibes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -1783,6 +2098,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1803,16 +2122,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1840,313 +2155,922 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>83</v>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>1009</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>83</v>
+        <v>2273</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>278</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>115</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>433</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>192</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>496</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>332</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>528</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>1460</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>83</v>
+        <v>403</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>687</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>83</v>
+        <v>578</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>948</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>83</v>
+        <v>744</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>961</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
+        <v>870</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>83</v>
+        <v>890</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
+        <v>895</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
+        <v>932</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1467</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1489</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1506</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1572</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2443</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>2547</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>635</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>687</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>948</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>1116</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5" t="n">
+      <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="6" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>1124</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5" t="n">
+      <c r="B39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="6" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1460</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2549</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>482</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>768</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>902</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>496</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>528</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>961</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>1131</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="B62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>1209</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="B63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>1243</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="B64" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>1457</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>635</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="n">
+      <c r="B65" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>2697</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>2460</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>645</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>561</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>2827</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>2825</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>2823</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>2381</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>1459</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>2305</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1" t="n">
         <v>83</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>2549</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>2697</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>194264</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>433</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>658</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2156,36 +3080,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9336734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.20408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2193,13 +3118,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2207,10 +3132,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2218,16 +3143,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2235,16 +3160,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2252,13 +3177,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2266,16 +3191,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2283,16 +3208,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2300,16 +3225,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2317,16 +3242,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2334,16 +3259,16 @@
         <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2351,16 +3276,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2368,7 +3293,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>101</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2376,13 +3310,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2390,13 +3324,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2404,13 +3338,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2418,13 +3352,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2432,13 +3366,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,7 +3380,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,7 +3388,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,13 +3396,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,7 +3410,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,16 +3418,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,19 +3435,33 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>38</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
@@ -2528,34 +3476,35 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="B2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,10 +3512,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="B3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2574,10 +3523,10 @@
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="4" t="n">
+      <c r="B4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2585,10 +3534,10 @@
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="n">
+      <c r="B5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2596,10 +3545,10 @@
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="n">
+      <c r="B6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2607,10 +3556,10 @@
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="n">
+      <c r="B7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2618,10 +3567,10 @@
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="4" t="n">
+      <c r="B8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,7 +3582,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
@@ -2648,22 +3597,23 @@
   </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2671,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,7 +3637,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,7 +3645,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,7 +3661,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,7 +3669,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,7 +3677,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,7 +3685,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,7 +3693,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2751,7 +3701,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,7 +3709,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2767,7 +3717,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2775,7 +3725,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,7 +3733,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2791,7 +3741,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,7 +3749,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2807,7 +3757,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2815,7 +3765,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2823,7 +3773,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,7 +3781,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,7 +3789,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,7 +3797,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,7 +3805,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2863,7 +3813,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2871,7 +3821,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,7 +3829,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,7 +3837,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,13 +3845,13 @@
         <v>70</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -2916,26 +3866,27 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,10 +3894,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,10 +3905,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2965,10 +3916,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2976,10 +3927,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2987,10 +3938,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,10 +3949,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,10 +3960,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,10 +3971,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,10 +3982,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,10 +3993,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,10 +4004,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,10 +4015,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,10 +4026,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,10 +4037,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,10 +4048,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,10 +4059,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,10 +4070,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,10 +4081,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,10 +4092,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,10 +4103,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,10 +4114,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,10 +4125,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,10 +4136,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3196,10 +4147,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,10 +4158,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,10 +4169,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,10 +4180,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,10 +4191,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,16 +4202,16 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -3275,31 +4226,33 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>132</v>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,15 +4260,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="6" t="n">
+        <v>185</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3324,15 +4277,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="6" t="n">
+        <v>186</v>
+      </c>
+      <c r="C3" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3341,15 +4294,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="6" t="n">
+        <v>187</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,15 +4311,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="6" t="n">
+        <v>188</v>
+      </c>
+      <c r="C5" s="8" t="n">
         <v>4.6</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="8" t="n">
         <v>45</v>
       </c>
     </row>
@@ -3375,22 +4328,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="6" t="n">
+        <v>189</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="8" t="n">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -3403,29 +4356,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B124" activeCellId="0" sqref="B124"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="56.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
+      <c r="B1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -3444,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -3455,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -3466,7 +4421,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -3477,7 +4432,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -3488,7 +4443,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -3499,7 +4454,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -3510,7 +4465,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -3521,7 +4476,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -3532,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -3543,7 +4498,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -3554,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -3565,7 +4520,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -3576,19 +4531,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -3599,7 +4553,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4</v>
@@ -3610,7 +4564,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
@@ -3621,7 +4575,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -3632,7 +4586,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
@@ -3643,7 +4597,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
@@ -3654,7 +4608,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
@@ -3665,7 +4619,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -3676,7 +4630,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5</v>
@@ -3687,7 +4641,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -3698,7 +4652,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2</v>
@@ -3709,7 +4663,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2</v>
@@ -3720,7 +4674,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -3731,7 +4685,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2</v>
@@ -3742,7 +4696,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
@@ -3753,7 +4707,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>4</v>
@@ -3764,7 +4718,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>4</v>
@@ -3775,7 +4729,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>4</v>
@@ -3786,7 +4740,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>4</v>
@@ -3797,7 +4751,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -3808,7 +4762,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
@@ -3819,7 +4773,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>4</v>
@@ -3830,7 +4784,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5</v>
@@ -3841,7 +4795,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>5</v>
@@ -3852,7 +4806,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>5</v>
@@ -3863,7 +4817,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>5</v>
@@ -3874,7 +4828,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>5</v>
@@ -3885,7 +4839,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -3896,7 +4850,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
@@ -3907,7 +4861,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
@@ -3918,7 +4872,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
@@ -3929,7 +4883,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
@@ -3940,7 +4894,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -3951,7 +4905,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
@@ -3962,7 +4916,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
@@ -3973,7 +4927,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>4</v>
@@ -3984,7 +4938,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>4</v>
@@ -3995,7 +4949,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>4</v>
@@ -4006,7 +4960,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>4</v>
@@ -4017,7 +4971,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
@@ -4028,7 +4982,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>5</v>
@@ -4039,7 +4993,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>5</v>
@@ -4050,7 +5004,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>5</v>
@@ -4061,7 +5015,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
@@ -4072,7 +5026,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
@@ -4083,7 +5037,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
@@ -4094,7 +5048,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -4105,7 +5059,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1</v>
@@ -4116,7 +5070,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2</v>
@@ -4127,7 +5081,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2</v>
@@ -4138,7 +5092,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>4</v>
@@ -4149,7 +5103,7 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2</v>
@@ -4160,7 +5114,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3</v>
@@ -4171,7 +5125,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2</v>
@@ -4182,7 +5136,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>4</v>
@@ -4193,7 +5147,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>5</v>
@@ -4204,7 +5158,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2</v>
@@ -4215,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
@@ -4226,7 +5180,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
@@ -4237,7 +5191,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2</v>
@@ -4248,7 +5202,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>3</v>
@@ -4259,7 +5213,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>4</v>
@@ -4270,7 +5224,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>5</v>
@@ -4281,7 +5235,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
@@ -4292,7 +5246,7 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>4</v>
@@ -4303,7 +5257,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>5</v>
@@ -4314,7 +5268,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>5</v>
@@ -4325,7 +5279,7 @@
         <v>93</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2</v>
@@ -4336,7 +5290,7 @@
         <v>94</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>4</v>
@@ -4347,7 +5301,7 @@
         <v>95</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4</v>
@@ -4358,7 +5312,7 @@
         <v>96</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>3</v>
@@ -4369,7 +5323,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>5</v>
@@ -4380,7 +5334,7 @@
         <v>98</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -4391,7 +5345,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>1</v>
@@ -4402,7 +5356,7 @@
         <v>100</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>3</v>
@@ -4413,7 +5367,7 @@
         <v>101</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>4</v>
@@ -4424,7 +5378,7 @@
         <v>102</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>4</v>
@@ -4435,7 +5389,7 @@
         <v>103</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2</v>
@@ -4446,7 +5400,7 @@
         <v>104</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2</v>
@@ -4457,7 +5411,7 @@
         <v>105</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>1</v>
@@ -4468,7 +5422,7 @@
         <v>106</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
@@ -4479,7 +5433,7 @@
         <v>107</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3</v>
@@ -4490,7 +5444,7 @@
         <v>108</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3</v>
@@ -4501,7 +5455,7 @@
         <v>109</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>3</v>
@@ -4512,7 +5466,7 @@
         <v>110</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>4</v>
@@ -4523,7 +5477,7 @@
         <v>111</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>4</v>
@@ -4534,7 +5488,7 @@
         <v>112</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>4</v>
@@ -4545,7 +5499,7 @@
         <v>113</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>4</v>
@@ -4556,7 +5510,7 @@
         <v>114</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>4</v>
@@ -4567,7 +5521,7 @@
         <v>115</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>5</v>
@@ -4578,7 +5532,7 @@
         <v>116</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>5</v>
@@ -4589,7 +5543,7 @@
         <v>117</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>5</v>
@@ -4600,7 +5554,7 @@
         <v>118</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>5</v>
@@ -4611,7 +5565,7 @@
         <v>119</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>5</v>
@@ -4622,7 +5576,7 @@
         <v>120</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>4</v>
@@ -4633,7 +5587,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>4</v>
@@ -4644,7 +5598,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>4</v>
@@ -4655,7 +5609,7 @@
         <v>123</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>4</v>
@@ -4666,7 +5620,7 @@
         <v>124</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>5</v>
@@ -4677,7 +5631,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>5</v>
@@ -4688,7 +5642,7 @@
         <v>126</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>3</v>
@@ -4699,7 +5653,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>4</v>
@@ -4709,8 +5663,8 @@
       <c r="A118" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>251</v>
+      <c r="B118" s="0" t="s">
+        <v>303</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>4</v>
@@ -4718,21 +5672,21 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>252</v>
+        <v>129</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>304</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>253</v>
+        <v>130</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>305</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>4</v>
@@ -4740,21 +5694,21 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
-        <v>161</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>254</v>
+        <v>131</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>306</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
-        <v>163</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>255</v>
+        <v>132</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>307</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>4</v>
@@ -4762,30 +5716,569 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
-        <v>173</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>256</v>
+        <v>133</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>308</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="C124" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C130" s="0" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -4800,23 +6293,23 @@
   </sheetPr>
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +6317,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>260</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>261</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,7 +6333,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>262</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,7 +6341,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>263</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +6349,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>264</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +6357,7 @@
         <v>250</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>265</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,7 +6365,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>266</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,7 +6373,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,7 +6381,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>268</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4896,7 +6389,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>269</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,7 +6397,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,7 +6405,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,7 +6413,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>272</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +6421,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>273</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +6429,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>274</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +6437,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>275</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +6445,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>276</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +6453,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>277</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +6461,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>278</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +6469,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +6477,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>280</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,7 +6485,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>281</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,7 +6493,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>282</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,7 +6501,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>283</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,7 +6509,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>284</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +6517,7 @@
         <v>252</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>285</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +6525,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>286</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +6533,7 @@
         <v>283</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>287</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +6541,7 @@
         <v>289</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>288</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,7 +6549,7 @@
         <v>295</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>289</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +6557,7 @@
         <v>301</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>290</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +6565,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +6573,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>292</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,7 +6581,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>293</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +6589,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>294</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +6597,7 @@
         <v>254</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>295</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +6605,7 @@
         <v>111</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>296</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +6613,7 @@
         <v>256</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +6621,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +6629,7 @@
         <v>258</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +6637,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,7 +6645,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>301</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +6653,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +6661,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +6669,7 @@
         <v>271</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>304</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +6677,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>305</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +6685,7 @@
         <v>265</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +6693,7 @@
         <v>243</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,7 +6701,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +6709,7 @@
         <v>277</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +6717,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,7 +6725,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,7 +6733,7 @@
         <v>305</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>312</v>
+        <v>413</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,7 +6741,7 @@
         <v>150</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,7 +6749,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>314</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,7 +6757,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>315</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5272,7 +6765,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>316</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5280,7 +6773,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>317</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +6781,7 @@
         <v>249</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>318</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,7 +6789,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>319</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +6797,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>320</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,7 +6805,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>321</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5320,7 +6813,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>322</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,7 +6821,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>323</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,7 +6829,7 @@
         <v>160</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>324</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +6837,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>325</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,7 +6845,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>326</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,7 +6853,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>327</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,7 +6861,7 @@
         <v>170</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>328</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +6869,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>329</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +6877,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>330</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +6885,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>331</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +6893,7 @@
         <v>180</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>332</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +6901,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>333</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,7 +6909,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>334</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,7 +6917,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>335</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +6925,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>336</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,7 +6933,7 @@
         <v>91</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>337</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,7 +6941,7 @@
         <v>251</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>338</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,7 +6949,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>339</v>
+        <v>440</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +6957,7 @@
         <v>281</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>340</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +6965,7 @@
         <v>287</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>341</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,7 +6973,7 @@
         <v>293</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>342</v>
+        <v>443</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +6981,7 @@
         <v>299</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>343</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +6989,7 @@
         <v>58</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>344</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,7 +6997,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>345</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +7005,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>346</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +7013,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>347</v>
+        <v>448</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,7 +7021,7 @@
         <v>253</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>348</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,7 +7029,7 @@
         <v>161</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>349</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +7037,7 @@
         <v>255</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>350</v>
+        <v>451</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +7045,7 @@
         <v>171</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>351</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,7 +7053,7 @@
         <v>257</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>352</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,7 +7061,7 @@
         <v>181</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>353</v>
+        <v>454</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,7 +7069,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>354</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +7077,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>355</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5592,7 +7085,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>356</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,7 +7093,7 @@
         <v>273</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>357</v>
+        <v>458</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,7 +7101,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>358</v>
+        <v>459</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,7 +7109,7 @@
         <v>266</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,7 +7117,7 @@
         <v>244</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>360</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,7 +7125,7 @@
         <v>64</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>361</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,7 +7133,7 @@
         <v>275</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>362</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,7 +7141,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>363</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +7149,7 @@
         <v>95</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>364</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +7157,7 @@
         <v>304</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>365</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +7165,7 @@
         <v>200</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,7 +7173,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>367</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +7181,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>368</v>
+        <v>469</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +7189,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>369</v>
+        <v>470</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +7197,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>370</v>
+        <v>471</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +7205,7 @@
         <v>262</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>371</v>
+        <v>472</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +7213,7 @@
         <v>205</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>372</v>
+        <v>473</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +7221,7 @@
         <v>207</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>373</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,7 +7229,7 @@
         <v>206</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>374</v>
+        <v>475</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +7237,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>375</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,7 +7245,7 @@
         <v>215</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>376</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +7253,7 @@
         <v>210</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>377</v>
+        <v>478</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,7 +7261,7 @@
         <v>211</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,7 +7269,7 @@
         <v>212</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5784,7 +7277,7 @@
         <v>213</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>380</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,7 +7285,7 @@
         <v>220</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>381</v>
+        <v>482</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5800,7 +7293,7 @@
         <v>221</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>382</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5808,7 +7301,7 @@
         <v>222</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5816,7 +7309,7 @@
         <v>223</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>384</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5824,7 +7317,7 @@
         <v>230</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5832,7 +7325,7 @@
         <v>231</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>386</v>
+        <v>487</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +7333,7 @@
         <v>232</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>387</v>
+        <v>488</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,7 +7341,7 @@
         <v>233</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>388</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,7 +7349,7 @@
         <v>240</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>389</v>
+        <v>490</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,7 +7357,7 @@
         <v>241</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>390</v>
+        <v>491</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,7 +7365,7 @@
         <v>263</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>391</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5880,7 +7373,7 @@
         <v>242</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>392</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5888,7 +7381,7 @@
         <v>285</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>393</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +7389,7 @@
         <v>291</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>394</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,7 +7397,7 @@
         <v>297</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>395</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5912,7 +7405,7 @@
         <v>303</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>396</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,7 +7413,7 @@
         <v>86</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>397</v>
+        <v>498</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,7 +7421,7 @@
         <v>87</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>398</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5936,7 +7429,7 @@
         <v>88</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>399</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5944,7 +7437,7 @@
         <v>34</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>400</v>
+        <v>501</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5952,7 +7445,7 @@
         <v>259</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>401</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,7 +7453,7 @@
         <v>246</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>402</v>
+        <v>503</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5968,7 +7461,7 @@
         <v>260</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>403</v>
+        <v>504</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,7 +7469,7 @@
         <v>247</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,7 +7477,7 @@
         <v>261</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>405</v>
+        <v>506</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5992,7 +7485,7 @@
         <v>248</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>406</v>
+        <v>507</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,7 +7493,7 @@
         <v>38</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>407</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6008,7 +7501,7 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>408</v>
+        <v>509</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +7509,7 @@
         <v>36</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>409</v>
+        <v>510</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,7 +7517,7 @@
         <v>269</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>410</v>
+        <v>511</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6032,7 +7525,7 @@
         <v>35</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>411</v>
+        <v>512</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,7 +7533,7 @@
         <v>267</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>412</v>
+        <v>513</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,7 +7541,7 @@
         <v>245</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>413</v>
+        <v>514</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6056,7 +7549,7 @@
         <v>214</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>414</v>
+        <v>515</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,7 +7557,7 @@
         <v>279</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>415</v>
+        <v>516</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,7 +7565,7 @@
         <v>84</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>416</v>
+        <v>517</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6080,7 +7573,7 @@
         <v>85</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>417</v>
+        <v>518</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6088,13 +7581,13 @@
         <v>264</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>418</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -6109,26 +7602,26 @@
   </sheetPr>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>419</v>
+        <v>520</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>420</v>
+        <v>521</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>421</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6136,10 +7629,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>422</v>
+        <v>523</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>423</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,10 +7640,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>424</v>
+        <v>525</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>425</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,10 +7651,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>426</v>
+        <v>527</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>427</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6169,10 +7662,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>428</v>
+        <v>529</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>429</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,10 +7673,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>430</v>
+        <v>531</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>431</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,10 +7684,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>432</v>
+        <v>533</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>433</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6202,10 +7695,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>434</v>
+        <v>535</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>435</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,10 +7706,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>436</v>
+        <v>537</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>437</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6224,10 +7717,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>438</v>
+        <v>539</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>439</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,10 +7728,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>440</v>
+        <v>541</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>441</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6246,10 +7739,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>442</v>
+        <v>543</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>443</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,10 +7750,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>444</v>
+        <v>545</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>445</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6268,10 +7761,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>446</v>
+        <v>547</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>447</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,10 +7772,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>448</v>
+        <v>549</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>449</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,10 +7783,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>450</v>
+        <v>551</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>451</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,10 +7794,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>452</v>
+        <v>553</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>453</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6312,10 +7805,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>454</v>
+        <v>555</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>455</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6323,10 +7816,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>457</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6334,10 +7827,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>458</v>
+        <v>559</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>459</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,10 +7838,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>460</v>
+        <v>561</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>461</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6356,10 +7849,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>462</v>
+        <v>563</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>463</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6367,10 +7860,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>464</v>
+        <v>565</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>465</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,10 +7871,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>466</v>
+        <v>567</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>467</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,10 +7882,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>468</v>
+        <v>569</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>469</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6400,10 +7893,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>470</v>
+        <v>571</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>471</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,10 +7904,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>472</v>
+        <v>573</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>473</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,10 +7915,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>474</v>
+        <v>575</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>475</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6433,10 +7926,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>476</v>
+        <v>577</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>477</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6444,10 +7937,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>478</v>
+        <v>579</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>479</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6455,10 +7948,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>480</v>
+        <v>581</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>481</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6466,10 +7959,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>482</v>
+        <v>583</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>483</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6477,10 +7970,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>484</v>
+        <v>585</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>485</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6488,10 +7981,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>486</v>
+        <v>587</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>487</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,10 +7992,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>488</v>
+        <v>589</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>489</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6510,10 +8003,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>490</v>
+        <v>591</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6521,10 +8014,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>492</v>
+        <v>593</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>493</v>
+        <v>594</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,10 +8025,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>495</v>
+        <v>596</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,10 +8036,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>496</v>
+        <v>597</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>497</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6554,10 +8047,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>498</v>
+        <v>599</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>499</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,10 +8058,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>500</v>
+        <v>601</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>501</v>
+        <v>602</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6576,10 +8069,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>502</v>
+        <v>603</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>503</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6587,10 +8080,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>504</v>
+        <v>605</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>505</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6598,10 +8091,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>506</v>
+        <v>607</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>507</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6609,10 +8102,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>508</v>
+        <v>609</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>509</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6620,10 +8113,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>510</v>
+        <v>611</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>511</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,10 +8124,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>512</v>
+        <v>613</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>513</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6642,10 +8135,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>514</v>
+        <v>615</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>515</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6653,10 +8146,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>516</v>
+        <v>617</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>517</v>
+        <v>618</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6664,10 +8157,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>518</v>
+        <v>619</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>519</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6675,10 +8168,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>520</v>
+        <v>621</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>521</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6686,10 +8179,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>522</v>
+        <v>623</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>523</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6697,10 +8190,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>524</v>
+        <v>625</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>525</v>
+        <v>626</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6708,10 +8201,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>526</v>
+        <v>627</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>527</v>
+        <v>628</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,10 +8212,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>528</v>
+        <v>629</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>529</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,10 +8223,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>530</v>
+        <v>631</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>531</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,10 +8234,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>532</v>
+        <v>633</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>533</v>
+        <v>634</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6752,10 +8245,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>534</v>
+        <v>635</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>535</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,10 +8256,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>536</v>
+        <v>637</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>537</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6774,10 +8267,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>538</v>
+        <v>639</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>539</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6785,10 +8278,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>540</v>
+        <v>641</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>541</v>
+        <v>642</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6796,10 +8289,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>542</v>
+        <v>643</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>543</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,10 +8300,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>544</v>
+        <v>645</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>545</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6818,10 +8311,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>546</v>
+        <v>647</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>547</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6829,10 +8322,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>548</v>
+        <v>649</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>549</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6840,10 +8333,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>551</v>
+        <v>652</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6851,16 +8344,16 @@
         <v>67</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>552</v>
+        <v>653</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>553</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,238 +40,238 @@
     <t xml:space="preserve">Département</t>
   </si>
   <si>
+    <t xml:space="preserve">A.S DRAGUIGNAN NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC CANNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC HYÈRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMSL FRÉJUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT-NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUA SORGUES RHONE OUVEZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUATIC CLUB ALLAUDIEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUATIC CLUB DE MENTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS MONACO NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT TOULON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUBAGNE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXESPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. N. DU PUY ST REPARADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARROS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELTIC DE MARSEILLE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CER. SPO. MUNI. MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE D'ACTIVITES AQUATIQUES DE PROVENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE DES NAGEURS DE GAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS CIOTADENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS D'AVIGNON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS ORANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB DE NATATION DIGNOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB DES NAGEURS SALONAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB NAGEURS CARPENTRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB OMNISPORTS DE VALBONNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB SPORTIF ET ARTISTIQUE MEDITERRANEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN ANTIBES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN CANNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN DRAGUIGNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN ETANG DE BERRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN MENTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN PORTES DE PROVENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS VALLAURIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS EMBRUNAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS GRASSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS PENNES MIRABEAU</t>
+  </si>
+  <si>
     <t xml:space="preserve">E.P. DE MANOSQUE</t>
   </si>
   <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB DE NATATION DIGNOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE DES NAGEURS DE GAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
+    <t xml:space="preserve">FOS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G S E M NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEMENOS NATATION DES MAITRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISTRES SPORT NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'ARGENTIERE ECRINS AQUATIC CLUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA SEYNE NATATION AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIGNANE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIGUES NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATATION MARSEILLE NORD</t>
   </si>
   <si>
     <t xml:space="preserve">NAUTIC CLUB BRIANCON</t>
   </si>
   <si>
-    <t xml:space="preserve">DAUPHINS EMBRUNAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'ARGENTIERE ECRINS AQUATIC CLUB</t>
+    <t xml:space="preserve">NAUTIC CLUB DE LA CRAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIC CLUB ISLOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIL CLUB BOUCAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE LA SEMEUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE NICAEA WATER-POLO</t>
   </si>
   <si>
     <t xml:space="preserve">O TONIC</t>
   </si>
   <si>
-    <t xml:space="preserve">CERCLE NAGEURS MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE NAGEURS CIOTADENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB DES NAGEURS SALONAIS</t>
+    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYS D'AIX NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERTUIS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGNAC NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROQUEBRUNE CAP MARTIN NATATION SYNCHRONISEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT ANDRE NATATION AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON VAR NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON WATER-POLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPM NATATION AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRITON CLUB CAVAILLONNAIS</t>
   </si>
   <si>
     <t xml:space="preserve">UNION NAGEURS ARLESIENS</t>
   </si>
   <si>
-    <t xml:space="preserve">ISTRES SPORT NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOS NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CER. SPO. MUNI. MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPHINS PENNES MIRABEAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAUTIC CLUB DE LA CRAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATATION MARSEILLE NORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIGUES NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. N. DU PUY ST REPARADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUATIC CLUB ALLAUDIEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAUTIL CLUB BOUCAIN</t>
+    <t xml:space="preserve">UNION SPORT.NAT.VEDENAISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION SPORTIVE PONTET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US ST-TROPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USC GDE BASTIDE MARSEILLE</t>
   </si>
   <si>
     <t xml:space="preserve">VITROLLES SPORT NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN ETANG DE BERRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUBAGNE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELTIC DE MARSEILLE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE D'ACTIVITES AQUATIQUES DE PROVENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYS D'AIX NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROGNAC NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIGNANE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOULON WATER-POLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN DRAGUIGNAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT TOULON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMSL FRÉJUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US ST-TROPEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC HYÈRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOULON VAR NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.S DRAGUIGNAN NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB NAGEURS CARPENTRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT-NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRITON CLUB CAVAILLONNAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE NAGEURS ORANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAUTIC CLUB ISLOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNION SPORTIVE PONTET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN PORTES DE PROVENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNION SPORT.NAT.VEDENAISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE NAGEURS D'AVIGNON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERTUIS NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUA SORGUES RHONE OUVEZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC CANNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE NICAEA WATER-POLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS MONACO NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT NICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN ANTIBES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN CANNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE LA SEMEUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN MENTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARROS NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPHINS GRASSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS VALLAURIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB OMNISPORTS DE VALBONNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUATIC CLUB DE MENTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEMENOS NATATION DES MAITRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USC GDE BASTIDE MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G S E M NICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA SEYNE NATATION AZUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPM NATATION AZUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT ANDRE NATATION AZUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AXESPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROQUEBRUNE CAP MARTIN NATATION SYNCHRONISEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB SPORTIF ET ARTISTIQUE MEDITERRANEE</t>
   </si>
   <si>
     <t xml:space="preserve">Poste</t>
@@ -2016,13 +2016,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2041,22 +2040,126 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2064,8 +2167,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2092,6 +2210,54 @@
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2102,15 +2268,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2130,7 +2296,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2139,14 +2305,90 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2157,11 +2399,11 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.88"/>
@@ -2182,76 +2424,76 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>430</v>
-      </c>
-      <c r="B2" s="0" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>953</v>
-      </c>
-      <c r="B3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>293</v>
-      </c>
-      <c r="B4" s="0" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="C4" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>745</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>1009</v>
+        <v>411</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>2273</v>
+        <v>2041</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>115</v>
+        <v>1217</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>13</v>
@@ -2259,43 +2501,43 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>13</v>
+        <v>2697</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>332</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>13</v>
+        <v>687</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>380</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>403</v>
+        <v>332</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>13</v>
@@ -2303,32 +2545,32 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>578</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>13</v>
+        <v>278</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>744</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>13</v>
+        <v>635</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>870</v>
+        <v>1506</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>13</v>
@@ -2336,21 +2578,21 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>890</v>
+        <v>2381</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>895</v>
+        <v>1166</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>13</v>
@@ -2358,21 +2600,21 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>932</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>13</v>
+        <v>1062</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>1119</v>
+        <v>1572</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>13</v>
@@ -2380,10 +2622,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>1154</v>
+        <v>890</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>13</v>
@@ -2391,10 +2633,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>1166</v>
+        <v>2399</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>13</v>
@@ -2402,18 +2644,18 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>1217</v>
+        <v>293</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>1412</v>
+        <v>380</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>26</v>
@@ -2424,18 +2666,18 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>1467</v>
+        <v>1266</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>1489</v>
+        <v>192</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>28</v>
@@ -2446,32 +2688,32 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>1506</v>
+        <v>482</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>1572</v>
+        <v>953</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>13</v>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>2399</v>
+        <v>403</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>13</v>
@@ -2479,65 +2721,65 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>2403</v>
+        <v>236</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>2443</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>13</v>
+        <v>2506</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>2547</v>
+        <v>2305</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="6" t="n">
-        <v>83</v>
+        <v>36</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>202</v>
+        <v>496</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="6" t="n">
-        <v>83</v>
+        <v>37</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>635</v>
+        <v>202</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>83</v>
@@ -2545,464 +2787,464 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>687</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="6" t="n">
-        <v>83</v>
+        <v>1489</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>948</v>
+        <v>961</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="6" t="n">
-        <v>83</v>
+        <v>40</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="6" t="n">
-        <v>83</v>
+        <v>1013</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>1116</v>
+        <v>1243</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="6" t="n">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="6" t="n">
-        <v>83</v>
+        <v>1009</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>1460</v>
+        <v>1131</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="6" t="n">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>2549</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="6" t="n">
-        <v>83</v>
+        <v>895</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>236</v>
+        <v>430</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>411</v>
+        <v>870</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>443</v>
+        <v>561</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>482</v>
+        <v>2460</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>902</v>
+        <v>2273</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>84</v>
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>51</v>
+        <v>2827</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>1218</v>
+        <v>2547</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>1266</v>
+        <v>1154</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>1322</v>
+        <v>1119</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>2041</v>
+        <v>745</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="1" t="n">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>57</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>1575</v>
-      </c>
-      <c r="B54" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>57</v>
+      <c r="C54" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="B55" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>57</v>
+      <c r="C55" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>433</v>
+        <v>1575</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>496</v>
-      </c>
-      <c r="B58" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>57</v>
+      <c r="C58" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>528</v>
+        <v>1209</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>961</v>
-      </c>
-      <c r="B60" s="5" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>57</v>
+      <c r="C60" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B61" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>57</v>
+      <c r="C61" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B62" s="5" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>57</v>
+      <c r="C62" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>1209</v>
-      </c>
-      <c r="B63" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>1243</v>
-      </c>
-      <c r="B64" s="5" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>57</v>
+      <c r="C64" s="1" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>1457</v>
+        <v>1116</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>57</v>
+      <c r="C65" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>2506</v>
+        <v>1457</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>2697</v>
+        <v>1460</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>57</v>
+      <c r="C67" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>2460</v>
-      </c>
-      <c r="B68" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="1" t="n">
-        <v>13</v>
+      <c r="C68" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>645</v>
+        <v>2825</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>561</v>
+        <v>443</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>57</v>
+      <c r="C70" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>2827</v>
-      </c>
-      <c r="B71" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>2825</v>
+        <v>1218</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>2823</v>
+        <v>902</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>2381</v>
-      </c>
-      <c r="B74" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>99</v>
+      <c r="C74" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>1459</v>
-      </c>
-      <c r="B75" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>57</v>
+      <c r="C75" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>2305</v>
+        <v>1467</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3027,7 +3269,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
@@ -3082,11 +3324,11 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
@@ -3480,7 +3722,7 @@
       <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
@@ -3601,7 +3843,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -3870,7 +4112,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
@@ -4230,7 +4472,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
@@ -4362,7 +4604,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.82"/>
@@ -6297,7 +6539,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
@@ -7606,7 +7848,7 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.41"/>

--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,8 +16,9 @@
     <sheet name="Niveau compétitions" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Types compétitions" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Nages" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Disqualifications" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Changement Club" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Grilles" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Disqualifications" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Changement Club" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="687">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -40,240 +41,240 @@
     <t xml:space="preserve">Département</t>
   </si>
   <si>
+    <t xml:space="preserve">E.P. DE MANOSQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB DE NATATION DIGNOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE DES NAGEURS DE GAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIC CLUB BRIANCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS EMBRUNAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'ARGENTIERE ECRINS AQUATIC CLUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O TONIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS CIOTADENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB DES NAGEURS SALONAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION NAGEURS ARLESIENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISTRES SPORT NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CER. SPO. MUNI. MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS PENNES MIRABEAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIC CLUB DE LA CRAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATATION MARSEILLE NORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIGUES NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C. N. DU PUY ST REPARADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUATIC CLUB ALLAUDIEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIL CLUB BOUCAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITROLLES SPORT NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN ETANG DE BERRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUBAGNE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELTIC DE MARSEILLE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE D'ACTIVITES AQUATIQUES DE PROVENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYS D'AIX NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROGNAC NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIGNANE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON WATER-POLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN DRAGUIGNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT TOULON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMSL FRÉJUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US ST-TROPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC HYÈRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOULON VAR NATATION</t>
+  </si>
+  <si>
     <t xml:space="preserve">A.S DRAGUIGNAN NATATION</t>
   </si>
   <si>
+    <t xml:space="preserve">CLUB NAGEURS CARPENTRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APT-NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRITON CLUB CAVAILLONNAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS ORANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAUTIC CLUB ISLOIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION SPORTIVE PONTET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN PORTES DE PROVENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION SPORT.NAT.VEDENAISE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CERCLE NAGEURS D'AVIGNON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERTUIS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUA SORGUES RHONE OUVEZE</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC CANNES</t>
   </si>
   <si>
     <t xml:space="preserve">06</t>
   </si>
   <si>
-    <t xml:space="preserve">AC HYÈRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMSL FRÉJUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APT-NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUA SORGUES RHONE OUVEZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUATIC CLUB ALLAUDIEN</t>
+    <t xml:space="preserve">NICE NICAEA WATER-POLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS MONACO NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN ANTIBES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN CANNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE LA SEMEUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN MENTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARROS NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAUPHINS GRASSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNS VALLAURIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB OMNISPORTS DE VALBONNE</t>
   </si>
   <si>
     <t xml:space="preserve">AQUATIC CLUB DE MENTON</t>
   </si>
   <si>
-    <t xml:space="preserve">AS CACHALOTS SIX-FOURS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS MONACO NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT NICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT TOULON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUBAGNE NATATION</t>
+    <t xml:space="preserve">GEMENOS NATATION DES MAITRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USC GDE BASTIDE MARSEILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G S E M NICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA SEYNE NATATION AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPM NATATION AZUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAINT ANDRE NATATION AZUR</t>
   </si>
   <si>
     <t xml:space="preserve">AXESPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">C. N. DU PUY ST REPARADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARROS NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELTIC DE MARSEILLE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CER. SPO. MUNI. MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE D'ACTIVITES AQUATIQUES DE PROVENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE DES NAGEURS DE GAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE NAGEURS CIOTADENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE NAGEURS D'AVIGNON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE NAGEURS MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERCLE NAGEURS ORANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB DE NATATION DIGNOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB DES NAGEURS SALONAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB NAGEURS CARPENTRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLUB OMNISPORTS DE VALBONNE</t>
+    <t xml:space="preserve">ROQUEBRUNE CAP MARTIN NATATION SYNCHRONISEE</t>
   </si>
   <si>
     <t xml:space="preserve">CLUB SPORTIF ET ARTISTIQUE MEDITERRANEE</t>
   </si>
   <si>
-    <t xml:space="preserve">CN ANTIBES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN CANNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN DRAGUIGNAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN ETANG DE BERRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN MENTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN PORTES DE PROVENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNS VALLAURIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPHINS EMBRUNAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPHINS GRASSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAUPHINS PENNES MIRABEAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.P. DE MANOSQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOS NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G S E M NICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEMENOS NATATION DES MAITRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISTRES SPORT NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'ARGENTIERE ECRINS AQUATIC CLUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA SEYNE NATATION AZUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIGNANE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIGUES NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATATION MARSEILLE NORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAUTIC CLUB BRIANCON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAUTIC CLUB DE LA CRAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAUTIC CLUB ISLOIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAUTIL CLUB BOUCAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE LA SEMEUSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NICE NICAEA WATER-POLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O TONIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLYMPIC NICE NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYS D'AIX NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERTUIS NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROGNAC NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROQUEBRUNE CAP MARTIN NATATION SYNCHRONISEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT ANDRE NATATION AZUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT-RAPHAEL NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STADE ST-LAURENT-DU-VAR NAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOULON VAR NATATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOULON WATER-POLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPM NATATION AZUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRITON CLUB CAVAILLONNAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNION NAGEURS ARLESIENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNION SPORT.NAT.VEDENAISE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNION SPORTIVE PONTET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US ST-TROPEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USC GDE BASTIDE MARSEILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VITROLLES SPORT NATATION</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poste</t>
   </si>
   <si>
@@ -1108,6 +1109,9 @@
     <t xml:space="preserve">Championnats de Nationale 2 Hiver Q1 (Dom-Tom)</t>
   </si>
   <si>
+    <t xml:space="preserve">Championnat Régional Hiver 50m</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -1591,6 +1595,78 @@
     <t xml:space="preserve">12x50 Nage Libre Mixtes</t>
   </si>
   <si>
+    <t xml:space="preserve">D 14-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D 16-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D 18+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 15-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 17-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H 19+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolérance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Nage Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Nage Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Nage Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Nage Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">800 Nage Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 Nage Libre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Dos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Dos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Dos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Brasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Brasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Brasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Papillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Papillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 Papillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 4 Nages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 4 Nages</t>
+  </si>
+  <si>
     <t xml:space="preserve">Id</t>
   </si>
   <si>
@@ -2006,22 +2082,34 @@
   </si>
   <si>
     <t xml:space="preserve">Antibes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTOLANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPTT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
+    <numFmt numFmtId="166" formatCode="MM:SS.00"/>
+    <numFmt numFmtId="167" formatCode="0&quot; s&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2040,76 +2128,20 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2118,44 +2150,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF83CAFF"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2168,22 +2176,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2210,56 +2210,8 @@
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2268,15 +2220,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2296,7 +2248,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2304,45 +2256,49 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -2354,7 +2310,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -2367,10 +2323,10 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -2399,8 +2355,8 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2424,76 +2380,76 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>2549</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="n">
-        <v>83</v>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>83</v>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>948</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>411</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>2041</v>
+        <v>2273</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>84</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>1217</v>
+        <v>115</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>13</v>
@@ -2501,43 +2457,43 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>2697</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
+        <v>192</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>687</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>83</v>
+        <v>332</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>13</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>332</v>
+        <v>403</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>13</v>
@@ -2545,32 +2501,32 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>278</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
+        <v>578</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>635</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="n">
-        <v>83</v>
+        <v>744</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>1506</v>
+        <v>870</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>13</v>
@@ -2578,21 +2534,21 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>2381</v>
+        <v>890</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>1166</v>
+        <v>895</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>13</v>
@@ -2600,21 +2556,21 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
+        <v>932</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>1572</v>
+        <v>1119</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>13</v>
@@ -2622,10 +2578,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>890</v>
+        <v>1154</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>13</v>
@@ -2633,10 +2589,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>2399</v>
+        <v>1166</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>13</v>
@@ -2644,18 +2600,18 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>293</v>
+        <v>1217</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>380</v>
+        <v>1412</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>26</v>
@@ -2666,18 +2622,18 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>1266</v>
+        <v>1467</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>192</v>
+        <v>1489</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>28</v>
@@ -2688,32 +2644,32 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>482</v>
+        <v>1506</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>953</v>
+        <v>1572</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
+      <c r="C27" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>403</v>
+        <v>2399</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>13</v>
@@ -2721,65 +2677,65 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>236</v>
+        <v>2403</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>5</v>
+        <v>2443</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>2305</v>
+        <v>2547</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>433</v>
+        <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>496</v>
+        <v>202</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>202</v>
+        <v>635</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>83</v>
@@ -2787,464 +2743,464 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>1489</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>13</v>
+        <v>687</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="C36" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>1013</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>84</v>
+        <v>1031</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>1243</v>
+        <v>1116</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>1124</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>1131</v>
+        <v>1460</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="C40" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>895</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>13</v>
+        <v>2549</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>430</v>
+        <v>236</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>870</v>
+        <v>411</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>561</v>
+        <v>443</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>2460</v>
+        <v>482</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>2273</v>
+        <v>902</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>2827</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>1013</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>2547</v>
+        <v>1218</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>1154</v>
+        <v>1266</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>1119</v>
+        <v>1322</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>745</v>
+        <v>2041</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>932</v>
-      </c>
-      <c r="B53" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C53" s="1" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>768</v>
-      </c>
-      <c r="B54" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>84</v>
+      <c r="C54" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>1412</v>
-      </c>
-      <c r="B55" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>13</v>
+      <c r="C55" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>528</v>
+        <v>278</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>1575</v>
+        <v>433</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="B58" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="1" t="n">
-        <v>13</v>
+      <c r="C58" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>1209</v>
+        <v>528</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>2403</v>
-      </c>
-      <c r="B60" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="1" t="n">
-        <v>13</v>
+      <c r="C60" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>1322</v>
-      </c>
-      <c r="B61" s="0" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>84</v>
+      <c r="C61" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>2443</v>
-      </c>
-      <c r="B62" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>13</v>
+      <c r="C62" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>1459</v>
-      </c>
-      <c r="B63" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>67</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>2823</v>
-      </c>
-      <c r="B64" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>99</v>
+      <c r="C64" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>1116</v>
+        <v>1457</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="6" t="n">
-        <v>83</v>
+      <c r="C65" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>1457</v>
+        <v>2506</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>1460</v>
+        <v>2697</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="6" t="n">
-        <v>83</v>
+      <c r="C67" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" s="5" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="6" t="n">
-        <v>83</v>
+      <c r="C68" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>2825</v>
+        <v>645</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>73</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>443</v>
+        <v>561</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>84</v>
+      <c r="C70" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>578</v>
-      </c>
-      <c r="B71" s="0" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>1218</v>
+        <v>2825</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>902</v>
+        <v>2823</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B74" s="5" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="6" t="n">
-        <v>83</v>
+      <c r="C74" s="1" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>645</v>
-      </c>
-      <c r="B75" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="1" t="n">
-        <v>13</v>
+      <c r="C75" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>1467</v>
+        <v>2305</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>80</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3252,8 +3208,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3263,10 +3219,776 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3276,13 +3998,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -3294,16 +4016,33 @@
         <v>194264</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>433</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>658</v>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>2714367</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>278</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -3311,8 +4050,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3325,7 +4064,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3705,8 +4444,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3826,8 +4565,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Calibri,Normal"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Calibri,Normal"Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Calibri,Regular"Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4095,8 +4834,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4455,8 +5194,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4587,8 +5326,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4598,10 +5337,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C175" activeCellId="0" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6517,13 +7256,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6535,8 +7285,8 @@
   </sheetPr>
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6548,10 +7298,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,7 +7309,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6567,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,7 +7325,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6583,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,7 +7341,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,7 +7349,7 @@
         <v>250</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,7 +7357,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6615,7 +7365,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,7 +7373,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,7 +7381,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,7 +7389,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6647,7 +7397,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,7 +7405,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6663,7 +7413,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,7 +7421,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6679,7 +7429,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,7 +7437,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6695,7 +7445,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6703,7 +7453,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,7 +7461,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,7 +7469,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6727,7 +7477,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6735,7 +7485,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,7 +7493,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,7 +7501,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,7 +7509,7 @@
         <v>252</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,7 +7517,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,7 +7525,7 @@
         <v>283</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,7 +7533,7 @@
         <v>289</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,7 +7541,7 @@
         <v>295</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,7 +7549,7 @@
         <v>301</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,7 +7557,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,7 +7565,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6823,7 +7573,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6831,7 +7581,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6839,7 +7589,7 @@
         <v>254</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6847,7 +7597,7 @@
         <v>111</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6855,7 +7605,7 @@
         <v>256</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,7 +7613,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,7 +7621,7 @@
         <v>258</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6879,7 +7629,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6887,7 +7637,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,7 +7645,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6903,7 +7653,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,7 +7661,7 @@
         <v>271</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6919,7 +7669,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,7 +7677,7 @@
         <v>265</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6935,7 +7685,7 @@
         <v>243</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,7 +7693,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,7 +7701,7 @@
         <v>277</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6959,7 +7709,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,7 +7717,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6975,7 +7725,7 @@
         <v>305</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6983,7 +7733,7 @@
         <v>150</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,7 +7741,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,7 +7749,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,7 +7757,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7015,7 +7765,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,7 +7773,7 @@
         <v>249</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,7 +7781,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,7 +7789,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7047,7 +7797,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,7 +7805,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7063,7 +7813,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7071,7 +7821,7 @@
         <v>160</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,7 +7829,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,7 +7837,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +7845,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,7 +7853,7 @@
         <v>170</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,7 +7861,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,7 +7869,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7127,7 +7877,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,7 +7885,7 @@
         <v>180</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7143,7 +7893,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,7 +7901,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,7 +7909,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7167,7 +7917,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,7 +7925,7 @@
         <v>91</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,7 +7933,7 @@
         <v>251</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,7 +7941,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7199,7 +7949,7 @@
         <v>281</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7207,7 +7957,7 @@
         <v>287</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,7 +7965,7 @@
         <v>293</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7223,7 +7973,7 @@
         <v>299</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7231,7 +7981,7 @@
         <v>58</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7239,7 +7989,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7247,7 +7997,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,7 +8005,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,7 +8013,7 @@
         <v>253</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7271,7 +8021,7 @@
         <v>161</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,7 +8029,7 @@
         <v>255</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7287,7 +8037,7 @@
         <v>171</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7295,7 +8045,7 @@
         <v>257</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,7 +8053,7 @@
         <v>181</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,7 +8061,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7319,7 +8069,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7327,7 +8077,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7335,7 +8085,7 @@
         <v>273</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,7 +8093,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,7 +8101,7 @@
         <v>266</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7359,7 +8109,7 @@
         <v>244</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7367,7 +8117,7 @@
         <v>64</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7375,7 +8125,7 @@
         <v>275</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7383,7 +8133,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,7 +8141,7 @@
         <v>95</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7399,7 +8149,7 @@
         <v>304</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7407,7 +8157,7 @@
         <v>200</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7415,7 +8165,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7423,7 +8173,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,7 +8181,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,7 +8189,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7447,7 +8197,7 @@
         <v>262</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,7 +8205,7 @@
         <v>205</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7463,7 +8213,7 @@
         <v>207</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,7 +8221,7 @@
         <v>206</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,7 +8229,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,7 +8237,7 @@
         <v>215</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,7 +8245,7 @@
         <v>210</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7503,7 +8253,7 @@
         <v>211</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7511,7 +8261,7 @@
         <v>212</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,7 +8269,7 @@
         <v>213</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,7 +8277,7 @@
         <v>220</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,7 +8285,7 @@
         <v>221</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,7 +8293,7 @@
         <v>222</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,7 +8301,7 @@
         <v>223</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7559,7 +8309,7 @@
         <v>230</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,7 +8317,7 @@
         <v>231</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,7 +8325,7 @@
         <v>232</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,7 +8333,7 @@
         <v>233</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7591,7 +8341,7 @@
         <v>240</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,7 +8349,7 @@
         <v>241</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7607,7 +8357,7 @@
         <v>263</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7615,7 +8365,7 @@
         <v>242</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7623,7 +8373,7 @@
         <v>285</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,7 +8381,7 @@
         <v>291</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7639,7 +8389,7 @@
         <v>297</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7647,7 +8397,7 @@
         <v>303</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7655,7 +8405,7 @@
         <v>86</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7663,7 +8413,7 @@
         <v>87</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,7 +8421,7 @@
         <v>88</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7679,7 +8429,7 @@
         <v>34</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7687,7 +8437,7 @@
         <v>259</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7695,7 +8445,7 @@
         <v>246</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7703,7 +8453,7 @@
         <v>260</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7711,7 +8461,7 @@
         <v>247</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7719,7 +8469,7 @@
         <v>261</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,7 +8477,7 @@
         <v>248</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7735,7 +8485,7 @@
         <v>38</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7743,7 +8493,7 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,7 +8501,7 @@
         <v>36</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7759,7 +8509,7 @@
         <v>269</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7767,7 +8517,7 @@
         <v>35</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7775,7 +8525,7 @@
         <v>267</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,7 +8533,7 @@
         <v>245</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,7 +8541,7 @@
         <v>214</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7799,7 +8549,7 @@
         <v>279</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7807,7 +8557,7 @@
         <v>84</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7815,7 +8565,7 @@
         <v>85</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7823,7 +8573,7 @@
         <v>264</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -7831,8 +8581,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7842,763 +8592,493 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="D1" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>0.00038275462962963</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>0.000365856481481481</v>
+      </c>
+      <c r="D2" s="13" t="n">
+        <v>0.000352662037037037</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>0.000336111111111111</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <v>0.000313425925925926</v>
+      </c>
+      <c r="G2" s="14" t="n">
+        <v>0.000310648148148148</v>
+      </c>
+      <c r="H2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>0.000836574074074074</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>0.000810300925925926</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>0.000769444444444444</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>0.000758333333333333</v>
+      </c>
+      <c r="F3" s="14" t="n">
+        <v>0.00071400462962963</v>
+      </c>
+      <c r="G3" s="14" t="n">
+        <v>0.000685416666666667</v>
+      </c>
+      <c r="H3" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>0.00182627314814815</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>0.00175474537037037</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>0.00167581018518519</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>0.0016837962962963</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <v>0.00157453703703704</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>0.00151712962962963</v>
+      </c>
+      <c r="H4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B5" s="13" t="n">
+        <v>0.00387974537037037</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>0.00367534722222222</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>0.003509375</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>0.00356365740740741</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>0.0033474537037037</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>0.00322222222222222</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B6" s="13" t="n">
+        <v>0.00797337962962963</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <v>0.00757071759259259</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>0.00723263888888889</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>0.00763425925925926</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>0.00696319444444444</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>0.00670833333333333</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="13" t="n">
+        <v>0.0149025462962963</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>0.0145075231481481</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>0.0139303240740741</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>0.0139296296296296</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>0.0133038194444444</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>0.0127722222222222</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="n">
+        <v>0.000447453703703704</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>0.000424537037037037</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.000405787037037037</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>0.000397685185185185</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>0.000363310185185185</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>0.000361805555555556</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="B9" s="13" t="n">
+        <v>0.000994212962962963</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>0.000924537037037037</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>0.000872685185185185</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>0.000874421296296296</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <v>0.00081087962962963</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>0.000779513888888889</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="13" t="n">
+        <v>0.00205451388888889</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>0.00197685185185185</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>0.0018693287037037</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>0.0018775462962963</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <v>0.00177395833333333</v>
+      </c>
+      <c r="G10" s="14" t="n">
+        <v>0.00170162037037037</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B11" s="13" t="n">
+        <v>0.000488194444444444</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>0.000468981481481482</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>0.000448842592592593</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>0.000435069444444444</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <v>0.000410069444444444</v>
+      </c>
+      <c r="G11" s="14" t="n">
+        <v>0.000395717592592593</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="13" t="n">
+        <v>0.00110046296296296</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>0.0010380787037037</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <v>0.000978935185185185</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>0.000954976851851852</v>
+      </c>
+      <c r="F12" s="14" t="n">
+        <v>0.000911342592592592</v>
+      </c>
+      <c r="G12" s="14" t="n">
+        <v>0.000864699074074074</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B13" s="13" t="n">
+        <v>0.00233414351851852</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>0.00223020833333333</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>0.00213738425925926</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>0.00210428240740741</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>0.00197824074074074</v>
+      </c>
+      <c r="G13" s="14" t="n">
+        <v>0.00190752314814815</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="B14" s="13" t="n">
+        <v>0.000405671296296296</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>0.000394791666666667</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>0.000375578703703704</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>0.000376736111111111</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>0.000347337962962963</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <v>0.000338541666666667</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="B15" s="13" t="n">
+        <v>0.000929861111111111</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0.000894444444444444</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>0.000853472222222222</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>0.000825</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <v>0.00078900462962963</v>
+      </c>
+      <c r="G15" s="14" t="n">
+        <v>0.000755555555555556</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B16" s="13" t="n">
+        <v>0.0020375</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>0.00196655092592593</v>
+      </c>
+      <c r="D16" s="13" t="n">
+        <v>0.00190902777777778</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>0.00182708333333333</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>0.00175347222222222</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <v>0.00172407407407407</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="B17" s="13" t="n">
+        <v>0.0021537037037037</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>0.00201886574074074</v>
+      </c>
+      <c r="D17" s="13" t="n">
+        <v>0.00190949074074074</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>0.00189803240740741</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>0.00178738425925926</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>0.00171805555555556</v>
+      </c>
+      <c r="H17" s="15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10" t="n">
-        <v>27</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="n">
-        <v>34</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="n">
-        <v>35</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="n">
-        <v>38</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
-        <v>41</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
-        <v>42</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="n">
-        <v>43</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="n">
-        <v>44</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="n">
-        <v>45</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="n">
-        <v>46</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="n">
-        <v>48</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="n">
-        <v>49</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="n">
-        <v>51</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="n">
-        <v>52</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="n">
-        <v>53</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10" t="n">
-        <v>54</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>627</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="n">
-        <v>55</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="n">
-        <v>56</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10" t="n">
-        <v>57</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="n">
-        <v>58</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10" t="n">
-        <v>59</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="n">
-        <v>60</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10" t="n">
-        <v>61</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>641</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10" t="n">
-        <v>62</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10" t="n">
-        <v>63</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>645</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10" t="n">
-        <v>64</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10" t="n">
-        <v>65</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="10" t="n">
-        <v>67</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>654</v>
+      <c r="B18" s="13" t="n">
+        <v>0.00442303240740741</v>
+      </c>
+      <c r="C18" s="13" t="n">
+        <v>0.00423298611111111</v>
+      </c>
+      <c r="D18" s="13" t="n">
+        <v>0.00402951388888889</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>0.0040306712962963</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>0.0038150462962963</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <v>0.00366030092592593</v>
+      </c>
+      <c r="H18" s="15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="690">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -1103,13 +1103,22 @@
     <t xml:space="preserve">Gymnasiades</t>
   </si>
   <si>
-    <t xml:space="preserve">Championnats N2 Hiver Q1 (avec épreuve suppplémentaire)</t>
+    <t xml:space="preserve">Championnats N2 Hiver Q1 (avec épreuve supplémentaire)</t>
   </si>
   <si>
     <t xml:space="preserve">Championnats de Nationale 2 Hiver Q1 (Dom-Tom)</t>
   </si>
   <si>
     <t xml:space="preserve">Championnat Régional Hiver 50m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats de Nationale 3 Printemps Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Régionaux en grand bassin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Championnats Régionaux Sud de Printemps Open - 50 m</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -2278,12 +2287,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2359,12 +2368,10 @@
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3225,22 +3232,20 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,10 +3264,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,10 +3275,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,10 +3286,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3292,10 +3297,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,10 +3308,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,10 +3319,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,10 +3330,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,10 +3341,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,10 +3352,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,10 +3363,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3369,10 +3374,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,10 +3385,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,10 +3396,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,10 +3407,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,10 +3418,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3424,10 +3429,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,10 +3440,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,10 +3451,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,10 +3462,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3468,10 +3473,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,10 +3484,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3490,10 +3495,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,10 +3506,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,10 +3517,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,10 +3528,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,10 +3539,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3545,10 +3550,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,10 +3572,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3578,10 +3583,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,10 +3594,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3600,10 +3605,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,10 +3616,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3622,10 +3627,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,10 +3638,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3644,10 +3649,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,10 +3660,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,10 +3671,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3677,10 +3682,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3688,10 +3693,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3699,10 +3704,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,10 +3715,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,10 +3726,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3732,10 +3737,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,10 +3748,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,10 +3759,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,10 +3770,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,10 +3781,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,10 +3792,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,10 +3803,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,10 +3814,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,10 +3825,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,10 +3836,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,10 +3847,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,10 +3858,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,10 +3869,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,10 +3880,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3886,10 +3891,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,10 +3902,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3908,10 +3913,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,10 +3924,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,10 +3935,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3941,10 +3946,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,10 +3957,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,10 +3968,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -3974,8 +3979,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -3991,20 +3996,17 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4016,16 +4018,16 @@
         <v>194264</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D2" s="10" t="n">
         <v>433</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,16 +4035,16 @@
         <v>2714367</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>278</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -4050,8 +4052,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4067,14 +4069,12 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4461,10 +4461,9 @@
       <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4582,11 +4581,10 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,8 +4832,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4851,12 +4849,11 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5194,8 +5191,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5211,12 +5208,10 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5326,8 +5321,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -5337,20 +5332,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C175" activeCellId="0" sqref="C175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B180" activeCellId="0" sqref="B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="56.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7267,13 +7260,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7285,23 +7311,21 @@
   </sheetPr>
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7309,7 +7333,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7317,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,7 +7349,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,7 +7365,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,7 +7373,7 @@
         <v>250</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,7 +7381,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,7 +7389,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,7 +7397,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,7 +7405,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7389,7 +7413,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,7 +7421,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,7 +7429,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,7 +7437,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,7 +7445,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7429,7 +7453,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7437,7 +7461,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7445,7 +7469,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,7 +7477,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,7 +7485,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7469,7 +7493,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,7 +7501,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,7 +7509,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,7 +7517,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7501,7 +7525,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,7 +7533,7 @@
         <v>252</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,7 +7541,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7525,7 +7549,7 @@
         <v>283</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,7 +7557,7 @@
         <v>289</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7541,7 +7565,7 @@
         <v>295</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,7 +7573,7 @@
         <v>301</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7557,7 +7581,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,7 +7589,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,7 +7597,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,7 +7605,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7589,7 +7613,7 @@
         <v>254</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,7 +7621,7 @@
         <v>111</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7605,7 +7629,7 @@
         <v>256</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,7 +7637,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7621,7 +7645,7 @@
         <v>258</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,7 +7653,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7637,7 +7661,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,7 +7669,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7653,7 +7677,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,7 +7685,7 @@
         <v>271</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,7 +7693,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7677,7 +7701,7 @@
         <v>265</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,7 +7709,7 @@
         <v>243</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,7 +7717,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7701,7 +7725,7 @@
         <v>277</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,7 +7733,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,7 +7741,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7725,7 +7749,7 @@
         <v>305</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7733,7 +7757,7 @@
         <v>150</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,7 +7765,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,7 +7773,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7757,7 +7781,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7765,7 +7789,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7773,7 +7797,7 @@
         <v>249</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7781,7 +7805,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7789,7 +7813,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,7 +7821,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7805,7 +7829,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7813,7 +7837,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,7 +7845,7 @@
         <v>160</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7829,7 +7853,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,7 +7861,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7845,7 +7869,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,7 +7877,7 @@
         <v>170</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,7 +7885,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7869,7 +7893,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,7 +7901,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7885,7 +7909,7 @@
         <v>180</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7893,7 +7917,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7901,7 +7925,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7909,7 +7933,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,7 +7941,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7925,7 +7949,7 @@
         <v>91</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,7 +7957,7 @@
         <v>251</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7941,7 +7965,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,7 +7973,7 @@
         <v>281</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7957,7 +7981,7 @@
         <v>287</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7965,7 +7989,7 @@
         <v>293</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7973,7 +7997,7 @@
         <v>299</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7981,7 +8005,7 @@
         <v>58</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,7 +8013,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,7 +8021,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8005,7 +8029,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8013,7 +8037,7 @@
         <v>253</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8021,7 +8045,7 @@
         <v>161</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,7 +8053,7 @@
         <v>255</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,7 +8061,7 @@
         <v>171</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8045,7 +8069,7 @@
         <v>257</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,7 +8077,7 @@
         <v>181</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,7 +8085,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8069,7 +8093,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8077,7 +8101,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8085,7 +8109,7 @@
         <v>273</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8093,7 +8117,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8101,7 +8125,7 @@
         <v>266</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,7 +8133,7 @@
         <v>244</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8117,7 +8141,7 @@
         <v>64</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8125,7 +8149,7 @@
         <v>275</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8133,7 +8157,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,7 +8165,7 @@
         <v>95</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,7 +8173,7 @@
         <v>304</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,7 +8181,7 @@
         <v>200</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8165,7 +8189,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8173,7 +8197,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8181,7 +8205,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8189,7 +8213,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8197,7 +8221,7 @@
         <v>262</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,7 +8229,7 @@
         <v>205</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8213,7 +8237,7 @@
         <v>207</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,7 +8245,7 @@
         <v>206</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8229,7 +8253,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8237,7 +8261,7 @@
         <v>215</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8245,7 +8269,7 @@
         <v>210</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8253,7 +8277,7 @@
         <v>211</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8261,7 +8285,7 @@
         <v>212</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,7 +8293,7 @@
         <v>213</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,7 +8301,7 @@
         <v>220</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8285,7 +8309,7 @@
         <v>221</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8293,7 +8317,7 @@
         <v>222</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,7 +8325,7 @@
         <v>223</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,7 +8333,7 @@
         <v>230</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8317,7 +8341,7 @@
         <v>231</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8325,7 +8349,7 @@
         <v>232</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,7 +8357,7 @@
         <v>233</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8341,7 +8365,7 @@
         <v>240</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8349,7 +8373,7 @@
         <v>241</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,7 +8381,7 @@
         <v>263</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8365,7 +8389,7 @@
         <v>242</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8373,7 +8397,7 @@
         <v>285</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8381,7 +8405,7 @@
         <v>291</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,7 +8413,7 @@
         <v>297</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8397,7 +8421,7 @@
         <v>303</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,7 +8429,7 @@
         <v>86</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8413,7 +8437,7 @@
         <v>87</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8421,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8429,7 +8453,7 @@
         <v>34</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8437,7 +8461,7 @@
         <v>259</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,7 +8469,7 @@
         <v>246</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,7 +8477,7 @@
         <v>260</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8461,7 +8485,7 @@
         <v>247</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8469,7 +8493,7 @@
         <v>261</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8477,7 +8501,7 @@
         <v>248</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8485,7 +8509,7 @@
         <v>38</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,7 +8517,7 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8501,7 +8525,7 @@
         <v>36</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8509,7 +8533,7 @@
         <v>269</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8517,7 +8541,7 @@
         <v>35</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8525,7 +8549,7 @@
         <v>267</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8533,7 +8557,7 @@
         <v>245</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,7 +8565,7 @@
         <v>214</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8549,7 +8573,7 @@
         <v>279</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8557,7 +8581,7 @@
         <v>84</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,7 +8589,7 @@
         <v>85</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8573,7 +8597,7 @@
         <v>264</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -8581,8 +8605,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -8595,44 +8619,41 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>361</v>
-      </c>
+      <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>0.00038275462962963</v>
@@ -8658,7 +8679,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>0.000836574074074074</v>
@@ -8684,7 +8705,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B4" s="13" t="n">
         <v>0.00182627314814815</v>
@@ -8710,7 +8731,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B5" s="13" t="n">
         <v>0.00387974537037037</v>
@@ -8736,7 +8757,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B6" s="13" t="n">
         <v>0.00797337962962963</v>
@@ -8762,7 +8783,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B7" s="13" t="n">
         <v>0.0149025462962963</v>
@@ -8788,7 +8809,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>0.000447453703703704</v>
@@ -8814,7 +8835,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B9" s="13" t="n">
         <v>0.000994212962962963</v>
@@ -8840,7 +8861,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B10" s="13" t="n">
         <v>0.00205451388888889</v>
@@ -8866,7 +8887,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>0.000488194444444444</v>
@@ -8892,7 +8913,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>0.00110046296296296</v>
@@ -8918,7 +8939,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>0.00233414351851852</v>
@@ -8944,7 +8965,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>0.000405671296296296</v>
@@ -8970,7 +8991,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B15" s="13" t="n">
         <v>0.000929861111111111</v>
@@ -8996,7 +9017,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>0.0020375</v>
@@ -9022,7 +9043,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B17" s="13" t="n">
         <v>0.0021537037037037</v>
@@ -9048,7 +9069,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B18" s="13" t="n">
         <v>0.00442303240740741</v>
@@ -9077,8 +9098,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Officiels.xlsx
+++ b/Officiels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clubs" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,12 @@
     <sheet name="Grilles" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Disqualifications" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Changement Club" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Elèves" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">Elèves!$A$1:$L$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">Elèves!$A$1:$L$24</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="753">
   <si>
     <t xml:space="preserve">Index</t>
   </si>
@@ -137,6 +142,9 @@
     <t xml:space="preserve">MARIGNANE NATATION</t>
   </si>
   <si>
+    <t xml:space="preserve">TEAM MARSEILLE NATATION </t>
+  </si>
+  <si>
     <t xml:space="preserve">TOULON WATER-POLO</t>
   </si>
   <si>
@@ -383,6 +391,24 @@
     <t xml:space="preserve">Elève C</t>
   </si>
   <si>
+    <t xml:space="preserve">Juge Arbitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stagiaire Juge Arbitre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elève Chrono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratique chrono faite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass Officiel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nom</t>
   </si>
   <si>
@@ -2090,27 +2116,197 @@
     <t xml:space="preserve">Alain</t>
   </si>
   <si>
-    <t xml:space="preserve">Antibes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORTOLANI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPTT</t>
+    <t xml:space="preserve">Chrono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juge Arrivée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Théorie Juge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virage 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virage 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Départ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Départ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nage 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nage 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jérémy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barralis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fitoussi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maurice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fréaud Parret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mireille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaglio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gérard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylvain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gidel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnassia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grémont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ky Hor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Héritier Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagnez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathalie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michalkiewicz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myriam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stéphane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randazzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sébastien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivière</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Jacques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siegel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanessa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilmant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yannick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
-    <numFmt numFmtId="166" formatCode="MM:SS.00"/>
+    <numFmt numFmtId="166" formatCode="mm:ss.00"/>
     <numFmt numFmtId="167" formatCode="0&quot; s&quot;"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="169" formatCode="d\ mmm\ yy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -2220,7 +2416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2241,16 +2437,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2283,6 +2479,22 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2357,18 +2569,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.41"/>
@@ -2717,128 +2933,128 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>1</v>
+        <v>3195</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="6" t="n">
-        <v>83</v>
+      <c r="C32" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="6" t="n">
+      <c r="C33" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>635</v>
-      </c>
-      <c r="B34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="6" t="n">
+      <c r="C34" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>687</v>
-      </c>
-      <c r="B35" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="6" t="n">
+      <c r="C35" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>948</v>
-      </c>
-      <c r="B36" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="6" t="n">
+      <c r="C36" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>1031</v>
-      </c>
-      <c r="B37" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>1116</v>
-      </c>
-      <c r="B38" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>1124</v>
-      </c>
-      <c r="B39" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C39" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>1460</v>
-      </c>
-      <c r="B40" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>2549</v>
-      </c>
-      <c r="B41" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C41" s="7" t="n">
         <v>83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>236</v>
-      </c>
-      <c r="B42" s="0" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>84</v>
+      <c r="C42" s="7" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>411</v>
+        <v>236</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>46</v>
@@ -2849,7 +3065,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>47</v>
@@ -2860,7 +3076,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>48</v>
@@ -2871,7 +3087,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>768</v>
+        <v>482</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>49</v>
@@ -2882,7 +3098,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>902</v>
+        <v>768</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>50</v>
@@ -2893,7 +3109,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>1013</v>
+        <v>902</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>51</v>
@@ -2904,7 +3120,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>1218</v>
+        <v>1013</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>52</v>
@@ -2915,7 +3131,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>1266</v>
+        <v>1218</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>53</v>
@@ -2926,7 +3142,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>1322</v>
+        <v>1266</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>54</v>
@@ -2937,7 +3153,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>2041</v>
+        <v>1322</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>55</v>
@@ -2948,183 +3164,183 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B53" s="5" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>57</v>
+      <c r="C53" s="1" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>1575</v>
-      </c>
-      <c r="B54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>178</v>
-      </c>
-      <c r="B55" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>57</v>
+      <c r="C55" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>278</v>
-      </c>
-      <c r="B56" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>57</v>
+      <c r="C56" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>433</v>
-      </c>
-      <c r="B57" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>57</v>
+      <c r="C57" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>496</v>
-      </c>
-      <c r="B58" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>57</v>
+      <c r="C58" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>528</v>
-      </c>
-      <c r="B59" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>57</v>
+      <c r="C59" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>961</v>
-      </c>
-      <c r="B60" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>57</v>
+      <c r="C60" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B61" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>57</v>
+      <c r="C61" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>1131</v>
-      </c>
-      <c r="B62" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>57</v>
+      <c r="C62" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>1209</v>
-      </c>
-      <c r="B63" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>57</v>
+      <c r="C63" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>1243</v>
-      </c>
-      <c r="B64" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>57</v>
+      <c r="C64" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>1457</v>
-      </c>
-      <c r="B65" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>57</v>
+      <c r="C65" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>2506</v>
-      </c>
-      <c r="B66" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>57</v>
+      <c r="C66" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>2697</v>
-      </c>
-      <c r="B67" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>57</v>
+      <c r="C67" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>2460</v>
-      </c>
-      <c r="B68" s="0" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="1" t="n">
-        <v>13</v>
+      <c r="C68" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>645</v>
+        <v>2460</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>73</v>
@@ -3135,31 +3351,31 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>57</v>
+      <c r="C70" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>2827</v>
-      </c>
-      <c r="B71" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="1" t="n">
-        <v>99</v>
+      <c r="C71" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>2825</v>
-      </c>
-      <c r="B72" s="0" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="1" t="n">
@@ -3168,7 +3384,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>77</v>
@@ -3179,7 +3395,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>2381</v>
+        <v>2823</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>78</v>
@@ -3190,23 +3406,34 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>1459</v>
-      </c>
-      <c r="B75" s="7" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>57</v>
+      <c r="C75" s="1" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
+        <v>1459</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
         <v>2305</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="1" t="n">
+      <c r="B77" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="1" t="n">
         <v>83</v>
       </c>
     </row>
@@ -3222,7 +3449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3232,20 +3459,20 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,10 +3491,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,10 +3513,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,10 +3524,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,10 +3535,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,10 +3546,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,10 +3557,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,10 +3568,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,10 +3579,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,10 +3590,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,10 +3601,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,10 +3612,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,10 +3623,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3407,10 +3634,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,10 +3645,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,10 +3656,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,10 +3667,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,10 +3678,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,10 +3689,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,10 +3700,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,10 +3711,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3495,10 +3722,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3506,10 +3733,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,10 +3744,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3528,10 +3755,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3539,10 +3766,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,10 +3777,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,10 +3788,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3572,10 +3799,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,10 +3810,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,10 +3821,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,10 +3832,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3616,10 +3843,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,10 +3854,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,10 +3865,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,10 +3876,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3660,10 +3887,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3671,10 +3898,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,10 +3909,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,10 +3920,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3704,10 +3931,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,10 +3942,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,10 +3953,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,10 +3964,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3748,10 +3975,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3759,10 +3986,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,10 +3997,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,10 +4008,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,10 +4019,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3803,10 +4030,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,10 +4041,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,10 +4052,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3836,10 +4063,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,10 +4074,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,10 +4085,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,10 +4096,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,10 +4107,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,10 +4118,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3902,10 +4129,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,10 +4140,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,10 +4151,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,10 +4162,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,10 +4173,10 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,10 +4184,10 @@
         <v>66</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,10 +4195,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -3986,27 +4213,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4014,37 +4241,17 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="5" t="n">
         <v>194264</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>685</v>
-      </c>
-      <c r="D2" s="10" t="n">
+        <v>692</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>433</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
-        <v>2714367</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>687</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="D3" s="10" t="n">
-        <v>278</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -4058,18 +4265,455 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="16.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="13.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="7" style="17" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>140393</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
+        <v>3434363</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="D4" s="16" t="n">
+        <v>44115.75</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3364689</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>709</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>44122.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>739300</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>710</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>1167664</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>713</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>44114</v>
+      </c>
+      <c r="K7" s="17" t="n">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>3097019</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>44115.75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>3540747</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>44122.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2576535</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>719</v>
+      </c>
+      <c r="K10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>3090123</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2885551</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>722</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>44115.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>41990</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2314353</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>1762084</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2598141</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>730</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>645840</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>3453745</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="D18" s="16" t="n">
+        <v>44115.75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>1237971</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>736</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>3516897</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="D20" s="16" t="n">
+        <v>44115.75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2468907</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="F21" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>111684</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>742</v>
+      </c>
+      <c r="D22" s="16" t="n">
+        <v>44122.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2171027</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>744</v>
+      </c>
+      <c r="F23" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>1129901</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="F24" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2456323</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>747</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>748</v>
+      </c>
+      <c r="F25" s="17" t="n">
+        <v>44114</v>
+      </c>
+      <c r="K25" s="17" t="n">
+        <v>44115</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>1496579</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>750</v>
+      </c>
+      <c r="F26" s="17" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>3453741</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>751</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="D27" s="16" t="n">
+        <v>44115.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L27"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.11"/>
@@ -4082,16 +4726,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4099,13 +4743,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4113,10 +4757,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4124,16 +4768,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4141,16 +4785,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="E5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4158,13 +4802,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4172,16 +4816,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4189,16 +4833,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4206,16 +4850,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="D9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4223,16 +4867,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4240,16 +4884,16 @@
         <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4257,16 +4901,16 @@
         <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4274,16 +4918,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4291,13 +4935,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4305,13 +4949,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4319,13 +4963,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4333,13 +4977,13 @@
         <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4347,13 +4991,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,7 +5005,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,7 +5019,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,13 +5033,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,7 +5047,13 @@
         <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,16 +5061,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,13 +5078,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,13 +5092,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4451,19 +5113,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4471,20 +5134,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4492,10 +5155,10 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="5" t="n">
+      <c r="B3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4503,10 +5166,10 @@
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="5" t="n">
+      <c r="B4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4514,10 +5177,10 @@
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="5" t="n">
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4525,10 +5188,10 @@
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="5" t="n">
+      <c r="B6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4536,10 +5199,10 @@
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="B7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4547,18 +5210,87 @@
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="5" t="n">
+      <c r="B8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4571,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4581,7 +5313,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -4592,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,7 +5332,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +5340,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +5348,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,7 +5356,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,7 +5364,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +5372,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,7 +5380,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,7 +5388,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4664,7 +5396,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +5404,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +5412,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +5420,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +5428,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,7 +5436,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,7 +5444,7 @@
         <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,7 +5452,7 @@
         <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,7 +5460,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,7 +5468,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,7 +5476,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +5484,7 @@
         <v>55</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,7 +5492,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +5500,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +5508,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +5516,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,7 +5524,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,7 +5532,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,7 +5540,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,7 +5548,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +5556,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +5571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4849,7 +5581,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.17"/>
@@ -4861,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,10 +5604,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,10 +5615,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,10 +5626,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,10 +5637,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4916,10 +5648,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,10 +5659,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,10 +5670,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,10 +5681,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,10 +5692,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,10 +5703,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,10 +5714,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,10 +5725,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,10 +5736,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,10 +5747,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5026,10 +5758,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,10 +5769,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,10 +5780,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,10 +5791,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,10 +5802,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,10 +5813,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,10 +5824,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,10 +5835,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,10 +5846,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,10 +5857,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,10 +5868,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,10 +5879,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,10 +5890,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,10 +5901,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,10 +5912,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5198,7 +5930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5208,7 +5940,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.18"/>
@@ -5219,16 +5951,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5236,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>9</v>
@@ -5253,7 +5985,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>9</v>
@@ -5270,7 +6002,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>9</v>
@@ -5287,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>4.6</v>
@@ -5304,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>3.5</v>
@@ -5328,17 +6060,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B180" activeCellId="0" sqref="B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.27"/>
@@ -5351,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -5373,7 +6105,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -5384,7 +6116,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -5395,7 +6127,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -5406,7 +6138,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
@@ -5417,7 +6149,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
@@ -5428,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -5439,7 +6171,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
@@ -5450,7 +6182,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3</v>
@@ -5461,7 +6193,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>3</v>
@@ -5472,7 +6204,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>3</v>
@@ -5483,7 +6215,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3</v>
@@ -5494,7 +6226,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>3</v>
@@ -5505,7 +6237,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3</v>
@@ -5516,7 +6248,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
@@ -5527,7 +6259,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>4</v>
@@ -5538,7 +6270,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>4</v>
@@ -5549,7 +6281,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>4</v>
@@ -5560,7 +6292,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>4</v>
@@ -5571,7 +6303,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
@@ -5582,7 +6314,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
@@ -5593,7 +6325,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -5604,7 +6336,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5</v>
@@ -5615,7 +6347,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>2</v>
@@ -5626,7 +6358,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2</v>
@@ -5637,7 +6369,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>2</v>
@@ -5648,7 +6380,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>2</v>
@@ -5659,7 +6391,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2</v>
@@ -5670,7 +6402,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
@@ -5681,7 +6413,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>4</v>
@@ -5692,7 +6424,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>4</v>
@@ -5703,7 +6435,7 @@
         <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>4</v>
@@ -5714,7 +6446,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>4</v>
@@ -5725,7 +6457,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -5736,7 +6468,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>2</v>
@@ -5747,7 +6479,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>4</v>
@@ -5758,7 +6490,7 @@
         <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>5</v>
@@ -5769,7 +6501,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>5</v>
@@ -5780,7 +6512,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>5</v>
@@ -5791,7 +6523,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>5</v>
@@ -5802,7 +6534,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>5</v>
@@ -5813,7 +6545,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -5824,7 +6556,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
@@ -5835,7 +6567,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
@@ -5846,7 +6578,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
@@ -5857,7 +6589,7 @@
         <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2</v>
@@ -5868,7 +6600,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>2</v>
@@ -5879,7 +6611,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>2</v>
@@ -5890,7 +6622,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2</v>
@@ -5901,7 +6633,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>4</v>
@@ -5912,7 +6644,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>4</v>
@@ -5923,7 +6655,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>4</v>
@@ -5934,7 +6666,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>4</v>
@@ -5945,7 +6677,7 @@
         <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
@@ -5956,7 +6688,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>5</v>
@@ -5967,7 +6699,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>5</v>
@@ -5978,7 +6710,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>5</v>
@@ -5989,7 +6721,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>5</v>
@@ -6000,7 +6732,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
@@ -6011,7 +6743,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
@@ -6022,7 +6754,7 @@
         <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -6033,7 +6765,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1</v>
@@ -6044,7 +6776,7 @@
         <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2</v>
@@ -6055,7 +6787,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2</v>
@@ -6066,7 +6798,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>4</v>
@@ -6077,7 +6809,7 @@
         <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>2</v>
@@ -6088,7 +6820,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3</v>
@@ -6099,7 +6831,7 @@
         <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>2</v>
@@ -6110,7 +6842,7 @@
         <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>4</v>
@@ -6121,7 +6853,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>5</v>
@@ -6132,7 +6864,7 @@
         <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>2</v>
@@ -6143,7 +6875,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
@@ -6154,7 +6886,7 @@
         <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
@@ -6165,7 +6897,7 @@
         <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>2</v>
@@ -6176,7 +6908,7 @@
         <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>3</v>
@@ -6187,7 +6919,7 @@
         <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>4</v>
@@ -6198,7 +6930,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>5</v>
@@ -6209,7 +6941,7 @@
         <v>83</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
@@ -6220,7 +6952,7 @@
         <v>84</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>4</v>
@@ -6231,7 +6963,7 @@
         <v>85</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>5</v>
@@ -6242,7 +6974,7 @@
         <v>86</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>5</v>
@@ -6253,7 +6985,7 @@
         <v>93</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>2</v>
@@ -6264,7 +6996,7 @@
         <v>94</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>4</v>
@@ -6275,7 +7007,7 @@
         <v>95</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4</v>
@@ -6286,7 +7018,7 @@
         <v>96</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>3</v>
@@ -6297,7 +7029,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>5</v>
@@ -6308,7 +7040,7 @@
         <v>98</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -6319,7 +7051,7 @@
         <v>99</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>1</v>
@@ -6330,7 +7062,7 @@
         <v>100</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>3</v>
@@ -6341,7 +7073,7 @@
         <v>101</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>4</v>
@@ -6352,7 +7084,7 @@
         <v>102</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>4</v>
@@ -6363,7 +7095,7 @@
         <v>103</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>2</v>
@@ -6374,7 +7106,7 @@
         <v>104</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2</v>
@@ -6385,7 +7117,7 @@
         <v>105</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>1</v>
@@ -6396,7 +7128,7 @@
         <v>106</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2</v>
@@ -6407,7 +7139,7 @@
         <v>107</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>3</v>
@@ -6418,7 +7150,7 @@
         <v>108</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3</v>
@@ -6429,7 +7161,7 @@
         <v>109</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>3</v>
@@ -6440,7 +7172,7 @@
         <v>110</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>4</v>
@@ -6451,7 +7183,7 @@
         <v>111</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>4</v>
@@ -6462,7 +7194,7 @@
         <v>112</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>4</v>
@@ -6473,7 +7205,7 @@
         <v>113</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>4</v>
@@ -6484,7 +7216,7 @@
         <v>114</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>4</v>
@@ -6495,7 +7227,7 @@
         <v>115</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>5</v>
@@ -6506,7 +7238,7 @@
         <v>116</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>5</v>
@@ -6517,7 +7249,7 @@
         <v>117</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>5</v>
@@ -6528,7 +7260,7 @@
         <v>118</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>5</v>
@@ -6539,7 +7271,7 @@
         <v>119</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>5</v>
@@ -6550,7 +7282,7 @@
         <v>120</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>4</v>
@@ -6561,7 +7293,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>4</v>
@@ -6572,7 +7304,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>4</v>
@@ -6583,7 +7315,7 @@
         <v>123</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>4</v>
@@ -6594,7 +7326,7 @@
         <v>124</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>5</v>
@@ -6605,7 +7337,7 @@
         <v>125</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>5</v>
@@ -6616,7 +7348,7 @@
         <v>126</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>3</v>
@@ -6627,7 +7359,7 @@
         <v>127</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>4</v>
@@ -6638,7 +7370,7 @@
         <v>128</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>4</v>
@@ -6649,7 +7381,7 @@
         <v>129</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>5</v>
@@ -6660,7 +7392,7 @@
         <v>130</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>4</v>
@@ -6671,7 +7403,7 @@
         <v>131</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>5</v>
@@ -6682,7 +7414,7 @@
         <v>132</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>4</v>
@@ -6693,7 +7425,7 @@
         <v>133</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>5</v>
@@ -6704,7 +7436,7 @@
         <v>135</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>1</v>
@@ -6715,7 +7447,7 @@
         <v>137</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
@@ -6726,7 +7458,7 @@
         <v>139</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>3</v>
@@ -6737,7 +7469,7 @@
         <v>141</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
@@ -6748,7 +7480,7 @@
         <v>143</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>4</v>
@@ -6759,7 +7491,7 @@
         <v>145</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>4</v>
@@ -6770,7 +7502,7 @@
         <v>147</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>5</v>
@@ -6781,7 +7513,7 @@
         <v>149</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>5</v>
@@ -6792,7 +7524,7 @@
         <v>151</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>5</v>
@@ -6803,7 +7535,7 @@
         <v>153</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>5</v>
@@ -6814,7 +7546,7 @@
         <v>155</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>4</v>
@@ -6825,7 +7557,7 @@
         <v>157</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>4</v>
@@ -6836,7 +7568,7 @@
         <v>159</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>4</v>
@@ -6847,7 +7579,7 @@
         <v>161</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>4</v>
@@ -6858,7 +7590,7 @@
         <v>163</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>4</v>
@@ -6869,7 +7601,7 @@
         <v>165</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>5</v>
@@ -6880,7 +7612,7 @@
         <v>167</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>5</v>
@@ -6891,7 +7623,7 @@
         <v>169</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2</v>
@@ -6902,7 +7634,7 @@
         <v>171</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2</v>
@@ -6913,7 +7645,7 @@
         <v>173</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>1</v>
@@ -6924,7 +7656,7 @@
         <v>175</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>3</v>
@@ -6935,7 +7667,7 @@
         <v>177</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>4</v>
@@ -6946,7 +7678,7 @@
         <v>179</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>5</v>
@@ -6957,7 +7689,7 @@
         <v>181</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>5</v>
@@ -6968,7 +7700,7 @@
         <v>183</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>2</v>
@@ -6979,7 +7711,7 @@
         <v>185</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>2</v>
@@ -6990,7 +7722,7 @@
         <v>187</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>2</v>
@@ -7001,7 +7733,7 @@
         <v>189</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>2</v>
@@ -7012,7 +7744,7 @@
         <v>191</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>2</v>
@@ -7023,7 +7755,7 @@
         <v>193</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>3</v>
@@ -7034,7 +7766,7 @@
         <v>195</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>3</v>
@@ -7045,7 +7777,7 @@
         <v>197</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>4</v>
@@ -7056,7 +7788,7 @@
         <v>199</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>4</v>
@@ -7067,7 +7799,7 @@
         <v>201</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>4</v>
@@ -7078,7 +7810,7 @@
         <v>203</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>4</v>
@@ -7089,7 +7821,7 @@
         <v>205</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>4</v>
@@ -7100,7 +7832,7 @@
         <v>207</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>4</v>
@@ -7111,7 +7843,7 @@
         <v>209</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>4</v>
@@ -7122,7 +7854,7 @@
         <v>211</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>5</v>
@@ -7133,7 +7865,7 @@
         <v>213</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>5</v>
@@ -7144,7 +7876,7 @@
         <v>215</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>5</v>
@@ -7155,7 +7887,7 @@
         <v>217</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>5</v>
@@ -7166,7 +7898,7 @@
         <v>219</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>5</v>
@@ -7177,7 +7909,7 @@
         <v>221</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>5</v>
@@ -7188,7 +7920,7 @@
         <v>223</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>2</v>
@@ -7199,7 +7931,7 @@
         <v>225</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>2</v>
@@ -7210,7 +7942,7 @@
         <v>227</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>1</v>
@@ -7221,7 +7953,7 @@
         <v>229</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>1</v>
@@ -7232,7 +7964,7 @@
         <v>231</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>3</v>
@@ -7243,7 +7975,7 @@
         <v>233</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>3</v>
@@ -7254,7 +7986,7 @@
         <v>247</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>4</v>
@@ -7265,7 +7997,7 @@
         <v>251</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>4</v>
@@ -7276,7 +8008,7 @@
         <v>255</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>4</v>
@@ -7286,8 +8018,8 @@
       <c r="A177" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>362</v>
+      <c r="B177" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>4</v>
@@ -7305,7 +8037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7315,17 +8047,17 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.21875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,7 +8065,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7341,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7349,7 +8081,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7357,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7365,7 +8097,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,7 +8105,7 @@
         <v>250</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,7 +8113,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7389,7 +8121,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,7 +8129,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7405,7 +8137,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,7 +8145,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,7 +8153,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7429,7 +8161,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7437,7 +8169,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7445,7 +8177,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,7 +8185,7 @@
         <v>120</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,7 +8193,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7469,7 +8201,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,7 +8209,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,7 +8217,7 @@
         <v>130</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7493,7 +8225,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7501,7 +8233,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,7 +8241,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,7 +8249,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7525,7 +8257,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,7 +8265,7 @@
         <v>252</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7541,7 +8273,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7549,7 +8281,7 @@
         <v>283</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7557,7 +8289,7 @@
         <v>289</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,7 +8297,7 @@
         <v>295</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7573,7 +8305,7 @@
         <v>301</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,7 +8313,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7589,7 +8321,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,7 +8329,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7605,7 +8337,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,7 +8345,7 @@
         <v>254</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7621,7 +8353,7 @@
         <v>111</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,7 +8361,7 @@
         <v>256</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7637,7 +8369,7 @@
         <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,7 +8377,7 @@
         <v>258</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7653,7 +8385,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,7 +8393,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,7 +8401,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7677,7 +8409,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7685,7 +8417,7 @@
         <v>271</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,7 +8425,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7701,7 +8433,7 @@
         <v>265</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7709,7 +8441,7 @@
         <v>243</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,7 +8449,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7725,7 +8457,7 @@
         <v>277</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7733,7 +8465,7 @@
         <v>9</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,7 +8473,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7749,7 +8481,7 @@
         <v>305</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7757,7 +8489,7 @@
         <v>150</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7765,7 +8497,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7773,7 +8505,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7781,7 +8513,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7789,7 +8521,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7797,7 +8529,7 @@
         <v>249</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7805,7 +8537,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7813,7 +8545,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7821,7 +8553,7 @@
         <v>56</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7829,7 +8561,7 @@
         <v>66</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7837,7 +8569,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7845,7 +8577,7 @@
         <v>160</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,7 +8585,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,7 +8593,7 @@
         <v>62</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7869,7 +8601,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7877,7 +8609,7 @@
         <v>170</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7885,7 +8617,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7893,7 +8625,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7901,7 +8633,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7909,7 +8641,7 @@
         <v>180</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,7 +8649,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7925,7 +8657,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,7 +8665,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7941,7 +8673,7 @@
         <v>90</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,7 +8681,7 @@
         <v>91</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7957,7 +8689,7 @@
         <v>251</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7965,7 +8697,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7973,7 +8705,7 @@
         <v>281</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7981,7 +8713,7 @@
         <v>287</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7989,7 +8721,7 @@
         <v>293</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7997,7 +8729,7 @@
         <v>299</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8005,7 +8737,7 @@
         <v>58</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8013,7 +8745,7 @@
         <v>97</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8021,7 +8753,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,7 +8761,7 @@
         <v>94</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,7 +8769,7 @@
         <v>253</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8045,7 +8777,7 @@
         <v>161</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,7 +8785,7 @@
         <v>255</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8061,7 +8793,7 @@
         <v>171</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8069,7 +8801,7 @@
         <v>257</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8077,7 +8809,7 @@
         <v>181</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8085,7 +8817,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8093,7 +8825,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8101,7 +8833,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8109,7 +8841,7 @@
         <v>273</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8117,7 +8849,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8125,7 +8857,7 @@
         <v>266</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8133,7 +8865,7 @@
         <v>244</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,7 +8873,7 @@
         <v>64</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8149,7 +8881,7 @@
         <v>275</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8157,7 +8889,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8165,7 +8897,7 @@
         <v>95</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8173,7 +8905,7 @@
         <v>304</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8181,7 +8913,7 @@
         <v>200</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8189,7 +8921,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8197,7 +8929,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,7 +8937,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8213,7 +8945,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,7 +8953,7 @@
         <v>262</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8229,7 +8961,7 @@
         <v>205</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8237,7 +8969,7 @@
         <v>207</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8245,7 +8977,7 @@
         <v>206</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8253,7 +8985,7 @@
         <v>216</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8261,7 +8993,7 @@
         <v>215</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,7 +9001,7 @@
         <v>210</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8277,7 +9009,7 @@
         <v>211</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8285,7 +9017,7 @@
         <v>212</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8293,7 +9025,7 @@
         <v>213</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,7 +9033,7 @@
         <v>220</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,7 +9041,7 @@
         <v>221</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8317,7 +9049,7 @@
         <v>222</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8325,7 +9057,7 @@
         <v>223</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,7 +9065,7 @@
         <v>230</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8341,7 +9073,7 @@
         <v>231</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8349,7 +9081,7 @@
         <v>232</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,7 +9089,7 @@
         <v>233</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8365,7 +9097,7 @@
         <v>240</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8373,7 +9105,7 @@
         <v>241</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8381,7 +9113,7 @@
         <v>263</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,7 +9121,7 @@
         <v>242</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8397,7 +9129,7 @@
         <v>285</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,7 +9137,7 @@
         <v>291</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8413,7 +9145,7 @@
         <v>297</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8421,7 +9153,7 @@
         <v>303</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8429,7 +9161,7 @@
         <v>86</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8437,7 +9169,7 @@
         <v>87</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,7 +9177,7 @@
         <v>88</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,7 +9185,7 @@
         <v>34</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8461,7 +9193,7 @@
         <v>259</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8469,7 +9201,7 @@
         <v>246</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8477,7 +9209,7 @@
         <v>260</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8485,7 +9217,7 @@
         <v>247</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,7 +9225,7 @@
         <v>261</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8501,7 +9233,7 @@
         <v>248</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8509,7 +9241,7 @@
         <v>38</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8517,7 +9249,7 @@
         <v>37</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8525,7 +9257,7 @@
         <v>36</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8533,7 +9265,7 @@
         <v>269</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,7 +9273,7 @@
         <v>35</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8549,7 +9281,7 @@
         <v>267</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8557,7 +9289,7 @@
         <v>245</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8565,7 +9297,7 @@
         <v>214</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8573,7 +9305,7 @@
         <v>279</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8581,7 +9313,7 @@
         <v>84</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8589,7 +9321,7 @@
         <v>85</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8597,7 +9329,7 @@
         <v>264</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -8612,7 +9344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8622,7 +9354,7 @@
       <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
   </cols>
@@ -8630,30 +9362,30 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>0.00038275462962963</v>
@@ -8679,7 +9411,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B3" s="13" t="n">
         <v>0.000836574074074074</v>
@@ -8705,7 +9437,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B4" s="13" t="n">
         <v>0.00182627314814815</v>
@@ -8731,7 +9463,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B5" s="13" t="n">
         <v>0.00387974537037037</v>
@@ -8757,7 +9489,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B6" s="13" t="n">
         <v>0.00797337962962963</v>
@@ -8783,7 +9515,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B7" s="13" t="n">
         <v>0.0149025462962963</v>
@@ -8809,7 +9541,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B8" s="13" t="n">
         <v>0.000447453703703704</v>
@@ -8835,7 +9567,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B9" s="13" t="n">
         <v>0.000994212962962963</v>
@@ -8861,7 +9593,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B10" s="13" t="n">
         <v>0.00205451388888889</v>
@@ -8887,7 +9619,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>0.000488194444444444</v>
@@ -8913,7 +9645,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>0.00110046296296296</v>
@@ -8939,7 +9671,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>0.00233414351851852</v>
@@ -8965,7 +9697,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>0.000405671296296296</v>
@@ -8991,7 +9723,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B15" s="13" t="n">
         <v>0.000929861111111111</v>
@@ -9017,7 +9749,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>0.0020375</v>
@@ -9043,7 +9775,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B17" s="13" t="n">
         <v>0.0021537037037037</v>
@@ -9069,7 +9801,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B18" s="13" t="n">
         <v>0.00442303240740741</v>
